--- a/Saleel Tables/Assignments/2NF DATA for Oracle.xlsx
+++ b/Saleel Tables/Assignments/2NF DATA for Oracle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="522">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1500,67 +1500,91 @@
     <t>10 tables</t>
   </si>
   <si>
-    <t>Aaraya clinic-Ishdan Society</t>
-  </si>
-  <si>
-    <t>8 vaibhav- ishadan sco</t>
-  </si>
-  <si>
-    <t>St. Trona- CA</t>
-  </si>
-  <si>
-    <t>Millen- GA</t>
-  </si>
-  <si>
-    <t>Louisa- KY</t>
-  </si>
-  <si>
-    <t>Pink Stand- TN</t>
-  </si>
-  <si>
-    <t>St. Saugus- MA</t>
-  </si>
-  <si>
-    <t>165 Village Dr.- P.O. Box 3700 Eureka</t>
-  </si>
-  <si>
-    <t>Oakland- TN</t>
-  </si>
-  <si>
-    <t>Faith- NC</t>
-  </si>
-  <si>
-    <t>Bakersfield- CA</t>
-  </si>
-  <si>
-    <t>Saugus- MA</t>
-  </si>
-  <si>
-    <t>165 Ken city- P.O. Box 942873</t>
-  </si>
-  <si>
-    <t>Po Box 83- Faith- NC</t>
-  </si>
-  <si>
-    <t>118 Lippitt Ave Warwick- Rhode Island</t>
-  </si>
-  <si>
-    <t>13758 Dogwood St- Trona</t>
-  </si>
-  <si>
-    <t>2263 Ga 17 Hwy N- Millen</t>
-  </si>
-  <si>
-    <t>A-005-Spring fields soc.</t>
-  </si>
-  <si>
-    <t>MG Road- - GGNT</t>
-  </si>
-  <si>
-    <t>12/A1010 Ramnagar- nana peth</t>
-  </si>
-  <si>
-    <t>Anurang apt vishrambag-Sangli</t>
+    <t>118 Lippitt Ave Warwick</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>Abrol</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>St, Trona, CA,</t>
+  </si>
+  <si>
+    <t>Millen, GA</t>
+  </si>
+  <si>
+    <t>Louisa, KY</t>
+  </si>
+  <si>
+    <t>Pink Stand, TN</t>
+  </si>
+  <si>
+    <t>St, Saugus, MA</t>
+  </si>
+  <si>
+    <t>165 Village Dr., P.O. Box 3700</t>
+  </si>
+  <si>
+    <t>Oakland, TN</t>
+  </si>
+  <si>
+    <t>Faith, NC</t>
+  </si>
+  <si>
+    <t>Bakersfield, CA</t>
+  </si>
+  <si>
+    <t>Saugus, MA</t>
+  </si>
+  <si>
+    <t>165 Ken city, P.O. Box 942873</t>
+  </si>
+  <si>
+    <t>Po Box 83, Faith, NC</t>
+  </si>
+  <si>
+    <t>13758 Dogwood St, Trona</t>
+  </si>
+  <si>
+    <t>2263 Ga 17 Hwy N, Millen</t>
+  </si>
+  <si>
+    <t>A-005,Spring fields soc.</t>
+  </si>
+  <si>
+    <t>Aaraya clinic,Ishdan Society</t>
+  </si>
+  <si>
+    <t>8 vaibhav, ishadan sco</t>
+  </si>
+  <si>
+    <t>MG Road, - GGNT</t>
+  </si>
+  <si>
+    <t>12/A1010 Ramnagar, nana peth</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,8 +1649,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1682,26 +1712,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1786,9 +1803,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1817,12 +1831,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1841,6 +1850,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3755,9 +3765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,7 +3818,7 @@
     <col min="49" max="49" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="7" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.140625" style="44" customWidth="1"/>
+    <col min="52" max="52" width="4.140625" style="43" customWidth="1"/>
     <col min="53" max="53" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="20.140625" bestFit="1" customWidth="1"/>
@@ -3826,86 +3836,86 @@
       </c>
     </row>
     <row r="2" spans="1:62" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="23"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AD2" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="51" t="s">
+      <c r="AI2" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="53" t="s">
+      <c r="AP2" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="50" t="s">
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BE2" s="49" t="s">
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BE2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -4038,7 +4048,7 @@
       <c r="AY3" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="43"/>
+      <c r="AZ3" s="42"/>
       <c r="BA3" s="14" t="s">
         <v>249</v>
       </c>
@@ -4081,7 +4091,7 @@
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="44">
         <v>23540</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -4105,10 +4115,10 @@
       <c r="N4" s="10">
         <v>12</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="44">
         <v>31016</v>
       </c>
-      <c r="P4" s="46">
+      <c r="P4" s="44">
         <v>33112</v>
       </c>
       <c r="R4" s="10">
@@ -4117,10 +4127,10 @@
       <c r="S4" s="10">
         <v>12</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="44">
         <v>31016</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="44">
         <v>33112</v>
       </c>
       <c r="V4" s="12">
@@ -4132,10 +4142,10 @@
       <c r="Y4" s="10">
         <v>12</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="44">
         <v>31016</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="44">
         <v>33112</v>
       </c>
       <c r="AB4" s="12" t="s">
@@ -4147,7 +4157,7 @@
       <c r="AE4" s="10">
         <v>1</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="10">
         <v>7032300034</v>
       </c>
       <c r="AG4" s="11" t="s">
@@ -4163,7 +4173,7 @@
         <v>383</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AM4" s="11" t="s">
         <v>346</v>
@@ -4183,10 +4193,10 @@
       <c r="AS4" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT4" s="46">
+      <c r="AT4" s="19">
         <v>21034</v>
       </c>
-      <c r="AU4" s="34" t="s">
+      <c r="AU4" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV4" s="19" t="s">
@@ -4221,10 +4231,10 @@
       <c r="BG4" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="BH4" s="46">
+      <c r="BH4" s="44">
         <v>23540</v>
       </c>
-      <c r="BI4" s="46">
+      <c r="BI4" s="44">
         <v>24300</v>
       </c>
       <c r="BJ4" s="12" t="s">
@@ -4244,7 +4254,7 @@
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>23675</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -4268,10 +4278,10 @@
       <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="44">
         <v>33113</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="44">
         <v>34409</v>
       </c>
       <c r="R5" s="10">
@@ -4280,10 +4290,10 @@
       <c r="S5" s="10">
         <v>12</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="44">
         <v>33113</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="44">
         <v>34409</v>
       </c>
       <c r="V5" s="12">
@@ -4295,10 +4305,10 @@
       <c r="Y5" s="10">
         <v>12</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="44">
         <v>33113</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="44">
         <v>34409</v>
       </c>
       <c r="AB5" s="12">
@@ -4310,7 +4320,7 @@
       <c r="AE5" s="10">
         <v>2</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="10">
         <v>7032300039</v>
       </c>
       <c r="AG5" s="11" t="s">
@@ -4326,7 +4336,7 @@
         <v>364</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AM5" s="11" t="s">
         <v>347</v>
@@ -4346,10 +4356,10 @@
       <c r="AS5" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT5" s="46">
+      <c r="AT5" s="19">
         <v>21723</v>
       </c>
-      <c r="AU5" s="34" t="s">
+      <c r="AU5" s="33" t="s">
         <v>394</v>
       </c>
       <c r="AV5" s="19" t="s">
@@ -4384,10 +4394,10 @@
       <c r="BG5" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="BH5" s="46">
+      <c r="BH5" s="44">
         <v>24301</v>
       </c>
-      <c r="BI5" s="46">
+      <c r="BI5" s="44">
         <v>25762</v>
       </c>
       <c r="BJ5" s="12" t="s">
@@ -4407,7 +4417,7 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="44">
         <v>23675</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -4431,10 +4441,10 @@
       <c r="N6" s="10">
         <v>12</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="44">
         <v>34410</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="44">
         <v>36967</v>
       </c>
       <c r="R6" s="10">
@@ -4443,10 +4453,10 @@
       <c r="S6" s="10">
         <v>12</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="44">
         <v>34410</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6" s="44">
         <v>36967</v>
       </c>
       <c r="V6" s="12">
@@ -4458,10 +4468,10 @@
       <c r="Y6" s="10">
         <v>12</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="44">
         <v>34410</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="44">
         <v>36967</v>
       </c>
       <c r="AB6" s="12" t="s">
@@ -4473,7 +4483,7 @@
       <c r="AE6" s="10">
         <v>3</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="10">
         <v>7032300050</v>
       </c>
       <c r="AG6" s="11" t="s">
@@ -4489,7 +4499,7 @@
         <v>382</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>348</v>
@@ -4509,10 +4519,10 @@
       <c r="AS6" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="AT6" s="46">
+      <c r="AT6" s="19">
         <v>22079</v>
       </c>
-      <c r="AU6" s="34" t="s">
+      <c r="AU6" s="33" t="s">
         <v>395</v>
       </c>
       <c r="AV6" s="19" t="s">
@@ -4543,13 +4553,13 @@
       <c r="BF6" s="10">
         <v>1</v>
       </c>
-      <c r="BG6" s="36" t="s">
+      <c r="BG6" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="BH6" s="46">
+      <c r="BH6" s="44">
         <v>25763</v>
       </c>
-      <c r="BI6" s="46">
+      <c r="BI6" s="44">
         <v>27589</v>
       </c>
       <c r="BJ6" s="12" t="s">
@@ -4569,7 +4579,7 @@
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="44">
         <v>24046</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -4593,10 +4603,10 @@
       <c r="N7" s="10">
         <v>12</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="44">
         <v>36968</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="44">
         <v>37445</v>
       </c>
       <c r="R7" s="10">
@@ -4605,14 +4615,14 @@
       <c r="S7" s="10">
         <v>12</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="44">
         <v>36968</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="44">
         <v>37445</v>
       </c>
       <c r="V7" s="12">
-        <v>2320</v>
+        <v>3100</v>
       </c>
       <c r="X7" s="10">
         <v>4</v>
@@ -4620,10 +4630,10 @@
       <c r="Y7" s="10">
         <v>12</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7" s="44">
         <v>36968</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="44">
         <v>37445</v>
       </c>
       <c r="AB7" s="12">
@@ -4635,7 +4645,7 @@
       <c r="AE7" s="10">
         <v>4</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="10">
         <v>7032300027</v>
       </c>
       <c r="AG7" s="11" t="s">
@@ -4651,7 +4661,7 @@
         <v>381</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="AM7" s="11" t="s">
         <v>349</v>
@@ -4671,10 +4681,10 @@
       <c r="AS7" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT7" s="46">
+      <c r="AT7" s="19">
         <v>20839</v>
       </c>
-      <c r="AU7" s="34" t="s">
+      <c r="AU7" s="33" t="s">
         <v>394</v>
       </c>
       <c r="AV7" s="19" t="s">
@@ -4706,13 +4716,13 @@
       <c r="BF7" s="10">
         <v>1</v>
       </c>
-      <c r="BG7" s="36" t="s">
+      <c r="BG7" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="BH7" s="46">
+      <c r="BH7" s="44">
         <v>27590</v>
       </c>
-      <c r="BI7" s="46">
+      <c r="BI7" s="44">
         <v>29079</v>
       </c>
       <c r="BJ7" s="12" t="s">
@@ -4732,7 +4742,7 @@
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="44">
         <v>23754</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -4756,10 +4766,10 @@
       <c r="N8" s="10">
         <v>12</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="44">
         <v>37446</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="44">
         <v>38016</v>
       </c>
       <c r="R8" s="10">
@@ -4768,10 +4778,10 @@
       <c r="S8" s="10">
         <v>12</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="44">
         <v>37446</v>
       </c>
-      <c r="U8" s="46">
+      <c r="U8" s="44">
         <v>38016</v>
       </c>
       <c r="V8" s="12">
@@ -4783,10 +4793,10 @@
       <c r="Y8" s="10">
         <v>12</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="44">
         <v>37446</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="44">
         <v>38016</v>
       </c>
       <c r="AB8" s="12" t="s">
@@ -4798,7 +4808,7 @@
       <c r="AE8" s="10">
         <v>5</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="10">
         <v>7032300001</v>
       </c>
       <c r="AG8" s="11" t="s">
@@ -4814,7 +4824,7 @@
         <v>380</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>350</v>
@@ -4831,13 +4841,13 @@
       <c r="AR8" s="11">
         <v>12</v>
       </c>
-      <c r="AS8" s="39" t="s">
+      <c r="AS8" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="AT8" s="46">
+      <c r="AT8" s="19">
         <v>21846</v>
       </c>
-      <c r="AU8" s="34" t="s">
+      <c r="AU8" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AV8" s="19" t="s">
@@ -4868,13 +4878,13 @@
       <c r="BF8" s="10">
         <v>1</v>
       </c>
-      <c r="BG8" s="36" t="s">
+      <c r="BG8" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="BH8" s="46">
+      <c r="BH8" s="44">
         <v>29080</v>
       </c>
-      <c r="BI8" s="46">
+      <c r="BI8" s="44">
         <v>30540</v>
       </c>
       <c r="BJ8" s="12" t="s">
@@ -4894,7 +4904,7 @@
       <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="44">
         <v>24077</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -4918,10 +4928,10 @@
       <c r="N9" s="30">
         <v>7</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="44">
         <v>22264</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="44">
         <v>23205</v>
       </c>
       <c r="R9" s="10">
@@ -4930,10 +4940,10 @@
       <c r="S9" s="10">
         <v>7</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="44">
         <v>22264</v>
       </c>
-      <c r="U9" s="46">
+      <c r="U9" s="44">
         <v>23205</v>
       </c>
       <c r="V9" s="12">
@@ -4945,13 +4955,13 @@
       <c r="Y9" s="30">
         <v>7</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9" s="44">
         <v>22264</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="44">
         <v>23205</v>
       </c>
-      <c r="AB9" s="33">
+      <c r="AB9" s="32">
         <v>350</v>
       </c>
       <c r="AD9" s="10">
@@ -4960,7 +4970,7 @@
       <c r="AE9" s="10">
         <v>6</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="10">
         <v>7032300079</v>
       </c>
       <c r="AG9" s="11" t="s">
@@ -4973,10 +4983,10 @@
         <v>6</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AM9" s="27" t="s">
         <v>365</v>
@@ -4993,13 +5003,13 @@
       <c r="AR9" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="AS9" s="39" t="s">
+      <c r="AS9" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="AT9" s="46">
+      <c r="AT9" s="19">
         <v>22079</v>
       </c>
-      <c r="AU9" s="34" t="s">
+      <c r="AU9" s="33" t="s">
         <v>396</v>
       </c>
       <c r="AV9" s="19" t="s">
@@ -5031,13 +5041,13 @@
       <c r="BF9" s="10">
         <v>2</v>
       </c>
-      <c r="BG9" s="36" t="s">
+      <c r="BG9" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH9" s="46">
+      <c r="BH9" s="44">
         <v>23675</v>
       </c>
-      <c r="BI9" s="46">
+      <c r="BI9" s="44">
         <v>25539</v>
       </c>
       <c r="BJ9" s="12" t="s">
@@ -5057,7 +5067,7 @@
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="44">
         <v>22264</v>
       </c>
       <c r="F10" s="17" t="s">
@@ -5081,10 +5091,10 @@
       <c r="N10" s="30">
         <v>7</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="44">
         <v>23206</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="44">
         <v>25070</v>
       </c>
       <c r="R10" s="10">
@@ -5093,10 +5103,10 @@
       <c r="S10" s="10">
         <v>7</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="44">
         <v>23206</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10" s="44">
         <v>25070</v>
       </c>
       <c r="V10" s="12">
@@ -5108,13 +5118,13 @@
       <c r="Y10" s="30">
         <v>7</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10" s="44">
         <v>23206</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="44">
         <v>25070</v>
       </c>
-      <c r="AB10" s="33">
+      <c r="AB10" s="32">
         <v>450</v>
       </c>
       <c r="AD10" s="10">
@@ -5123,7 +5133,7 @@
       <c r="AE10" s="10">
         <v>7</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="10">
         <v>7032300081</v>
       </c>
       <c r="AG10" s="11" t="s">
@@ -5139,7 +5149,7 @@
         <v>379</v>
       </c>
       <c r="AL10" s="11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>352</v>
@@ -5159,10 +5169,10 @@
       <c r="AS10" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT10" s="46">
+      <c r="AT10" s="19">
         <v>21149</v>
       </c>
-      <c r="AU10" s="34" t="s">
+      <c r="AU10" s="33" t="s">
         <v>395</v>
       </c>
       <c r="AV10" s="19" t="s">
@@ -5194,13 +5204,13 @@
       <c r="BF10" s="10">
         <v>2</v>
       </c>
-      <c r="BG10" s="36" t="s">
+      <c r="BG10" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="BH10" s="46">
+      <c r="BH10" s="44">
         <v>25540</v>
       </c>
-      <c r="BI10" s="46">
+      <c r="BI10" s="44">
         <v>27217</v>
       </c>
       <c r="BJ10" s="12" t="s">
@@ -5220,7 +5230,7 @@
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>22279</v>
       </c>
       <c r="F11" s="17" t="s">
@@ -5244,10 +5254,10 @@
       <c r="N11" s="30">
         <v>7</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="44">
         <v>25071</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="44">
         <v>26630</v>
       </c>
       <c r="R11" s="10">
@@ -5256,10 +5266,10 @@
       <c r="S11" s="10">
         <v>7</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="44">
         <v>25071</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11" s="44">
         <v>26630</v>
       </c>
       <c r="V11" s="12">
@@ -5271,13 +5281,13 @@
       <c r="Y11" s="30">
         <v>7</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="44">
         <v>25071</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11" s="44">
         <v>26630</v>
       </c>
-      <c r="AB11" s="33" t="s">
+      <c r="AB11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="AD11" s="10">
@@ -5286,7 +5296,7 @@
       <c r="AE11" s="10">
         <v>8</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="10">
         <v>7032300054</v>
       </c>
       <c r="AG11" s="11" t="s">
@@ -5302,7 +5312,7 @@
         <v>378</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>353</v>
@@ -5322,10 +5332,10 @@
       <c r="AS11" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT11" s="46">
+      <c r="AT11" s="19">
         <v>21598</v>
       </c>
-      <c r="AU11" s="34" t="s">
+      <c r="AU11" s="33" t="s">
         <v>397</v>
       </c>
       <c r="AV11" s="19" t="s">
@@ -5357,13 +5367,13 @@
       <c r="BF11" s="10">
         <v>2</v>
       </c>
-      <c r="BG11" s="36" t="s">
+      <c r="BG11" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="BH11" s="46">
+      <c r="BH11" s="44">
         <v>27218</v>
       </c>
-      <c r="BI11" s="46">
+      <c r="BI11" s="44">
         <v>28907</v>
       </c>
       <c r="BJ11" s="12" t="s">
@@ -5383,7 +5393,7 @@
       <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="44">
         <v>30250</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -5407,10 +5417,10 @@
       <c r="N12" s="30">
         <v>7</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="44">
         <v>26661</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="44">
         <v>27347</v>
       </c>
       <c r="R12" s="10">
@@ -5419,14 +5429,14 @@
       <c r="S12" s="10">
         <v>7</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="44">
         <v>26661</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="44">
         <v>27347</v>
       </c>
       <c r="V12" s="12">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="X12" s="10">
         <v>9</v>
@@ -5434,13 +5444,13 @@
       <c r="Y12" s="30">
         <v>7</v>
       </c>
-      <c r="Z12" s="46">
+      <c r="Z12" s="44">
         <v>26661</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12" s="44">
         <v>27347</v>
       </c>
-      <c r="AB12" s="33">
+      <c r="AB12" s="32">
         <v>400</v>
       </c>
       <c r="AD12" s="10">
@@ -5449,7 +5459,7 @@
       <c r="AE12" s="10">
         <v>9</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="10">
         <v>7032300059</v>
       </c>
       <c r="AG12" s="11" t="s">
@@ -5465,7 +5475,7 @@
         <v>366</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AM12" s="27" t="s">
         <v>365</v>
@@ -5485,10 +5495,10 @@
       <c r="AS12" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="AT12" s="46">
+      <c r="AT12" s="19">
         <v>22079</v>
       </c>
-      <c r="AU12" s="34" t="s">
+      <c r="AU12" s="33" t="s">
         <v>398</v>
       </c>
       <c r="AV12" s="19" t="s">
@@ -5519,13 +5529,13 @@
       <c r="BF12" s="10">
         <v>2</v>
       </c>
-      <c r="BG12" s="36" t="s">
+      <c r="BG12" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="BH12" s="46">
+      <c r="BH12" s="44">
         <v>28908</v>
       </c>
-      <c r="BI12" s="46">
+      <c r="BI12" s="44">
         <v>29301</v>
       </c>
       <c r="BJ12" s="12" t="s">
@@ -5545,7 +5555,7 @@
       <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="44">
         <v>30615</v>
       </c>
       <c r="F13" s="17" t="s">
@@ -5569,10 +5579,10 @@
       <c r="N13" s="30">
         <v>7</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="44">
         <v>27348</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="44">
         <v>29264</v>
       </c>
       <c r="R13" s="10">
@@ -5581,10 +5591,10 @@
       <c r="S13" s="10">
         <v>7</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="44">
         <v>27348</v>
       </c>
-      <c r="U13" s="46">
+      <c r="U13" s="44">
         <v>29264</v>
       </c>
       <c r="V13" s="12">
@@ -5596,13 +5606,13 @@
       <c r="Y13" s="30">
         <v>7</v>
       </c>
-      <c r="Z13" s="46">
+      <c r="Z13" s="44">
         <v>27348</v>
       </c>
-      <c r="AA13" s="46">
+      <c r="AA13" s="44">
         <v>29264</v>
       </c>
-      <c r="AB13" s="33">
+      <c r="AB13" s="32">
         <v>350</v>
       </c>
       <c r="AD13" s="10">
@@ -5611,7 +5621,7 @@
       <c r="AE13" s="10">
         <v>10</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="10">
         <v>7032300086</v>
       </c>
       <c r="AG13" s="11" t="s">
@@ -5647,10 +5657,10 @@
       <c r="AS13" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT13" s="46">
+      <c r="AT13" s="19">
         <v>21263</v>
       </c>
-      <c r="AU13" s="34" t="s">
+      <c r="AU13" s="33" t="s">
         <v>399</v>
       </c>
       <c r="AV13" s="19" t="s">
@@ -5682,13 +5692,13 @@
       <c r="BF13" s="10">
         <v>2</v>
       </c>
-      <c r="BG13" s="36" t="s">
+      <c r="BG13" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="BH13" s="46">
+      <c r="BH13" s="44">
         <v>29302</v>
       </c>
-      <c r="BI13" s="46">
+      <c r="BI13" s="44">
         <v>30675</v>
       </c>
       <c r="BJ13" s="12" t="s">
@@ -5708,7 +5718,7 @@
       <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="44">
         <v>30985</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -5732,10 +5742,10 @@
       <c r="N14" s="10">
         <v>19</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="44">
         <v>23328</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="44">
         <v>24605</v>
       </c>
       <c r="R14" s="10">
@@ -5744,13 +5754,13 @@
       <c r="S14" s="10">
         <v>19</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="44">
         <v>23328</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14" s="44">
         <v>24605</v>
       </c>
-      <c r="V14" s="24">
+      <c r="V14" s="32">
         <v>1300</v>
       </c>
       <c r="X14" s="10">
@@ -5759,13 +5769,13 @@
       <c r="Y14" s="30">
         <v>7</v>
       </c>
-      <c r="Z14" s="46">
+      <c r="Z14" s="44">
         <v>27348</v>
       </c>
-      <c r="AA14" s="46">
+      <c r="AA14" s="44">
         <v>29264</v>
       </c>
-      <c r="AB14" s="33">
+      <c r="AB14" s="32">
         <v>650</v>
       </c>
       <c r="AD14" s="10">
@@ -5774,7 +5784,7 @@
       <c r="AE14" s="10">
         <v>11</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="10">
         <v>7032300082</v>
       </c>
       <c r="AG14" s="11" t="s">
@@ -5790,7 +5800,7 @@
         <v>371</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>353</v>
@@ -5810,16 +5820,16 @@
       <c r="AS14" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT14" s="46">
+      <c r="AT14" s="19">
         <v>22057</v>
       </c>
-      <c r="AU14" s="34" t="s">
+      <c r="AU14" s="33" t="s">
         <v>410</v>
       </c>
       <c r="AV14" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="AW14" s="35">
+      <c r="AW14" s="34">
         <v>1961</v>
       </c>
       <c r="AX14" s="10">
@@ -5844,13 +5854,13 @@
       <c r="BF14" s="10">
         <v>3</v>
       </c>
-      <c r="BG14" s="36" t="s">
+      <c r="BG14" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="BH14" s="46">
+      <c r="BH14" s="44">
         <v>23675</v>
       </c>
-      <c r="BI14" s="46">
+      <c r="BI14" s="44">
         <v>25539</v>
       </c>
       <c r="BJ14" s="12" t="s">
@@ -5870,7 +5880,7 @@
       <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="44">
         <v>31016</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -5894,10 +5904,10 @@
       <c r="N15" s="10">
         <v>19</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="44">
         <v>24606</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="44">
         <v>26047</v>
       </c>
       <c r="R15" s="10">
@@ -5906,13 +5916,13 @@
       <c r="S15" s="10">
         <v>19</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="44">
         <v>24606</v>
       </c>
-      <c r="U15" s="46">
+      <c r="U15" s="44">
         <v>26047</v>
       </c>
-      <c r="V15" s="24">
+      <c r="V15" s="32">
         <v>1600</v>
       </c>
       <c r="X15" s="10">
@@ -5921,10 +5931,10 @@
       <c r="Y15" s="10">
         <v>19</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15" s="44">
         <v>23328</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15" s="44">
         <v>24605</v>
       </c>
       <c r="AB15" s="12">
@@ -5936,7 +5946,7 @@
       <c r="AE15" s="10">
         <v>12</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="10">
         <v>7032300042</v>
       </c>
       <c r="AG15" s="11" t="s">
@@ -5949,7 +5959,7 @@
         <v>12</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AL15" s="11" t="s">
         <v>373</v>
@@ -5969,13 +5979,13 @@
       <c r="AR15" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AS15" s="39" t="s">
+      <c r="AS15" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="AT15" s="46">
+      <c r="AT15" s="19">
         <v>22585</v>
       </c>
-      <c r="AU15" s="34" t="s">
+      <c r="AU15" s="33" t="s">
         <v>406</v>
       </c>
       <c r="AV15" s="19" t="s">
@@ -6007,13 +6017,13 @@
       <c r="BF15" s="10">
         <v>3</v>
       </c>
-      <c r="BG15" s="36" t="s">
+      <c r="BG15" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH15" s="46">
+      <c r="BH15" s="44">
         <v>25540</v>
       </c>
-      <c r="BI15" s="46">
+      <c r="BI15" s="44">
         <v>27217</v>
       </c>
       <c r="BJ15" s="12" t="s">
@@ -6033,7 +6043,7 @@
       <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="44">
         <v>31382</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -6057,10 +6067,10 @@
       <c r="N16" s="10">
         <v>19</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="44">
         <v>26048</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="44">
         <v>29051</v>
       </c>
       <c r="R16" s="10">
@@ -6069,13 +6079,13 @@
       <c r="S16" s="10">
         <v>19</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="44">
         <v>26048</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="44">
         <v>29051</v>
       </c>
-      <c r="V16" s="24">
+      <c r="V16" s="32">
         <v>2000</v>
       </c>
       <c r="X16" s="10">
@@ -6084,10 +6094,10 @@
       <c r="Y16" s="10">
         <v>19</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="Z16" s="44">
         <v>24606</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16" s="44">
         <v>26047</v>
       </c>
       <c r="AB16" s="12">
@@ -6099,7 +6109,7 @@
       <c r="AE16" s="10">
         <v>13</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="10">
         <v>7032300055</v>
       </c>
       <c r="AG16" s="11" t="s">
@@ -6112,7 +6122,7 @@
         <v>13</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AL16" s="11" t="s">
         <v>384</v>
@@ -6135,10 +6145,10 @@
       <c r="AS16" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT16" s="46">
+      <c r="AT16" s="19">
         <v>21296</v>
       </c>
-      <c r="AU16" s="34" t="s">
+      <c r="AU16" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV16" s="19" t="s">
@@ -6169,13 +6179,13 @@
       <c r="BF16" s="10">
         <v>3</v>
       </c>
-      <c r="BG16" s="36" t="s">
+      <c r="BG16" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="BH16" s="46">
+      <c r="BH16" s="44">
         <v>27218</v>
       </c>
-      <c r="BI16" s="46">
+      <c r="BI16" s="44">
         <v>28907</v>
       </c>
       <c r="BJ16" s="12" t="s">
@@ -6195,19 +6205,19 @@
       <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="44">
         <v>31761</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>140</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="37" t="s">
         <v>260</v>
       </c>
       <c r="L17" s="10">
@@ -6219,10 +6229,10 @@
       <c r="N17" s="10">
         <v>19</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="44">
         <v>29052</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="44">
         <v>29480</v>
       </c>
       <c r="R17" s="10">
@@ -6231,13 +6241,13 @@
       <c r="S17" s="10">
         <v>19</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="44">
         <v>29052</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="44">
         <v>29480</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="32">
         <v>2100</v>
       </c>
       <c r="X17" s="10">
@@ -6246,10 +6256,10 @@
       <c r="Y17" s="10">
         <v>19</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="Z17" s="44">
         <v>26048</v>
       </c>
-      <c r="AA17" s="46">
+      <c r="AA17" s="44">
         <v>29051</v>
       </c>
       <c r="AB17" s="12" t="s">
@@ -6261,7 +6271,7 @@
       <c r="AE17" s="10">
         <v>14</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="10">
         <v>7032300013</v>
       </c>
       <c r="AG17" s="11" t="s">
@@ -6297,16 +6307,16 @@
       <c r="AS17" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT17" s="46">
+      <c r="AT17" s="19">
         <v>22058</v>
       </c>
-      <c r="AU17" s="34" t="s">
+      <c r="AU17" s="33" t="s">
         <v>408</v>
       </c>
       <c r="AV17" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="AW17" s="35">
+      <c r="AW17" s="34">
         <v>1961</v>
       </c>
       <c r="AX17" s="10">
@@ -6335,10 +6345,10 @@
       <c r="BG17" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="BH17" s="46">
+      <c r="BH17" s="44">
         <v>28908</v>
       </c>
-      <c r="BI17" s="46">
+      <c r="BI17" s="44">
         <v>29301</v>
       </c>
       <c r="BJ17" s="12" t="s">
@@ -6358,19 +6368,19 @@
       <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="44">
         <v>32141</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>150</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>277</v>
       </c>
       <c r="L18" s="10">
@@ -6382,10 +6392,10 @@
       <c r="N18" s="10">
         <v>19</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="44">
         <v>29481</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="44">
         <v>30328</v>
       </c>
       <c r="R18" s="10">
@@ -6394,13 +6404,13 @@
       <c r="S18" s="10">
         <v>19</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="44">
         <v>29481</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="44">
         <v>30328</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="32">
         <v>2700</v>
       </c>
       <c r="X18" s="10">
@@ -6409,10 +6419,10 @@
       <c r="Y18" s="10">
         <v>19</v>
       </c>
-      <c r="Z18" s="46">
+      <c r="Z18" s="44">
         <v>29052</v>
       </c>
-      <c r="AA18" s="46">
+      <c r="AA18" s="44">
         <v>29480</v>
       </c>
       <c r="AB18" s="12">
@@ -6424,7 +6434,7 @@
       <c r="AE18" s="10">
         <v>15</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18" s="10">
         <v>7032300099</v>
       </c>
       <c r="AG18" s="11" t="s">
@@ -6437,7 +6447,7 @@
         <v>15</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>374</v>
@@ -6460,10 +6470,10 @@
       <c r="AS18" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="AT18" s="46">
+      <c r="AT18" s="19">
         <v>22585</v>
       </c>
-      <c r="AU18" s="34" t="s">
+      <c r="AU18" s="33" t="s">
         <v>416</v>
       </c>
       <c r="AV18" s="19" t="s">
@@ -6497,10 +6507,10 @@
       <c r="BG18" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="BH18" s="46">
+      <c r="BH18" s="44">
         <v>29302</v>
       </c>
-      <c r="BI18" s="46">
+      <c r="BI18" s="44">
         <v>30675</v>
       </c>
       <c r="BJ18" s="12" t="s">
@@ -6520,7 +6530,7 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="44">
         <v>24077</v>
       </c>
       <c r="F19" s="17" t="s">
@@ -6536,10 +6546,10 @@
       <c r="N19" s="10">
         <v>22</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="44">
         <v>22746</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="44">
         <v>23233</v>
       </c>
       <c r="R19" s="10">
@@ -6548,13 +6558,13 @@
       <c r="S19" s="10">
         <v>22</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="44">
         <v>22746</v>
       </c>
-      <c r="U19" s="46">
+      <c r="U19" s="44">
         <v>23233</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="32">
         <v>1500</v>
       </c>
       <c r="X19" s="10">
@@ -6563,10 +6573,10 @@
       <c r="Y19" s="10">
         <v>19</v>
       </c>
-      <c r="Z19" s="46">
+      <c r="Z19" s="44">
         <v>29481</v>
       </c>
-      <c r="AA19" s="46">
+      <c r="AA19" s="44">
         <v>30328</v>
       </c>
       <c r="AB19" s="12">
@@ -6578,7 +6588,7 @@
       <c r="AE19" s="10">
         <v>16</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="10">
         <v>7032300023</v>
       </c>
       <c r="AG19" s="11" t="s">
@@ -6614,10 +6624,10 @@
       <c r="AS19" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT19" s="46">
+      <c r="AT19" s="19">
         <v>21209</v>
       </c>
-      <c r="AU19" s="34" t="s">
+      <c r="AU19" s="33" t="s">
         <v>405</v>
       </c>
       <c r="AV19" s="19" t="s">
@@ -6652,10 +6662,10 @@
       <c r="BG19" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="BH19" s="46">
+      <c r="BH19" s="44">
         <v>24046</v>
       </c>
-      <c r="BI19" s="46">
+      <c r="BI19" s="44">
         <v>25699</v>
       </c>
       <c r="BJ19" s="12" t="s">
@@ -6675,7 +6685,7 @@
       <c r="D20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="44">
         <v>30250</v>
       </c>
       <c r="F20" s="17" t="s">
@@ -6691,10 +6701,10 @@
       <c r="N20" s="10">
         <v>22</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="44">
         <v>23234</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="44">
         <v>24487</v>
       </c>
       <c r="R20" s="10">
@@ -6703,13 +6713,13 @@
       <c r="S20" s="10">
         <v>22</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="44">
         <v>23234</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20" s="44">
         <v>24487</v>
       </c>
-      <c r="V20" s="24">
+      <c r="V20" s="32">
         <v>1700</v>
       </c>
       <c r="X20" s="10">
@@ -6718,10 +6728,10 @@
       <c r="Y20" s="10">
         <v>22</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="Z20" s="44">
         <v>22746</v>
       </c>
-      <c r="AA20" s="46">
+      <c r="AA20" s="44">
         <v>23233</v>
       </c>
       <c r="AB20" s="12">
@@ -6733,7 +6743,7 @@
       <c r="AE20" s="10">
         <v>17</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AF20" s="10">
         <v>7032300084</v>
       </c>
       <c r="AG20" s="11" t="s">
@@ -6746,7 +6756,7 @@
         <v>17</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="AL20" s="11" t="s">
         <v>384</v>
@@ -6769,16 +6779,16 @@
       <c r="AS20" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT20" s="46">
+      <c r="AT20" s="19">
         <v>21988</v>
       </c>
-      <c r="AU20" s="34" t="s">
+      <c r="AU20" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV20" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="AW20" s="35">
+      <c r="AW20" s="34">
         <v>1961</v>
       </c>
       <c r="AX20" s="10">
@@ -6806,10 +6816,10 @@
       <c r="BG20" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BH20" s="46">
+      <c r="BH20" s="44">
         <v>25700</v>
       </c>
-      <c r="BI20" s="46">
+      <c r="BI20" s="44">
         <v>27592</v>
       </c>
       <c r="BJ20" s="12" t="s">
@@ -6829,7 +6839,7 @@
       <c r="D21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="44">
         <v>23540</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -6845,10 +6855,10 @@
       <c r="N21" s="10">
         <v>22</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="44">
         <v>24488</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="44">
         <v>26355</v>
       </c>
       <c r="R21" s="10">
@@ -6857,13 +6867,13 @@
       <c r="S21" s="10">
         <v>22</v>
       </c>
-      <c r="T21" s="46">
+      <c r="T21" s="44">
         <v>24488</v>
       </c>
-      <c r="U21" s="46">
+      <c r="U21" s="44">
         <v>26355</v>
       </c>
-      <c r="V21" s="24">
+      <c r="V21" s="32">
         <v>2000</v>
       </c>
       <c r="X21" s="10">
@@ -6872,10 +6882,10 @@
       <c r="Y21" s="10">
         <v>22</v>
       </c>
-      <c r="Z21" s="46">
+      <c r="Z21" s="44">
         <v>23234</v>
       </c>
-      <c r="AA21" s="46">
+      <c r="AA21" s="44">
         <v>24487</v>
       </c>
       <c r="AB21" s="12" t="s">
@@ -6887,7 +6897,7 @@
       <c r="AE21" s="10">
         <v>18</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="10">
         <v>7032300011</v>
       </c>
       <c r="AG21" s="11" t="s">
@@ -6900,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="AL21" s="11" t="s">
         <v>384</v>
@@ -6923,10 +6933,10 @@
       <c r="AS21" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="AT21" s="46">
+      <c r="AT21" s="19">
         <v>22585</v>
       </c>
-      <c r="AU21" s="34" t="s">
+      <c r="AU21" s="33" t="s">
         <v>400</v>
       </c>
       <c r="AV21" s="19" t="s">
@@ -6960,10 +6970,10 @@
       <c r="BG21" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BH21" s="46">
+      <c r="BH21" s="44">
         <v>27593</v>
       </c>
-      <c r="BI21" s="46">
+      <c r="BI21" s="44">
         <v>28796</v>
       </c>
       <c r="BJ21" s="12" t="s">
@@ -6983,7 +6993,7 @@
       <c r="D22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="44">
         <v>23328</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -6999,10 +7009,10 @@
       <c r="N22" s="10">
         <v>22</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="44">
         <v>26356</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="44">
         <v>27325</v>
       </c>
       <c r="R22" s="10">
@@ -7011,13 +7021,13 @@
       <c r="S22" s="10">
         <v>22</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22" s="44">
         <v>26356</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="44">
         <v>27325</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="32">
         <v>2500</v>
       </c>
       <c r="X22" s="10">
@@ -7026,10 +7036,10 @@
       <c r="Y22" s="10">
         <v>22</v>
       </c>
-      <c r="Z22" s="46">
+      <c r="Z22" s="44">
         <v>24488</v>
       </c>
-      <c r="AA22" s="46">
+      <c r="AA22" s="44">
         <v>26355</v>
       </c>
       <c r="AB22" s="12">
@@ -7041,7 +7051,7 @@
       <c r="AE22" s="10">
         <v>19</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="10">
         <v>7032300066</v>
       </c>
       <c r="AG22" s="15" t="s">
@@ -7077,10 +7087,10 @@
       <c r="AS22" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT22" s="46">
+      <c r="AT22" s="19">
         <v>19524</v>
       </c>
-      <c r="AU22" s="34" t="s">
+      <c r="AU22" s="33" t="s">
         <v>409</v>
       </c>
       <c r="AV22" s="19" t="s">
@@ -7114,10 +7124,10 @@
       <c r="BG22" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BH22" s="46">
+      <c r="BH22" s="44">
         <v>29528</v>
       </c>
-      <c r="BI22" s="46">
+      <c r="BI22" s="44">
         <v>30050</v>
       </c>
       <c r="BJ22" s="12" t="s">
@@ -7137,7 +7147,7 @@
       <c r="D23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="44">
         <v>22857</v>
       </c>
       <c r="F23" s="17" t="s">
@@ -7152,10 +7162,10 @@
       <c r="N23" s="10">
         <v>22</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23" s="44">
         <v>27326</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="44">
         <v>28958</v>
       </c>
       <c r="R23" s="10">
@@ -7164,14 +7174,14 @@
       <c r="S23" s="10">
         <v>22</v>
       </c>
-      <c r="T23" s="46">
+      <c r="T23" s="44">
         <v>27326</v>
       </c>
-      <c r="U23" s="46">
+      <c r="U23" s="44">
         <v>28958</v>
       </c>
-      <c r="V23" s="24">
-        <v>3000</v>
+      <c r="V23" s="32">
+        <v>3200</v>
       </c>
       <c r="X23" s="10">
         <v>20</v>
@@ -7179,10 +7189,10 @@
       <c r="Y23" s="10">
         <v>22</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23" s="44">
         <v>26356</v>
       </c>
-      <c r="AA23" s="46">
+      <c r="AA23" s="44">
         <v>27325</v>
       </c>
       <c r="AB23" s="12">
@@ -7194,7 +7204,7 @@
       <c r="AE23" s="10">
         <v>20</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23" s="10">
         <v>7032300096</v>
       </c>
       <c r="AG23" s="15" t="s">
@@ -7230,10 +7240,10 @@
       <c r="AS23" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT23" s="46">
+      <c r="AT23" s="19">
         <v>20203</v>
       </c>
-      <c r="AU23" s="34" t="s">
+      <c r="AU23" s="33" t="s">
         <v>401</v>
       </c>
       <c r="AV23" s="19" t="s">
@@ -7268,10 +7278,10 @@
       <c r="BG23" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="BH23" s="46">
+      <c r="BH23" s="44">
         <v>30051</v>
       </c>
-      <c r="BI23" s="46">
+      <c r="BI23" s="44">
         <v>30433</v>
       </c>
       <c r="BJ23" s="12" t="s">
@@ -7291,7 +7301,7 @@
       <c r="D24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="44">
         <v>31016</v>
       </c>
       <c r="F24" s="17" t="s">
@@ -7306,10 +7316,10 @@
       <c r="N24" s="10">
         <v>22</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="44">
         <v>28989</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="44">
         <v>29746</v>
       </c>
       <c r="R24" s="10">
@@ -7318,13 +7328,13 @@
       <c r="S24" s="10">
         <v>22</v>
       </c>
-      <c r="T24" s="46">
+      <c r="T24" s="44">
         <v>28989</v>
       </c>
-      <c r="U24" s="46">
+      <c r="U24" s="44">
         <v>29746</v>
       </c>
-      <c r="V24" s="24">
+      <c r="V24" s="32">
         <v>3200</v>
       </c>
       <c r="X24" s="10">
@@ -7333,10 +7343,10 @@
       <c r="Y24" s="10">
         <v>22</v>
       </c>
-      <c r="Z24" s="46">
+      <c r="Z24" s="44">
         <v>27326</v>
       </c>
-      <c r="AA24" s="46">
+      <c r="AA24" s="44">
         <v>28958</v>
       </c>
       <c r="AB24" s="12">
@@ -7348,7 +7358,7 @@
       <c r="AE24" s="10">
         <v>21</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24" s="10">
         <v>7032300007</v>
       </c>
       <c r="AG24" s="15" t="s">
@@ -7384,10 +7394,10 @@
       <c r="AS24" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="AT24" s="46">
+      <c r="AT24" s="19">
         <v>20803</v>
       </c>
-      <c r="AU24" s="34" t="s">
+      <c r="AU24" s="33" t="s">
         <v>403</v>
       </c>
       <c r="AV24" s="19" t="s">
@@ -7421,10 +7431,10 @@
       <c r="BG24" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH24" s="46">
+      <c r="BH24" s="44">
         <v>30434</v>
       </c>
-      <c r="BI24" s="46">
+      <c r="BI24" s="44">
         <v>31046</v>
       </c>
       <c r="BJ24" s="12" t="s">
@@ -7444,7 +7454,7 @@
       <c r="D25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="44">
         <v>22746</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -7459,10 +7469,10 @@
       <c r="N25" s="10">
         <v>15</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="44">
         <v>32141</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="44">
         <v>34511</v>
       </c>
       <c r="R25" s="10">
@@ -7471,10 +7481,10 @@
       <c r="S25" s="10">
         <v>15</v>
       </c>
-      <c r="T25" s="46">
+      <c r="T25" s="44">
         <v>32141</v>
       </c>
-      <c r="U25" s="46">
+      <c r="U25" s="44">
         <v>34511</v>
       </c>
       <c r="V25" s="12">
@@ -7486,10 +7496,10 @@
       <c r="Y25" s="10">
         <v>22</v>
       </c>
-      <c r="Z25" s="46">
+      <c r="Z25" s="44">
         <v>28989</v>
       </c>
-      <c r="AA25" s="46">
+      <c r="AA25" s="44">
         <v>29746</v>
       </c>
       <c r="AB25" s="12" t="s">
@@ -7501,7 +7511,7 @@
       <c r="AE25" s="10">
         <v>22</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AF25" s="10">
         <v>7032300094</v>
       </c>
       <c r="AG25" s="15" t="s">
@@ -7514,7 +7524,7 @@
         <v>22</v>
       </c>
       <c r="AK25" s="15" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AL25" s="15" t="s">
         <v>363</v>
@@ -7537,10 +7547,10 @@
       <c r="AS25" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT25" s="46">
+      <c r="AT25" s="19">
         <v>19428</v>
       </c>
-      <c r="AU25" s="34" t="s">
+      <c r="AU25" s="33" t="s">
         <v>407</v>
       </c>
       <c r="AV25" s="19" t="s">
@@ -7575,10 +7585,10 @@
       <c r="BG25" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="BH25" s="46">
+      <c r="BH25" s="44">
         <v>23754</v>
       </c>
-      <c r="BI25" s="46">
+      <c r="BI25" s="44">
         <v>25215</v>
       </c>
       <c r="BJ25" s="12" t="s">
@@ -7598,7 +7608,7 @@
       <c r="D26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="44">
         <v>22746</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -7613,10 +7623,10 @@
       <c r="N26" s="10">
         <v>15</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="44">
         <v>34512</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="44">
         <v>37069</v>
       </c>
       <c r="R26" s="10">
@@ -7625,10 +7635,10 @@
       <c r="S26" s="10">
         <v>15</v>
       </c>
-      <c r="T26" s="46">
+      <c r="T26" s="44">
         <v>34512</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26" s="44">
         <v>37069</v>
       </c>
       <c r="V26" s="12">
@@ -7640,10 +7650,10 @@
       <c r="Y26" s="10">
         <v>15</v>
       </c>
-      <c r="Z26" s="46">
+      <c r="Z26" s="44">
         <v>32141</v>
       </c>
-      <c r="AA26" s="46">
+      <c r="AA26" s="44">
         <v>34511</v>
       </c>
       <c r="AB26" s="12">
@@ -7655,7 +7665,7 @@
       <c r="AE26" s="10">
         <v>23</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="10">
         <v>7032300026</v>
       </c>
       <c r="AG26" s="15" t="s">
@@ -7668,7 +7678,7 @@
         <v>23</v>
       </c>
       <c r="AK26" s="15" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="AL26" s="15" t="s">
         <v>358</v>
@@ -7691,10 +7701,10 @@
       <c r="AS26" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT26" s="46">
+      <c r="AT26" s="19">
         <v>20198</v>
       </c>
-      <c r="AU26" s="34" t="s">
+      <c r="AU26" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV26" s="19" t="s">
@@ -7728,10 +7738,10 @@
       <c r="BG26" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH26" s="46">
+      <c r="BH26" s="44">
         <v>25216</v>
       </c>
-      <c r="BI26" s="46">
+      <c r="BI26" s="44">
         <v>26547</v>
       </c>
       <c r="BJ26" s="12" t="s">
@@ -7751,7 +7761,7 @@
       <c r="D27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="44">
         <v>22746</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -7766,10 +7776,10 @@
       <c r="N27" s="10">
         <v>15</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="44">
         <v>37070</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="44">
         <v>38095</v>
       </c>
       <c r="R27" s="10">
@@ -7778,10 +7788,10 @@
       <c r="S27" s="10">
         <v>15</v>
       </c>
-      <c r="T27" s="46">
+      <c r="T27" s="44">
         <v>37070</v>
       </c>
-      <c r="U27" s="46">
+      <c r="U27" s="44">
         <v>38095</v>
       </c>
       <c r="V27" s="12">
@@ -7793,10 +7803,10 @@
       <c r="Y27" s="10">
         <v>15</v>
       </c>
-      <c r="Z27" s="46">
+      <c r="Z27" s="44">
         <v>34512</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AA27" s="44">
         <v>37069</v>
       </c>
       <c r="AB27" s="12">
@@ -7808,7 +7818,7 @@
       <c r="AE27" s="10">
         <v>24</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="10">
         <v>7032300046</v>
       </c>
       <c r="AG27" s="15" t="s">
@@ -7821,7 +7831,7 @@
         <v>24</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="AL27" s="15" t="s">
         <v>359</v>
@@ -7844,10 +7854,10 @@
       <c r="AS27" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="AT27" s="46">
+      <c r="AT27" s="19">
         <v>20803</v>
       </c>
-      <c r="AU27" s="34" t="s">
+      <c r="AU27" s="33" t="s">
         <v>417</v>
       </c>
       <c r="AV27" s="19" t="s">
@@ -7882,10 +7892,10 @@
       <c r="BG27" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH27" s="46">
+      <c r="BH27" s="44">
         <v>26548</v>
       </c>
-      <c r="BI27" s="46">
+      <c r="BI27" s="44">
         <v>28442</v>
       </c>
       <c r="BJ27" s="12" t="s">
@@ -7905,7 +7915,7 @@
       <c r="D28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="44">
         <v>30615</v>
       </c>
       <c r="F28" s="17" t="s">
@@ -7920,10 +7930,10 @@
       <c r="N28" s="10">
         <v>15</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="44">
         <v>38096</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="44">
         <v>39141</v>
       </c>
       <c r="R28" s="10">
@@ -7932,10 +7942,10 @@
       <c r="S28" s="10">
         <v>15</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="44">
         <v>38096</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="44">
         <v>39141</v>
       </c>
       <c r="V28" s="12">
@@ -7947,10 +7957,10 @@
       <c r="Y28" s="10">
         <v>15</v>
       </c>
-      <c r="Z28" s="46">
+      <c r="Z28" s="44">
         <v>37070</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AA28" s="44">
         <v>38095</v>
       </c>
       <c r="AB28" s="12" t="s">
@@ -7962,7 +7972,7 @@
       <c r="AE28" s="10">
         <v>25</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AF28" s="10">
         <v>7032300028</v>
       </c>
       <c r="AG28" s="15" t="s">
@@ -7978,7 +7988,7 @@
         <v>369</v>
       </c>
       <c r="AL28" s="15" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>357</v>
@@ -7998,16 +8008,16 @@
       <c r="AS28" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT28" s="46">
+      <c r="AT28" s="19">
         <v>27483</v>
       </c>
-      <c r="AU28" s="34" t="s">
+      <c r="AU28" s="33" t="s">
         <v>404</v>
       </c>
       <c r="AV28" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="AW28" s="35">
+      <c r="AW28" s="34">
         <v>1976</v>
       </c>
       <c r="AX28" s="10">
@@ -8035,10 +8045,10 @@
       <c r="BG28" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="BH28" s="46">
+      <c r="BH28" s="44">
         <v>28443</v>
       </c>
-      <c r="BI28" s="46">
+      <c r="BI28" s="44">
         <v>29951</v>
       </c>
       <c r="BJ28" s="12" t="s">
@@ -8058,7 +8068,7 @@
       <c r="D29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="44">
         <v>30615</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -8073,10 +8083,10 @@
       <c r="N29" s="10">
         <v>27</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="44">
         <v>22857</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="44">
         <v>23606</v>
       </c>
       <c r="R29" s="10">
@@ -8085,13 +8095,13 @@
       <c r="S29" s="10">
         <v>27</v>
       </c>
-      <c r="T29" s="46">
+      <c r="T29" s="44">
         <v>22857</v>
       </c>
-      <c r="U29" s="46">
+      <c r="U29" s="44">
         <v>23606</v>
       </c>
-      <c r="V29" s="24">
+      <c r="V29" s="32">
         <v>1300</v>
       </c>
       <c r="X29" s="10">
@@ -8100,10 +8110,10 @@
       <c r="Y29" s="10">
         <v>15</v>
       </c>
-      <c r="Z29" s="46">
+      <c r="Z29" s="44">
         <v>38096</v>
       </c>
-      <c r="AA29" s="46">
+      <c r="AA29" s="44">
         <v>39141</v>
       </c>
       <c r="AB29" s="12">
@@ -8115,7 +8125,7 @@
       <c r="AE29" s="10">
         <v>26</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="AF29" s="10">
         <v>7032300024</v>
       </c>
       <c r="AG29" s="15" t="s">
@@ -8128,7 +8138,7 @@
         <v>26</v>
       </c>
       <c r="AK29" s="15" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AL29" s="15" t="s">
         <v>370</v>
@@ -8151,10 +8161,10 @@
       <c r="AS29" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT29" s="46">
+      <c r="AT29" s="19">
         <v>28241</v>
       </c>
-      <c r="AU29" s="34" t="s">
+      <c r="AU29" s="33" t="s">
         <v>414</v>
       </c>
       <c r="AV29" s="19" t="s">
@@ -8189,10 +8199,10 @@
       <c r="BG29" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH29" s="46">
+      <c r="BH29" s="44">
         <v>29952</v>
       </c>
-      <c r="BI29" s="46">
+      <c r="BI29" s="44">
         <v>30398</v>
       </c>
       <c r="BJ29" s="12" t="s">
@@ -8212,7 +8222,7 @@
       <c r="D30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="44">
         <v>22857</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -8227,10 +8237,10 @@
       <c r="N30" s="10">
         <v>27</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="44">
         <v>23607</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="44">
         <v>24534</v>
       </c>
       <c r="R30" s="10">
@@ -8239,13 +8249,13 @@
       <c r="S30" s="10">
         <v>27</v>
       </c>
-      <c r="T30" s="46">
+      <c r="T30" s="44">
         <v>23607</v>
       </c>
-      <c r="U30" s="46">
+      <c r="U30" s="44">
         <v>24534</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V30" s="32">
         <v>2400</v>
       </c>
       <c r="X30" s="10">
@@ -8254,10 +8264,10 @@
       <c r="Y30" s="10">
         <v>27</v>
       </c>
-      <c r="Z30" s="46">
+      <c r="Z30" s="44">
         <v>22857</v>
       </c>
-      <c r="AA30" s="46">
+      <c r="AA30" s="44">
         <v>23606</v>
       </c>
       <c r="AB30" s="12">
@@ -8269,7 +8279,7 @@
       <c r="AE30" s="10">
         <v>27</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="10">
         <v>7032300088</v>
       </c>
       <c r="AG30" s="15" t="s">
@@ -8282,7 +8292,7 @@
         <v>27</v>
       </c>
       <c r="AK30" s="15" t="s">
-        <v>513</v>
+        <v>230</v>
       </c>
       <c r="AL30" s="11" t="s">
         <v>384</v>
@@ -8305,10 +8315,10 @@
       <c r="AS30" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="AT30" s="46">
+      <c r="AT30" s="19">
         <v>28789</v>
       </c>
-      <c r="AU30" s="34" t="s">
+      <c r="AU30" s="33" t="s">
         <v>402</v>
       </c>
       <c r="AV30" s="19" t="s">
@@ -8342,10 +8352,10 @@
       <c r="BG30" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH30" s="46">
+      <c r="BH30" s="44">
         <v>30399</v>
       </c>
-      <c r="BI30" s="46">
+      <c r="BI30" s="44">
         <v>31077</v>
       </c>
       <c r="BJ30" s="12" t="s">
@@ -8353,6 +8363,21 @@
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="44">
+        <v>30615</v>
+      </c>
       <c r="L31" s="10">
         <v>28</v>
       </c>
@@ -8362,10 +8387,10 @@
       <c r="N31" s="10">
         <v>27</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="44">
         <v>24535</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="44">
         <v>27337</v>
       </c>
       <c r="R31" s="10">
@@ -8374,13 +8399,13 @@
       <c r="S31" s="10">
         <v>27</v>
       </c>
-      <c r="T31" s="46">
+      <c r="T31" s="44">
         <v>24535</v>
       </c>
-      <c r="U31" s="46">
+      <c r="U31" s="44">
         <v>27337</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="32">
         <v>2650</v>
       </c>
       <c r="X31" s="10">
@@ -8389,10 +8414,10 @@
       <c r="Y31" s="10">
         <v>27</v>
       </c>
-      <c r="Z31" s="46">
+      <c r="Z31" s="44">
         <v>23607</v>
       </c>
-      <c r="AA31" s="46">
+      <c r="AA31" s="44">
         <v>24534</v>
       </c>
       <c r="AB31" s="12" t="s">
@@ -8404,7 +8429,7 @@
       <c r="AE31" s="10">
         <v>5</v>
       </c>
-      <c r="AF31" s="12">
+      <c r="AF31" s="10">
         <v>7032300092</v>
       </c>
       <c r="AG31" s="12" t="s">
@@ -8428,7 +8453,7 @@
       <c r="AS31" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT31" s="46">
+      <c r="AT31" s="19">
         <v>27862</v>
       </c>
       <c r="AU31" s="11" t="s">
@@ -8462,13 +8487,13 @@
       <c r="BF31" s="10">
         <v>6</v>
       </c>
-      <c r="BG31" s="36" t="s">
+      <c r="BG31" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="BH31" s="46">
+      <c r="BH31" s="44">
         <v>24077</v>
       </c>
-      <c r="BI31" s="46">
+      <c r="BI31" s="44">
         <v>26722</v>
       </c>
       <c r="BJ31" s="12" t="s">
@@ -8476,6 +8501,21 @@
       </c>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="44">
+        <v>30615</v>
+      </c>
       <c r="L32" s="10">
         <v>29</v>
       </c>
@@ -8485,10 +8525,10 @@
       <c r="N32" s="10">
         <v>27</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="44">
         <v>27338</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="44">
         <v>29579</v>
       </c>
       <c r="R32" s="10">
@@ -8497,13 +8537,13 @@
       <c r="S32" s="10">
         <v>27</v>
       </c>
-      <c r="T32" s="46">
+      <c r="T32" s="44">
         <v>27338</v>
       </c>
-      <c r="U32" s="46">
+      <c r="U32" s="44">
         <v>29579</v>
       </c>
-      <c r="V32" s="24">
+      <c r="V32" s="32">
         <v>3200</v>
       </c>
       <c r="X32" s="10">
@@ -8512,10 +8552,10 @@
       <c r="Y32" s="10">
         <v>27</v>
       </c>
-      <c r="Z32" s="46">
+      <c r="Z32" s="44">
         <v>24535</v>
       </c>
-      <c r="AA32" s="46">
+      <c r="AA32" s="44">
         <v>27337</v>
       </c>
       <c r="AB32" s="12">
@@ -8527,7 +8567,7 @@
       <c r="AE32" s="10">
         <v>3</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AF32" s="10">
         <v>7032300076</v>
       </c>
       <c r="AG32" s="12" t="s">
@@ -8551,10 +8591,10 @@
       <c r="AS32" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT32" s="46">
+      <c r="AT32" s="19">
         <v>28627</v>
       </c>
-      <c r="AU32" s="34" t="s">
+      <c r="AU32" s="33" t="s">
         <v>415</v>
       </c>
       <c r="AV32" s="19" t="s">
@@ -8585,20 +8625,35 @@
       <c r="BF32" s="10">
         <v>6</v>
       </c>
-      <c r="BG32" s="36" t="s">
+      <c r="BG32" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH32" s="46">
+      <c r="BH32" s="44">
         <v>26723</v>
       </c>
-      <c r="BI32" s="46">
+      <c r="BI32" s="44">
         <v>27894</v>
       </c>
       <c r="BJ32" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="44">
+        <v>22857</v>
+      </c>
       <c r="L33" s="10">
         <v>30</v>
       </c>
@@ -8608,10 +8663,10 @@
       <c r="N33" s="10">
         <v>27</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="44">
         <v>29580</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="44">
         <v>29857</v>
       </c>
       <c r="R33" s="10">
@@ -8620,13 +8675,13 @@
       <c r="S33" s="10">
         <v>27</v>
       </c>
-      <c r="T33" s="46">
+      <c r="T33" s="44">
         <v>29580</v>
       </c>
-      <c r="U33" s="46">
+      <c r="U33" s="44">
         <v>29857</v>
       </c>
-      <c r="V33" s="24">
+      <c r="V33" s="32">
         <v>3600</v>
       </c>
       <c r="X33" s="10">
@@ -8635,10 +8690,10 @@
       <c r="Y33" s="10">
         <v>27</v>
       </c>
-      <c r="Z33" s="46">
+      <c r="Z33" s="44">
         <v>27338</v>
       </c>
-      <c r="AA33" s="46">
+      <c r="AA33" s="44">
         <v>29579</v>
       </c>
       <c r="AB33" s="12" t="s">
@@ -8650,7 +8705,7 @@
       <c r="AE33" s="10">
         <v>12</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AF33" s="10">
         <v>7032300040</v>
       </c>
       <c r="AG33" s="12" t="s">
@@ -8674,10 +8729,10 @@
       <c r="AS33" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="AT33" s="46">
+      <c r="AT33" s="19">
         <v>29154</v>
       </c>
-      <c r="AU33" s="34" t="s">
+      <c r="AU33" s="33" t="s">
         <v>411</v>
       </c>
       <c r="AV33" s="19" t="s">
@@ -8708,20 +8763,20 @@
       <c r="BF33" s="10">
         <v>6</v>
       </c>
-      <c r="BG33" s="36" t="s">
+      <c r="BG33" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="BH33" s="46">
+      <c r="BH33" s="44">
         <v>27895</v>
       </c>
-      <c r="BI33" s="46">
+      <c r="BI33" s="44">
         <v>28626</v>
       </c>
       <c r="BJ33" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L34" s="10">
         <v>31</v>
       </c>
@@ -8731,10 +8786,10 @@
       <c r="N34" s="10">
         <v>8</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="44">
         <v>22279</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="44">
         <v>24835</v>
       </c>
       <c r="R34" s="10">
@@ -8743,10 +8798,10 @@
       <c r="S34" s="10">
         <v>8</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="44">
         <v>22279</v>
       </c>
-      <c r="U34" s="46">
+      <c r="U34" s="44">
         <v>24835</v>
       </c>
       <c r="V34" s="12">
@@ -8758,10 +8813,10 @@
       <c r="Y34" s="10">
         <v>27</v>
       </c>
-      <c r="Z34" s="46">
+      <c r="Z34" s="44">
         <v>29580</v>
       </c>
-      <c r="AA34" s="46">
+      <c r="AA34" s="44">
         <v>29857</v>
       </c>
       <c r="AB34" s="12">
@@ -8773,7 +8828,7 @@
       <c r="AE34" s="10">
         <v>1</v>
       </c>
-      <c r="AF34" s="12">
+      <c r="AF34" s="10">
         <v>7032340703</v>
       </c>
       <c r="AG34" s="12" t="s">
@@ -8797,10 +8852,10 @@
       <c r="AS34" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT34" s="46">
+      <c r="AT34" s="19">
         <v>28155</v>
       </c>
-      <c r="AU34" s="34" t="s">
+      <c r="AU34" s="33" t="s">
         <v>418</v>
       </c>
       <c r="AV34" s="19" t="s">
@@ -8831,20 +8886,20 @@
       <c r="BF34" s="10">
         <v>6</v>
       </c>
-      <c r="BG34" s="36" t="s">
+      <c r="BG34" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="BH34" s="46">
+      <c r="BH34" s="44">
         <v>28597</v>
       </c>
-      <c r="BI34" s="46">
+      <c r="BI34" s="44">
         <v>29978</v>
       </c>
       <c r="BJ34" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L35" s="10">
         <v>32</v>
       </c>
@@ -8854,10 +8909,10 @@
       <c r="N35" s="10">
         <v>8</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="44">
         <v>24838</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="44">
         <v>25660</v>
       </c>
       <c r="R35" s="10">
@@ -8866,10 +8921,10 @@
       <c r="S35" s="10">
         <v>8</v>
       </c>
-      <c r="T35" s="46">
+      <c r="T35" s="44">
         <v>24838</v>
       </c>
-      <c r="U35" s="46">
+      <c r="U35" s="44">
         <v>25660</v>
       </c>
       <c r="V35" s="12">
@@ -8881,10 +8936,10 @@
       <c r="Y35" s="10">
         <v>8</v>
       </c>
-      <c r="Z35" s="46">
+      <c r="Z35" s="44">
         <v>22279</v>
       </c>
-      <c r="AA35" s="46">
+      <c r="AA35" s="44">
         <v>24835</v>
       </c>
       <c r="AB35" s="12">
@@ -8896,7 +8951,7 @@
       <c r="AE35" s="10">
         <v>2</v>
       </c>
-      <c r="AF35" s="12">
+      <c r="AF35" s="10">
         <v>9922330039</v>
       </c>
       <c r="AG35" s="12" t="s">
@@ -8920,10 +8975,10 @@
       <c r="AS35" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT35" s="46">
+      <c r="AT35" s="19">
         <v>28896</v>
       </c>
-      <c r="AU35" s="34" t="s">
+      <c r="AU35" s="33" t="s">
         <v>400</v>
       </c>
       <c r="AV35" s="19" t="s">
@@ -8954,20 +9009,20 @@
       <c r="BF35" s="10">
         <v>6</v>
       </c>
-      <c r="BG35" s="36" t="s">
+      <c r="BG35" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="BH35" s="46">
+      <c r="BH35" s="44">
         <v>30010</v>
       </c>
-      <c r="BI35" s="46">
+      <c r="BI35" s="44">
         <v>31077</v>
       </c>
       <c r="BJ35" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L36" s="10">
         <v>33</v>
       </c>
@@ -8977,10 +9032,10 @@
       <c r="N36" s="10">
         <v>8</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="44">
         <v>25661</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="44">
         <v>28313</v>
       </c>
       <c r="R36" s="10">
@@ -8989,10 +9044,10 @@
       <c r="S36" s="10">
         <v>8</v>
       </c>
-      <c r="T36" s="46">
+      <c r="T36" s="44">
         <v>25661</v>
       </c>
-      <c r="U36" s="46">
+      <c r="U36" s="44">
         <v>28313</v>
       </c>
       <c r="V36" s="12">
@@ -9004,10 +9059,10 @@
       <c r="Y36" s="10">
         <v>8</v>
       </c>
-      <c r="Z36" s="46">
+      <c r="Z36" s="44">
         <v>24838</v>
       </c>
-      <c r="AA36" s="46">
+      <c r="AA36" s="44">
         <v>25660</v>
       </c>
       <c r="AB36" s="12">
@@ -9019,7 +9074,7 @@
       <c r="AE36" s="10">
         <v>3</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AF36" s="10">
         <v>9988300050</v>
       </c>
       <c r="AG36" s="12" t="s">
@@ -9043,10 +9098,10 @@
       <c r="AS36" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AT36" s="46">
+      <c r="AT36" s="19">
         <v>29524</v>
       </c>
-      <c r="AU36" s="34" t="s">
+      <c r="AU36" s="33" t="s">
         <v>409</v>
       </c>
       <c r="AV36" s="19" t="s">
@@ -9077,20 +9132,20 @@
       <c r="BF36" s="10">
         <v>7</v>
       </c>
-      <c r="BG36" s="36" t="s">
+      <c r="BG36" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="BH36" s="46">
+      <c r="BH36" s="44">
         <v>22264</v>
       </c>
-      <c r="BI36" s="46">
+      <c r="BI36" s="44">
         <v>23205</v>
       </c>
       <c r="BJ36" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L37" s="10">
         <v>34</v>
       </c>
@@ -9100,10 +9155,10 @@
       <c r="N37" s="10">
         <v>8</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="44">
         <v>28314</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="44">
         <v>29055</v>
       </c>
       <c r="R37" s="10">
@@ -9112,10 +9167,10 @@
       <c r="S37" s="10">
         <v>8</v>
       </c>
-      <c r="T37" s="46">
+      <c r="T37" s="44">
         <v>28314</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U37" s="44">
         <v>29055</v>
       </c>
       <c r="V37" s="12">
@@ -9127,10 +9182,10 @@
       <c r="Y37" s="10">
         <v>8</v>
       </c>
-      <c r="Z37" s="46">
+      <c r="Z37" s="44">
         <v>25661</v>
       </c>
-      <c r="AA37" s="46">
+      <c r="AA37" s="44">
         <v>28313</v>
       </c>
       <c r="AB37" s="12" t="s">
@@ -9142,7 +9197,7 @@
       <c r="AE37" s="10">
         <v>10</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AF37" s="10">
         <v>9890774332</v>
       </c>
       <c r="AG37" s="12" t="s">
@@ -9166,10 +9221,10 @@
       <c r="AS37" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT37" s="46">
+      <c r="AT37" s="19">
         <v>28163</v>
       </c>
-      <c r="AU37" s="34" t="s">
+      <c r="AU37" s="33" t="s">
         <v>410</v>
       </c>
       <c r="AV37" s="19" t="s">
@@ -9200,20 +9255,20 @@
       <c r="BF37" s="10">
         <v>7</v>
       </c>
-      <c r="BG37" s="36" t="s">
+      <c r="BG37" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="BH37" s="46">
+      <c r="BH37" s="44">
         <v>23206</v>
       </c>
-      <c r="BI37" s="46">
+      <c r="BI37" s="44">
         <v>25070</v>
       </c>
       <c r="BJ37" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L38" s="10">
         <v>35</v>
       </c>
@@ -9223,10 +9278,10 @@
       <c r="N38" s="10">
         <v>8</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="44">
         <v>29056</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="44">
         <v>29580</v>
       </c>
       <c r="R38" s="10">
@@ -9235,10 +9290,10 @@
       <c r="S38" s="10">
         <v>8</v>
       </c>
-      <c r="T38" s="46">
+      <c r="T38" s="44">
         <v>29056</v>
       </c>
-      <c r="U38" s="46">
+      <c r="U38" s="44">
         <v>29580</v>
       </c>
       <c r="V38" s="12">
@@ -9250,10 +9305,10 @@
       <c r="Y38" s="10">
         <v>8</v>
       </c>
-      <c r="Z38" s="46">
+      <c r="Z38" s="44">
         <v>28314</v>
       </c>
-      <c r="AA38" s="46">
+      <c r="AA38" s="44">
         <v>29055</v>
       </c>
       <c r="AB38" s="12">
@@ -9265,7 +9320,7 @@
       <c r="AE38" s="10">
         <v>11</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AF38" s="10">
         <v>9922583910</v>
       </c>
       <c r="AG38" s="12" t="s">
@@ -9289,10 +9344,10 @@
       <c r="AS38" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT38" s="46">
+      <c r="AT38" s="19">
         <v>28984</v>
       </c>
-      <c r="AU38" s="34" t="s">
+      <c r="AU38" s="33" t="s">
         <v>406</v>
       </c>
       <c r="AV38" s="19" t="s">
@@ -9323,20 +9378,20 @@
       <c r="BF38" s="10">
         <v>7</v>
       </c>
-      <c r="BG38" s="36" t="s">
+      <c r="BG38" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="BH38" s="46">
+      <c r="BH38" s="44">
         <v>25071</v>
       </c>
-      <c r="BI38" s="46">
+      <c r="BI38" s="44">
         <v>26630</v>
       </c>
       <c r="BJ38" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L39" s="10">
         <v>36</v>
       </c>
@@ -9346,10 +9401,10 @@
       <c r="N39" s="10">
         <v>9</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="44">
         <v>30250</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="44">
         <v>32465</v>
       </c>
       <c r="R39" s="10">
@@ -9358,10 +9413,10 @@
       <c r="S39" s="10">
         <v>9</v>
       </c>
-      <c r="T39" s="46">
+      <c r="T39" s="44">
         <v>30250</v>
       </c>
-      <c r="U39" s="46">
+      <c r="U39" s="44">
         <v>32465</v>
       </c>
       <c r="V39" s="12">
@@ -9373,10 +9428,10 @@
       <c r="Y39" s="10">
         <v>8</v>
       </c>
-      <c r="Z39" s="46">
+      <c r="Z39" s="44">
         <v>29056</v>
       </c>
-      <c r="AA39" s="46">
+      <c r="AA39" s="44">
         <v>29580</v>
       </c>
       <c r="AB39" s="12">
@@ -9388,7 +9443,7 @@
       <c r="AE39" s="10">
         <v>12</v>
       </c>
-      <c r="AF39" s="12">
+      <c r="AF39" s="10">
         <v>9890774463</v>
       </c>
       <c r="AG39" s="12" t="s">
@@ -9412,10 +9467,10 @@
       <c r="AS39" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AT39" s="46">
+      <c r="AT39" s="19">
         <v>29310</v>
       </c>
-      <c r="AU39" s="34" t="s">
+      <c r="AU39" s="33" t="s">
         <v>413</v>
       </c>
       <c r="AV39" s="19" t="s">
@@ -9446,20 +9501,20 @@
       <c r="BF39" s="10">
         <v>7</v>
       </c>
-      <c r="BG39" s="36" t="s">
+      <c r="BG39" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH39" s="46">
+      <c r="BH39" s="44">
         <v>26661</v>
       </c>
-      <c r="BI39" s="46">
+      <c r="BI39" s="44">
         <v>27347</v>
       </c>
       <c r="BJ39" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L40" s="10">
         <v>37</v>
       </c>
@@ -9469,10 +9524,10 @@
       <c r="N40" s="10">
         <v>9</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="44">
         <v>32466</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="44">
         <v>33620</v>
       </c>
       <c r="R40" s="10">
@@ -9481,10 +9536,10 @@
       <c r="S40" s="10">
         <v>9</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="44">
         <v>32466</v>
       </c>
-      <c r="U40" s="46">
+      <c r="U40" s="44">
         <v>33620</v>
       </c>
       <c r="V40" s="12">
@@ -9496,10 +9551,10 @@
       <c r="Y40" s="10">
         <v>9</v>
       </c>
-      <c r="Z40" s="46">
+      <c r="Z40" s="44">
         <v>30250</v>
       </c>
-      <c r="AA40" s="46">
+      <c r="AA40" s="44">
         <v>32465</v>
       </c>
       <c r="AB40" s="12" t="s">
@@ -9511,7 +9566,7 @@
       <c r="AE40" s="10">
         <v>13</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AF40" s="10">
         <v>7898836137</v>
       </c>
       <c r="AG40" s="12" t="s">
@@ -9535,10 +9590,10 @@
       <c r="AS40" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT40" s="46">
+      <c r="AT40" s="19">
         <v>28672</v>
       </c>
-      <c r="AU40" s="34" t="s">
+      <c r="AU40" s="33" t="s">
         <v>417</v>
       </c>
       <c r="AV40" s="19" t="s">
@@ -9569,20 +9624,20 @@
       <c r="BF40" s="10">
         <v>7</v>
       </c>
-      <c r="BG40" s="36" t="s">
+      <c r="BG40" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH40" s="46">
+      <c r="BH40" s="44">
         <v>27348</v>
       </c>
-      <c r="BI40" s="46">
+      <c r="BI40" s="44">
         <v>29264</v>
       </c>
       <c r="BJ40" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L41" s="10">
         <v>38</v>
       </c>
@@ -9592,10 +9647,10 @@
       <c r="N41" s="10">
         <v>9</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="44">
         <v>33621</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="44">
         <v>36270</v>
       </c>
       <c r="R41" s="10">
@@ -9604,14 +9659,14 @@
       <c r="S41" s="10">
         <v>9</v>
       </c>
-      <c r="T41" s="46">
+      <c r="T41" s="44">
         <v>33621</v>
       </c>
-      <c r="U41" s="46">
+      <c r="U41" s="44">
         <v>36270</v>
       </c>
       <c r="V41" s="12">
-        <v>1500</v>
+        <v>1990</v>
       </c>
       <c r="X41" s="10">
         <v>38</v>
@@ -9619,10 +9674,10 @@
       <c r="Y41" s="10">
         <v>9</v>
       </c>
-      <c r="Z41" s="46">
+      <c r="Z41" s="44">
         <v>32466</v>
       </c>
-      <c r="AA41" s="46">
+      <c r="AA41" s="44">
         <v>33620</v>
       </c>
       <c r="AB41" s="12">
@@ -9634,7 +9689,7 @@
       <c r="AE41" s="10">
         <v>14</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AF41" s="10">
         <v>9876895431</v>
       </c>
       <c r="AG41" s="12" t="s">
@@ -9658,10 +9713,10 @@
       <c r="AS41" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT41" s="46">
+      <c r="AT41" s="19">
         <v>29438</v>
       </c>
-      <c r="AU41" s="34" t="s">
+      <c r="AU41" s="33" t="s">
         <v>404</v>
       </c>
       <c r="AV41" s="19" t="s">
@@ -9692,20 +9747,20 @@
       <c r="BF41" s="10">
         <v>8</v>
       </c>
-      <c r="BG41" s="36" t="s">
+      <c r="BG41" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH41" s="46">
+      <c r="BH41" s="44">
         <v>22279</v>
       </c>
-      <c r="BI41" s="46">
+      <c r="BI41" s="44">
         <v>24835</v>
       </c>
       <c r="BJ41" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L42" s="10">
         <v>39</v>
       </c>
@@ -9715,10 +9770,10 @@
       <c r="N42" s="10">
         <v>9</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="44">
         <v>36271</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="44">
         <v>36749</v>
       </c>
       <c r="R42" s="10">
@@ -9727,10 +9782,10 @@
       <c r="S42" s="10">
         <v>9</v>
       </c>
-      <c r="T42" s="46">
+      <c r="T42" s="44">
         <v>36271</v>
       </c>
-      <c r="U42" s="46">
+      <c r="U42" s="44">
         <v>36749</v>
       </c>
       <c r="V42" s="12">
@@ -9742,10 +9797,10 @@
       <c r="Y42" s="10">
         <v>9</v>
       </c>
-      <c r="Z42" s="46">
+      <c r="Z42" s="44">
         <v>33621</v>
       </c>
-      <c r="AA42" s="46">
+      <c r="AA42" s="44">
         <v>36270</v>
       </c>
       <c r="AB42" s="12">
@@ -9757,7 +9812,7 @@
       <c r="AE42" s="10">
         <v>10</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="10">
         <v>8080561820</v>
       </c>
       <c r="AG42" s="12" t="s">
@@ -9781,7 +9836,7 @@
       <c r="AS42" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="AT42" s="46">
+      <c r="AT42" s="19">
         <v>29921</v>
       </c>
       <c r="AU42" s="11" t="s">
@@ -9815,20 +9870,20 @@
       <c r="BF42" s="10">
         <v>8</v>
       </c>
-      <c r="BG42" s="36" t="s">
+      <c r="BG42" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH42" s="46">
+      <c r="BH42" s="44">
         <v>24838</v>
       </c>
-      <c r="BI42" s="46">
+      <c r="BI42" s="44">
         <v>25660</v>
       </c>
       <c r="BJ42" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L43" s="10">
         <v>40</v>
       </c>
@@ -9838,10 +9893,10 @@
       <c r="N43" s="10">
         <v>9</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="44">
         <v>36750</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="44">
         <v>37250</v>
       </c>
       <c r="R43" s="10">
@@ -9850,13 +9905,13 @@
       <c r="S43" s="10">
         <v>9</v>
       </c>
-      <c r="T43" s="46">
+      <c r="T43" s="44">
         <v>36750</v>
       </c>
-      <c r="U43" s="46">
+      <c r="U43" s="44">
         <v>37250</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="37">
         <v>2350</v>
       </c>
       <c r="X43" s="10">
@@ -9865,10 +9920,10 @@
       <c r="Y43" s="10">
         <v>9</v>
       </c>
-      <c r="Z43" s="46">
+      <c r="Z43" s="44">
         <v>36271</v>
       </c>
-      <c r="AA43" s="46">
+      <c r="AA43" s="44">
         <v>36749</v>
       </c>
       <c r="AB43" s="12">
@@ -9880,7 +9935,7 @@
       <c r="AE43" s="10">
         <v>11</v>
       </c>
-      <c r="AF43" s="12">
+      <c r="AF43" s="10">
         <v>8800473829</v>
       </c>
       <c r="AG43" s="12" t="s">
@@ -9904,10 +9959,10 @@
       <c r="AS43" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT43" s="46">
+      <c r="AT43" s="19">
         <v>28990</v>
       </c>
-      <c r="AU43" s="34" t="s">
+      <c r="AU43" s="33" t="s">
         <v>415</v>
       </c>
       <c r="AV43" s="19" t="s">
@@ -9941,17 +9996,17 @@
       <c r="BG43" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="BH43" s="46">
+      <c r="BH43" s="44">
         <v>25661</v>
       </c>
-      <c r="BI43" s="46">
+      <c r="BI43" s="44">
         <v>28313</v>
       </c>
       <c r="BJ43" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L44" s="10">
         <v>41</v>
       </c>
@@ -9961,10 +10016,10 @@
       <c r="N44" s="10">
         <v>10</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="44">
         <v>30615</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="44">
         <v>32208</v>
       </c>
       <c r="R44" s="10">
@@ -9973,10 +10028,10 @@
       <c r="S44" s="10">
         <v>10</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="44">
         <v>30615</v>
       </c>
-      <c r="U44" s="46">
+      <c r="U44" s="44">
         <v>32208</v>
       </c>
       <c r="V44" s="12">
@@ -9988,10 +10043,10 @@
       <c r="Y44" s="10">
         <v>9</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="44">
         <v>36750</v>
       </c>
-      <c r="AA44" s="46">
+      <c r="AA44" s="44">
         <v>37250</v>
       </c>
       <c r="AB44" s="12" t="s">
@@ -10003,7 +10058,7 @@
       <c r="AE44" s="10">
         <v>21</v>
       </c>
-      <c r="AF44" s="12">
+      <c r="AF44" s="10">
         <v>7032300007</v>
       </c>
       <c r="AG44" s="12" t="s">
@@ -10027,10 +10082,10 @@
       <c r="AS44" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT44" s="46">
+      <c r="AT44" s="19">
         <v>29754</v>
       </c>
-      <c r="AU44" s="34" t="s">
+      <c r="AU44" s="33" t="s">
         <v>398</v>
       </c>
       <c r="AV44" s="19" t="s">
@@ -10064,17 +10119,17 @@
       <c r="BG44" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH44" s="46">
+      <c r="BH44" s="44">
         <v>28314</v>
       </c>
-      <c r="BI44" s="46">
+      <c r="BI44" s="44">
         <v>29055</v>
       </c>
       <c r="BJ44" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L45" s="10">
         <v>42</v>
       </c>
@@ -10084,10 +10139,10 @@
       <c r="N45" s="10">
         <v>10</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="44">
         <v>32209</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="44">
         <v>33123</v>
       </c>
       <c r="R45" s="10">
@@ -10096,10 +10151,10 @@
       <c r="S45" s="10">
         <v>10</v>
       </c>
-      <c r="T45" s="46">
+      <c r="T45" s="44">
         <v>32209</v>
       </c>
-      <c r="U45" s="46">
+      <c r="U45" s="44">
         <v>33123</v>
       </c>
       <c r="V45" s="12">
@@ -10111,10 +10166,10 @@
       <c r="Y45" s="10">
         <v>10</v>
       </c>
-      <c r="Z45" s="46">
+      <c r="Z45" s="44">
         <v>30615</v>
       </c>
-      <c r="AA45" s="46">
+      <c r="AA45" s="44">
         <v>32208</v>
       </c>
       <c r="AB45" s="12" t="s">
@@ -10126,7 +10181,7 @@
       <c r="AE45" s="10">
         <v>22</v>
       </c>
-      <c r="AF45" s="12">
+      <c r="AF45" s="10">
         <v>7032300094</v>
       </c>
       <c r="AG45" s="12" t="s">
@@ -10150,10 +10205,10 @@
       <c r="AS45" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="AT45" s="46">
+      <c r="AT45" s="19">
         <v>30300</v>
       </c>
-      <c r="AU45" s="34" t="s">
+      <c r="AU45" s="33" t="s">
         <v>399</v>
       </c>
       <c r="AV45" s="19" t="s">
@@ -10187,17 +10242,17 @@
       <c r="BG45" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="BH45" s="46">
+      <c r="BH45" s="44">
         <v>29056</v>
       </c>
-      <c r="BI45" s="46">
+      <c r="BI45" s="44">
         <v>29580</v>
       </c>
       <c r="BJ45" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L46" s="10">
         <v>43</v>
       </c>
@@ -10207,10 +10262,10 @@
       <c r="N46" s="10">
         <v>10</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="44">
         <v>33124</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="44">
         <v>33393</v>
       </c>
       <c r="R46" s="10">
@@ -10219,10 +10274,10 @@
       <c r="S46" s="10">
         <v>10</v>
       </c>
-      <c r="T46" s="46">
+      <c r="T46" s="44">
         <v>33124</v>
       </c>
-      <c r="U46" s="46">
+      <c r="U46" s="44">
         <v>33393</v>
       </c>
       <c r="V46" s="12">
@@ -10234,10 +10289,10 @@
       <c r="Y46" s="10">
         <v>10</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="Z46" s="44">
         <v>32209</v>
       </c>
-      <c r="AA46" s="46">
+      <c r="AA46" s="44">
         <v>33123</v>
       </c>
       <c r="AB46" s="12">
@@ -10249,7 +10304,7 @@
       <c r="AE46" s="10">
         <v>23</v>
       </c>
-      <c r="AF46" s="12">
+      <c r="AF46" s="10">
         <v>7032300026</v>
       </c>
       <c r="AG46" s="12" t="s">
@@ -10273,10 +10328,10 @@
       <c r="AS46" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT46" s="46">
+      <c r="AT46" s="19">
         <v>29369</v>
       </c>
-      <c r="AU46" s="34" t="s">
+      <c r="AU46" s="33" t="s">
         <v>410</v>
       </c>
       <c r="AV46" s="19" t="s">
@@ -10310,17 +10365,17 @@
       <c r="BG46" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH46" s="46">
+      <c r="BH46" s="44">
         <v>30250</v>
       </c>
-      <c r="BI46" s="46">
+      <c r="BI46" s="44">
         <v>32465</v>
       </c>
       <c r="BJ46" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L47" s="10">
         <v>44</v>
       </c>
@@ -10330,10 +10385,10 @@
       <c r="N47" s="10">
         <v>10</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="44">
         <v>33394</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="44">
         <v>36682</v>
       </c>
       <c r="R47" s="10">
@@ -10342,10 +10397,10 @@
       <c r="S47" s="10">
         <v>10</v>
       </c>
-      <c r="T47" s="46">
+      <c r="T47" s="44">
         <v>33394</v>
       </c>
-      <c r="U47" s="46">
+      <c r="U47" s="44">
         <v>36682</v>
       </c>
       <c r="V47" s="12">
@@ -10357,10 +10412,10 @@
       <c r="Y47" s="10">
         <v>10</v>
       </c>
-      <c r="Z47" s="46">
+      <c r="Z47" s="44">
         <v>33124</v>
       </c>
-      <c r="AA47" s="46">
+      <c r="AA47" s="44">
         <v>33393</v>
       </c>
       <c r="AB47" s="12" t="s">
@@ -10372,7 +10427,7 @@
       <c r="AE47" s="10">
         <v>24</v>
       </c>
-      <c r="AF47" s="12">
+      <c r="AF47" s="10">
         <v>7032300046</v>
       </c>
       <c r="AG47" s="12" t="s">
@@ -10396,10 +10451,10 @@
       <c r="AS47" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT47" s="46">
+      <c r="AT47" s="19">
         <v>30162</v>
       </c>
-      <c r="AU47" s="34" t="s">
+      <c r="AU47" s="33" t="s">
         <v>406</v>
       </c>
       <c r="AV47" s="19" t="s">
@@ -10433,17 +10488,17 @@
       <c r="BG47" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH47" s="46">
+      <c r="BH47" s="44">
         <v>32466</v>
       </c>
-      <c r="BI47" s="46">
+      <c r="BI47" s="44">
         <v>33620</v>
       </c>
       <c r="BJ47" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="12:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="L48" s="10">
         <v>45</v>
       </c>
@@ -10453,10 +10508,10 @@
       <c r="N48" s="10">
         <v>10</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="44">
         <v>36683</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="44">
         <v>37476</v>
       </c>
       <c r="R48" s="10">
@@ -10465,14 +10520,14 @@
       <c r="S48" s="10">
         <v>10</v>
       </c>
-      <c r="T48" s="46">
+      <c r="T48" s="44">
         <v>36683</v>
       </c>
-      <c r="U48" s="46">
+      <c r="U48" s="44">
         <v>37476</v>
       </c>
-      <c r="V48" s="12">
-        <v>2800</v>
+      <c r="V48" s="51">
+        <v>2350</v>
       </c>
       <c r="X48" s="10">
         <v>45</v>
@@ -10480,10 +10535,10 @@
       <c r="Y48" s="10">
         <v>10</v>
       </c>
-      <c r="Z48" s="46">
+      <c r="Z48" s="44">
         <v>33394</v>
       </c>
-      <c r="AA48" s="46">
+      <c r="AA48" s="44">
         <v>36682</v>
       </c>
       <c r="AB48" s="12">
@@ -10495,7 +10550,7 @@
       <c r="AE48" s="10">
         <v>25</v>
       </c>
-      <c r="AF48" s="12">
+      <c r="AF48" s="10">
         <v>7032300028</v>
       </c>
       <c r="AG48" s="12" t="s">
@@ -10519,10 +10574,10 @@
       <c r="AS48" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="AT48" s="46">
+      <c r="AT48" s="19">
         <v>30680</v>
       </c>
-      <c r="AU48" s="34" t="s">
+      <c r="AU48" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV48" s="19" t="s">
@@ -10556,10 +10611,10 @@
       <c r="BG48" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH48" s="46">
+      <c r="BH48" s="44">
         <v>33621</v>
       </c>
-      <c r="BI48" s="46">
+      <c r="BI48" s="44">
         <v>36270</v>
       </c>
       <c r="BJ48" s="12" t="s">
@@ -10576,10 +10631,10 @@
       <c r="N49" s="10">
         <v>10</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="44">
         <v>37477</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="44">
         <v>37980</v>
       </c>
       <c r="R49" s="10">
@@ -10588,10 +10643,10 @@
       <c r="S49" s="10">
         <v>10</v>
       </c>
-      <c r="T49" s="46">
+      <c r="T49" s="44">
         <v>37477</v>
       </c>
-      <c r="U49" s="46">
+      <c r="U49" s="44">
         <v>37980</v>
       </c>
       <c r="V49" s="12">
@@ -10603,10 +10658,10 @@
       <c r="Y49" s="10">
         <v>10</v>
       </c>
-      <c r="Z49" s="46">
+      <c r="Z49" s="44">
         <v>36683</v>
       </c>
-      <c r="AA49" s="46">
+      <c r="AA49" s="44">
         <v>37476</v>
       </c>
       <c r="AB49" s="12" t="s">
@@ -10618,7 +10673,7 @@
       <c r="AE49" s="10">
         <v>26</v>
       </c>
-      <c r="AF49" s="12">
+      <c r="AF49" s="10">
         <v>7032307324</v>
       </c>
       <c r="AG49" s="12" t="s">
@@ -10642,10 +10697,10 @@
       <c r="AS49" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT49" s="46">
+      <c r="AT49" s="19">
         <v>21245</v>
       </c>
-      <c r="AU49" s="34" t="s">
+      <c r="AU49" s="33" t="s">
         <v>408</v>
       </c>
       <c r="AV49" s="19" t="s">
@@ -10679,10 +10734,10 @@
       <c r="BG49" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH49" s="46">
+      <c r="BH49" s="44">
         <v>36271</v>
       </c>
-      <c r="BI49" s="46">
+      <c r="BI49" s="44">
         <v>36749</v>
       </c>
       <c r="BJ49" s="12" t="s">
@@ -10699,10 +10754,10 @@
       <c r="N50" s="10">
         <v>1</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="44">
         <v>23540</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="44">
         <v>24300</v>
       </c>
       <c r="R50" s="10">
@@ -10711,14 +10766,14 @@
       <c r="S50" s="10">
         <v>1</v>
       </c>
-      <c r="T50" s="46">
+      <c r="T50" s="44">
         <v>23540</v>
       </c>
-      <c r="U50" s="46">
+      <c r="U50" s="44">
         <v>24300</v>
       </c>
-      <c r="V50" s="12">
-        <v>400</v>
+      <c r="V50" s="51">
+        <v>2350</v>
       </c>
       <c r="X50" s="10">
         <v>47</v>
@@ -10726,10 +10781,10 @@
       <c r="Y50" s="10">
         <v>10</v>
       </c>
-      <c r="Z50" s="46">
+      <c r="Z50" s="44">
         <v>37477</v>
       </c>
-      <c r="AA50" s="46">
+      <c r="AA50" s="44">
         <v>37980</v>
       </c>
       <c r="AB50" s="12">
@@ -10741,7 +10796,7 @@
       <c r="AE50" s="10">
         <v>14</v>
       </c>
-      <c r="AF50" s="12">
+      <c r="AF50" s="10">
         <v>6032301213</v>
       </c>
       <c r="AG50" s="12" t="s">
@@ -10765,10 +10820,10 @@
       <c r="AS50" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT50" s="46">
+      <c r="AT50" s="19">
         <v>22037</v>
       </c>
-      <c r="AU50" s="34" t="s">
+      <c r="AU50" s="33" t="s">
         <v>416</v>
       </c>
       <c r="AV50" s="19" t="s">
@@ -10802,10 +10857,10 @@
       <c r="BG50" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH50" s="46">
+      <c r="BH50" s="44">
         <v>36750</v>
       </c>
-      <c r="BI50" s="46">
+      <c r="BI50" s="44">
         <v>37250</v>
       </c>
       <c r="BJ50" s="12" t="s">
@@ -10822,10 +10877,10 @@
       <c r="N51" s="10">
         <v>1</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="44">
         <v>24301</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="44">
         <v>25762</v>
       </c>
       <c r="R51" s="10">
@@ -10834,10 +10889,10 @@
       <c r="S51" s="10">
         <v>1</v>
       </c>
-      <c r="T51" s="46">
+      <c r="T51" s="44">
         <v>24301</v>
       </c>
-      <c r="U51" s="46">
+      <c r="U51" s="44">
         <v>25762</v>
       </c>
       <c r="V51" s="12">
@@ -10854,7 +10909,7 @@
       <c r="AE51" s="10">
         <v>15</v>
       </c>
-      <c r="AF51" s="12">
+      <c r="AF51" s="10">
         <v>4432381699</v>
       </c>
       <c r="AG51" s="12" t="s">
@@ -10878,10 +10933,10 @@
       <c r="AS51" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="AT51" s="46">
+      <c r="AT51" s="19">
         <v>22616</v>
       </c>
-      <c r="AU51" s="34" t="s">
+      <c r="AU51" s="33" t="s">
         <v>405</v>
       </c>
       <c r="AV51" s="19" t="s">
@@ -10915,10 +10970,10 @@
       <c r="BG51" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH51" s="46">
+      <c r="BH51" s="44">
         <v>30615</v>
       </c>
-      <c r="BI51" s="46">
+      <c r="BI51" s="44">
         <v>32208</v>
       </c>
       <c r="BJ51" s="12" t="s">
@@ -10935,10 +10990,10 @@
       <c r="N52" s="10">
         <v>1</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="44">
         <v>25763</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="44">
         <v>27589</v>
       </c>
       <c r="R52" s="10">
@@ -10947,10 +11002,10 @@
       <c r="S52" s="10">
         <v>1</v>
       </c>
-      <c r="T52" s="46">
+      <c r="T52" s="44">
         <v>25763</v>
       </c>
-      <c r="U52" s="46">
+      <c r="U52" s="44">
         <v>27589</v>
       </c>
       <c r="V52" s="12">
@@ -10967,7 +11022,7 @@
       <c r="AE52" s="10">
         <v>16</v>
       </c>
-      <c r="AF52" s="12">
+      <c r="AF52" s="10">
         <v>7832304023</v>
       </c>
       <c r="AG52" s="12" t="s">
@@ -10991,10 +11046,10 @@
       <c r="AS52" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT52" s="46">
+      <c r="AT52" s="19">
         <v>27505</v>
       </c>
-      <c r="AU52" s="34" t="s">
+      <c r="AU52" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV52" s="19" t="s">
@@ -11028,10 +11083,10 @@
       <c r="BG52" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH52" s="46">
+      <c r="BH52" s="44">
         <v>32209</v>
       </c>
-      <c r="BI52" s="46">
+      <c r="BI52" s="44">
         <v>33123</v>
       </c>
       <c r="BJ52" s="12" t="s">
@@ -11048,10 +11103,10 @@
       <c r="N53" s="10">
         <v>1</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="44">
         <v>27590</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="44">
         <v>29079</v>
       </c>
       <c r="R53" s="10">
@@ -11060,10 +11115,10 @@
       <c r="S53" s="10">
         <v>1</v>
       </c>
-      <c r="T53" s="46">
+      <c r="T53" s="44">
         <v>27590</v>
       </c>
-      <c r="U53" s="46">
+      <c r="U53" s="44">
         <v>29079</v>
       </c>
       <c r="V53" s="12">
@@ -11080,7 +11135,7 @@
       <c r="AE53" s="10">
         <v>17</v>
       </c>
-      <c r="AF53" s="12">
+      <c r="AF53" s="10">
         <v>4532306484</v>
       </c>
       <c r="AG53" s="12" t="s">
@@ -11104,10 +11159,10 @@
       <c r="AS53" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT53" s="46">
+      <c r="AT53" s="19">
         <v>28143</v>
       </c>
-      <c r="AU53" s="34" t="s">
+      <c r="AU53" s="33" t="s">
         <v>400</v>
       </c>
       <c r="AV53" s="19" t="s">
@@ -11141,10 +11196,10 @@
       <c r="BG53" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH53" s="46">
+      <c r="BH53" s="44">
         <v>33124</v>
       </c>
-      <c r="BI53" s="46">
+      <c r="BI53" s="44">
         <v>33393</v>
       </c>
       <c r="BJ53" s="12" t="s">
@@ -11161,10 +11216,10 @@
       <c r="N54" s="10">
         <v>1</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="44">
         <v>29080</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="44">
         <v>30540</v>
       </c>
       <c r="R54" s="10">
@@ -11173,10 +11228,10 @@
       <c r="S54" s="10">
         <v>1</v>
       </c>
-      <c r="T54" s="46">
+      <c r="T54" s="44">
         <v>29080</v>
       </c>
-      <c r="U54" s="46">
+      <c r="U54" s="44">
         <v>30540</v>
       </c>
       <c r="V54" s="12">
@@ -11193,7 +11248,7 @@
       <c r="AE54" s="10">
         <v>18</v>
       </c>
-      <c r="AF54" s="12">
+      <c r="AF54" s="10">
         <v>8932309811</v>
       </c>
       <c r="AG54" s="12" t="s">
@@ -11217,10 +11272,10 @@
       <c r="AS54" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="AT54" s="46">
+      <c r="AT54" s="19">
         <v>28789</v>
       </c>
-      <c r="AU54" s="34" t="s">
+      <c r="AU54" s="33" t="s">
         <v>409</v>
       </c>
       <c r="AV54" s="19" t="s">
@@ -11254,10 +11309,10 @@
       <c r="BG54" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH54" s="46">
+      <c r="BH54" s="44">
         <v>33394</v>
       </c>
-      <c r="BI54" s="46">
+      <c r="BI54" s="44">
         <v>36682</v>
       </c>
       <c r="BJ54" s="12" t="s">
@@ -11274,10 +11329,10 @@
       <c r="N55" s="10">
         <v>2</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="44">
         <v>23675</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="44">
         <v>25539</v>
       </c>
       <c r="R55" s="10">
@@ -11286,10 +11341,10 @@
       <c r="S55" s="10">
         <v>2</v>
       </c>
-      <c r="T55" s="46">
+      <c r="T55" s="44">
         <v>23675</v>
       </c>
-      <c r="U55" s="46">
+      <c r="U55" s="44">
         <v>25539</v>
       </c>
       <c r="V55" s="12">
@@ -11306,7 +11361,7 @@
       <c r="AE55" s="10">
         <v>19</v>
       </c>
-      <c r="AF55" s="12">
+      <c r="AF55" s="10">
         <v>6532307366</v>
       </c>
       <c r="AG55" s="15" t="s">
@@ -11330,10 +11385,10 @@
       <c r="AS55" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT55" s="46">
+      <c r="AT55" s="19">
         <v>20891</v>
       </c>
-      <c r="AU55" s="34" t="s">
+      <c r="AU55" s="33" t="s">
         <v>401</v>
       </c>
       <c r="AV55" s="19" t="s">
@@ -11367,10 +11422,10 @@
       <c r="BG55" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH55" s="46">
+      <c r="BH55" s="44">
         <v>36683</v>
       </c>
-      <c r="BI55" s="46">
+      <c r="BI55" s="44">
         <v>37476</v>
       </c>
       <c r="BJ55" s="12" t="s">
@@ -11387,10 +11442,10 @@
       <c r="N56" s="10">
         <v>2</v>
       </c>
-      <c r="O56" s="46">
+      <c r="O56" s="44">
         <v>25540</v>
       </c>
-      <c r="P56" s="46">
+      <c r="P56" s="44">
         <v>27217</v>
       </c>
       <c r="R56" s="10">
@@ -11399,10 +11454,10 @@
       <c r="S56" s="10">
         <v>2</v>
       </c>
-      <c r="T56" s="46">
+      <c r="T56" s="44">
         <v>25540</v>
       </c>
-      <c r="U56" s="46">
+      <c r="U56" s="44">
         <v>27217</v>
       </c>
       <c r="V56" s="12">
@@ -11419,7 +11474,7 @@
       <c r="AE56" s="10">
         <v>7</v>
       </c>
-      <c r="AF56" s="12">
+      <c r="AF56" s="10">
         <v>6532334066</v>
       </c>
       <c r="AG56" s="12" t="s">
@@ -11443,10 +11498,10 @@
       <c r="AS56" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT56" s="46">
+      <c r="AT56" s="19">
         <v>21622</v>
       </c>
-      <c r="AU56" s="34" t="s">
+      <c r="AU56" s="33" t="s">
         <v>403</v>
       </c>
       <c r="AV56" s="19" t="s">
@@ -11480,10 +11535,10 @@
       <c r="BG56" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH56" s="46">
+      <c r="BH56" s="44">
         <v>37477</v>
       </c>
-      <c r="BI56" s="46">
+      <c r="BI56" s="44">
         <v>37980</v>
       </c>
       <c r="BJ56" s="12" t="s">
@@ -11500,10 +11555,10 @@
       <c r="N57" s="10">
         <v>2</v>
       </c>
-      <c r="O57" s="46">
+      <c r="O57" s="44">
         <v>27218</v>
       </c>
-      <c r="P57" s="46">
+      <c r="P57" s="44">
         <v>28907</v>
       </c>
       <c r="R57" s="10">
@@ -11512,10 +11567,10 @@
       <c r="S57" s="10">
         <v>2</v>
       </c>
-      <c r="T57" s="46">
+      <c r="T57" s="44">
         <v>27218</v>
       </c>
-      <c r="U57" s="46">
+      <c r="U57" s="44">
         <v>28907</v>
       </c>
       <c r="V57" s="12">
@@ -11548,10 +11603,10 @@
       <c r="AS57" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AT57" s="46">
+      <c r="AT57" s="19">
         <v>22079</v>
       </c>
-      <c r="AU57" s="34" t="s">
+      <c r="AU57" s="33" t="s">
         <v>407</v>
       </c>
       <c r="AV57" s="19" t="s">
@@ -11582,13 +11637,13 @@
       <c r="BF57" s="10">
         <v>11</v>
       </c>
-      <c r="BG57" s="36" t="s">
+      <c r="BG57" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH57" s="46">
+      <c r="BH57" s="44">
         <v>30985</v>
       </c>
-      <c r="BI57" s="46">
+      <c r="BI57" s="44">
         <v>32110</v>
       </c>
       <c r="BJ57" s="12" t="s">
@@ -11605,10 +11660,10 @@
       <c r="N58" s="10">
         <v>2</v>
       </c>
-      <c r="O58" s="46">
+      <c r="O58" s="44">
         <v>28908</v>
       </c>
-      <c r="P58" s="46">
+      <c r="P58" s="44">
         <v>29301</v>
       </c>
       <c r="R58" s="10">
@@ -11617,10 +11672,10 @@
       <c r="S58" s="10">
         <v>2</v>
       </c>
-      <c r="T58" s="46">
+      <c r="T58" s="44">
         <v>28908</v>
       </c>
-      <c r="U58" s="46">
+      <c r="U58" s="44">
         <v>29301</v>
       </c>
       <c r="V58" s="12">
@@ -11653,10 +11708,10 @@
       <c r="AS58" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT58" s="46">
+      <c r="AT58" s="19">
         <v>20192</v>
       </c>
-      <c r="AU58" s="34" t="s">
+      <c r="AU58" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV58" s="19" t="s">
@@ -11687,13 +11742,13 @@
       <c r="BF58" s="10">
         <v>11</v>
       </c>
-      <c r="BG58" s="36" t="s">
+      <c r="BG58" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH58" s="46">
+      <c r="BH58" s="44">
         <v>32111</v>
       </c>
-      <c r="BI58" s="46">
+      <c r="BI58" s="44">
         <v>33238</v>
       </c>
       <c r="BJ58" s="12" t="s">
@@ -11710,10 +11765,10 @@
       <c r="N59" s="10">
         <v>2</v>
       </c>
-      <c r="O59" s="46">
+      <c r="O59" s="44">
         <v>29302</v>
       </c>
-      <c r="P59" s="46">
+      <c r="P59" s="44">
         <v>30675</v>
       </c>
       <c r="R59" s="10">
@@ -11722,10 +11777,10 @@
       <c r="S59" s="10">
         <v>2</v>
       </c>
-      <c r="T59" s="46">
+      <c r="T59" s="44">
         <v>29302</v>
       </c>
-      <c r="U59" s="46">
+      <c r="U59" s="44">
         <v>30675</v>
       </c>
       <c r="V59" s="12">
@@ -11758,10 +11813,10 @@
       <c r="AS59" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT59" s="46">
+      <c r="AT59" s="19">
         <v>20899</v>
       </c>
-      <c r="AU59" s="34" t="s">
+      <c r="AU59" s="33" t="s">
         <v>417</v>
       </c>
       <c r="AV59" s="19" t="s">
@@ -11792,13 +11847,13 @@
       <c r="BF59" s="10">
         <v>11</v>
       </c>
-      <c r="BG59" s="36" t="s">
+      <c r="BG59" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH59" s="46">
+      <c r="BH59" s="44">
         <v>33239</v>
       </c>
-      <c r="BI59" s="46">
+      <c r="BI59" s="44">
         <v>35942</v>
       </c>
       <c r="BJ59" s="12" t="s">
@@ -11815,10 +11870,10 @@
       <c r="N60" s="10">
         <v>3</v>
       </c>
-      <c r="O60" s="46">
+      <c r="O60" s="44">
         <v>23675</v>
       </c>
-      <c r="P60" s="46">
+      <c r="P60" s="44">
         <v>25539</v>
       </c>
       <c r="R60" s="10">
@@ -11827,10 +11882,10 @@
       <c r="S60" s="10">
         <v>3</v>
       </c>
-      <c r="T60" s="46">
+      <c r="T60" s="44">
         <v>23675</v>
       </c>
-      <c r="U60" s="46">
+      <c r="U60" s="44">
         <v>25539</v>
       </c>
       <c r="V60" s="12">
@@ -11863,10 +11918,10 @@
       <c r="AS60" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AT60" s="46">
+      <c r="AT60" s="19">
         <v>21502</v>
       </c>
-      <c r="AU60" s="34" t="s">
+      <c r="AU60" s="33" t="s">
         <v>404</v>
       </c>
       <c r="AV60" s="19" t="s">
@@ -11897,13 +11952,13 @@
       <c r="BF60" s="10">
         <v>11</v>
       </c>
-      <c r="BG60" s="36" t="s">
+      <c r="BG60" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="BH60" s="46">
+      <c r="BH60" s="44">
         <v>35943</v>
       </c>
-      <c r="BI60" s="46">
+      <c r="BI60" s="44">
         <v>37039</v>
       </c>
       <c r="BJ60" s="12" t="s">
@@ -11920,10 +11975,10 @@
       <c r="N61" s="10">
         <v>3</v>
       </c>
-      <c r="O61" s="46">
+      <c r="O61" s="44">
         <v>25540</v>
       </c>
-      <c r="P61" s="46">
+      <c r="P61" s="44">
         <v>27217</v>
       </c>
       <c r="R61" s="10">
@@ -11932,10 +11987,10 @@
       <c r="S61" s="10">
         <v>3</v>
       </c>
-      <c r="T61" s="46">
+      <c r="T61" s="44">
         <v>25540</v>
       </c>
-      <c r="U61" s="46">
+      <c r="U61" s="44">
         <v>27217</v>
       </c>
       <c r="V61" s="12">
@@ -11968,10 +12023,10 @@
       <c r="AS61" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT61" s="46">
+      <c r="AT61" s="19">
         <v>20119</v>
       </c>
-      <c r="AU61" s="34" t="s">
+      <c r="AU61" s="33" t="s">
         <v>414</v>
       </c>
       <c r="AV61" s="19" t="s">
@@ -12002,13 +12057,13 @@
       <c r="BF61" s="10">
         <v>11</v>
       </c>
-      <c r="BG61" s="36" t="s">
+      <c r="BG61" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="BH61" s="46">
+      <c r="BH61" s="44">
         <v>37040</v>
       </c>
-      <c r="BI61" s="46">
+      <c r="BI61" s="44">
         <v>37346</v>
       </c>
       <c r="BJ61" s="12" t="s">
@@ -12025,10 +12080,10 @@
       <c r="N62" s="10">
         <v>3</v>
       </c>
-      <c r="O62" s="46">
+      <c r="O62" s="44">
         <v>27218</v>
       </c>
-      <c r="P62" s="46">
+      <c r="P62" s="44">
         <v>28907</v>
       </c>
       <c r="R62" s="10">
@@ -12037,10 +12092,10 @@
       <c r="S62" s="10">
         <v>3</v>
       </c>
-      <c r="T62" s="46">
+      <c r="T62" s="44">
         <v>27218</v>
       </c>
-      <c r="U62" s="46">
+      <c r="U62" s="44">
         <v>28907</v>
       </c>
       <c r="V62" s="12">
@@ -12073,10 +12128,10 @@
       <c r="AS62" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT62" s="46">
+      <c r="AT62" s="19">
         <v>20879</v>
       </c>
-      <c r="AU62" s="34" t="s">
+      <c r="AU62" s="33" t="s">
         <v>401</v>
       </c>
       <c r="AV62" s="19" t="s">
@@ -12107,13 +12162,13 @@
       <c r="BF62" s="10">
         <v>11</v>
       </c>
-      <c r="BG62" s="36" t="s">
+      <c r="BG62" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="BH62" s="46">
+      <c r="BH62" s="44">
         <v>37347</v>
       </c>
-      <c r="BI62" s="46">
+      <c r="BI62" s="44">
         <v>37985</v>
       </c>
       <c r="BJ62" s="12" t="s">
@@ -12130,10 +12185,10 @@
       <c r="N63" s="10">
         <v>3</v>
       </c>
-      <c r="O63" s="46">
+      <c r="O63" s="44">
         <v>28908</v>
       </c>
-      <c r="P63" s="46">
+      <c r="P63" s="44">
         <v>29301</v>
       </c>
       <c r="R63" s="10">
@@ -12142,10 +12197,10 @@
       <c r="S63" s="10">
         <v>3</v>
       </c>
-      <c r="T63" s="46">
+      <c r="T63" s="44">
         <v>28908</v>
       </c>
-      <c r="U63" s="46">
+      <c r="U63" s="44">
         <v>29301</v>
       </c>
       <c r="V63" s="12">
@@ -12178,10 +12233,10 @@
       <c r="AS63" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="AT63" s="46">
+      <c r="AT63" s="19">
         <v>21396</v>
       </c>
-      <c r="AU63" s="34" t="s">
+      <c r="AU63" s="33" t="s">
         <v>407</v>
       </c>
       <c r="AV63" s="19" t="s">
@@ -12212,13 +12267,13 @@
       <c r="BF63" s="10">
         <v>12</v>
       </c>
-      <c r="BG63" s="36" t="s">
+      <c r="BG63" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="BH63" s="46">
+      <c r="BH63" s="44">
         <v>31016</v>
       </c>
-      <c r="BI63" s="46">
+      <c r="BI63" s="44">
         <v>33112</v>
       </c>
       <c r="BJ63" s="12" t="s">
@@ -12235,10 +12290,10 @@
       <c r="N64" s="10">
         <v>3</v>
       </c>
-      <c r="O64" s="46">
+      <c r="O64" s="44">
         <v>29302</v>
       </c>
-      <c r="P64" s="46">
+      <c r="P64" s="44">
         <v>30675</v>
       </c>
       <c r="R64" s="10">
@@ -12247,10 +12302,10 @@
       <c r="S64" s="10">
         <v>3</v>
       </c>
-      <c r="T64" s="46">
+      <c r="T64" s="44">
         <v>29302</v>
       </c>
-      <c r="U64" s="46">
+      <c r="U64" s="44">
         <v>30675</v>
       </c>
       <c r="V64" s="12">
@@ -12283,10 +12338,10 @@
       <c r="AS64" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT64" s="46">
+      <c r="AT64" s="19">
         <v>28238</v>
       </c>
-      <c r="AU64" s="34" t="s">
+      <c r="AU64" s="33" t="s">
         <v>400</v>
       </c>
       <c r="AV64" s="19" t="s">
@@ -12317,13 +12372,13 @@
       <c r="BF64" s="10">
         <v>12</v>
       </c>
-      <c r="BG64" s="36" t="s">
+      <c r="BG64" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="BH64" s="46">
+      <c r="BH64" s="44">
         <v>33113</v>
       </c>
-      <c r="BI64" s="46">
+      <c r="BI64" s="44">
         <v>34409</v>
       </c>
       <c r="BJ64" s="12" t="s">
@@ -12340,10 +12395,10 @@
       <c r="N65" s="10">
         <v>4</v>
       </c>
-      <c r="O65" s="46">
+      <c r="O65" s="44">
         <v>24046</v>
       </c>
-      <c r="P65" s="46">
+      <c r="P65" s="44">
         <v>25699</v>
       </c>
       <c r="R65" s="10">
@@ -12352,10 +12407,10 @@
       <c r="S65" s="10">
         <v>4</v>
       </c>
-      <c r="T65" s="46">
+      <c r="T65" s="44">
         <v>24046</v>
       </c>
-      <c r="U65" s="46">
+      <c r="U65" s="44">
         <v>25699</v>
       </c>
       <c r="V65" s="12">
@@ -12388,10 +12443,10 @@
       <c r="AS65" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT65" s="46">
+      <c r="AT65" s="19">
         <v>28976</v>
       </c>
-      <c r="AU65" s="34" t="s">
+      <c r="AU65" s="33" t="s">
         <v>416</v>
       </c>
       <c r="AV65" s="19" t="s">
@@ -12422,13 +12477,13 @@
       <c r="BF65" s="10">
         <v>12</v>
       </c>
-      <c r="BG65" s="36" t="s">
+      <c r="BG65" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="BH65" s="46">
+      <c r="BH65" s="44">
         <v>34410</v>
       </c>
-      <c r="BI65" s="46">
+      <c r="BI65" s="44">
         <v>36967</v>
       </c>
       <c r="BJ65" s="12" t="s">
@@ -12445,10 +12500,10 @@
       <c r="N66" s="10">
         <v>4</v>
       </c>
-      <c r="O66" s="46">
+      <c r="O66" s="44">
         <v>25700</v>
       </c>
-      <c r="P66" s="46">
+      <c r="P66" s="44">
         <v>27592</v>
       </c>
       <c r="R66" s="10">
@@ -12457,10 +12512,10 @@
       <c r="S66" s="10">
         <v>4</v>
       </c>
-      <c r="T66" s="46">
+      <c r="T66" s="44">
         <v>25700</v>
       </c>
-      <c r="U66" s="46">
+      <c r="U66" s="44">
         <v>27592</v>
       </c>
       <c r="V66" s="12">
@@ -12493,10 +12548,10 @@
       <c r="AS66" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="AT66" s="46">
+      <c r="AT66" s="19">
         <v>29555</v>
       </c>
-      <c r="AU66" s="34" t="s">
+      <c r="AU66" s="33" t="s">
         <v>405</v>
       </c>
       <c r="AV66" s="19" t="s">
@@ -12527,13 +12582,13 @@
       <c r="BF66" s="10">
         <v>12</v>
       </c>
-      <c r="BG66" s="36" t="s">
+      <c r="BG66" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="BH66" s="46">
+      <c r="BH66" s="44">
         <v>36968</v>
       </c>
-      <c r="BI66" s="46">
+      <c r="BI66" s="44">
         <v>37445</v>
       </c>
       <c r="BJ66" s="12" t="s">
@@ -12550,10 +12605,10 @@
       <c r="N67" s="10">
         <v>4</v>
       </c>
-      <c r="O67" s="46">
+      <c r="O67" s="44">
         <v>27593</v>
       </c>
-      <c r="P67" s="46">
+      <c r="P67" s="44">
         <v>28796</v>
       </c>
       <c r="R67" s="10">
@@ -12562,10 +12617,10 @@
       <c r="S67" s="10">
         <v>4</v>
       </c>
-      <c r="T67" s="46">
+      <c r="T67" s="44">
         <v>27593</v>
       </c>
-      <c r="U67" s="46">
+      <c r="U67" s="44">
         <v>28796</v>
       </c>
       <c r="V67" s="12">
@@ -12598,10 +12653,10 @@
       <c r="AS67" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT67" s="46">
+      <c r="AT67" s="19">
         <v>20099</v>
       </c>
-      <c r="AU67" s="34" t="s">
+      <c r="AU67" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV67" s="19" t="s">
@@ -12632,13 +12687,13 @@
       <c r="BF67" s="10">
         <v>12</v>
       </c>
-      <c r="BG67" s="36" t="s">
+      <c r="BG67" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="BH67" s="46">
+      <c r="BH67" s="44">
         <v>37446</v>
       </c>
-      <c r="BI67" s="46">
+      <c r="BI67" s="44">
         <v>38016</v>
       </c>
       <c r="BJ67" s="12" t="s">
@@ -12655,10 +12710,10 @@
       <c r="N68" s="10">
         <v>4</v>
       </c>
-      <c r="O68" s="46">
+      <c r="O68" s="44">
         <v>29528</v>
       </c>
-      <c r="P68" s="46">
+      <c r="P68" s="44">
         <v>30050</v>
       </c>
       <c r="R68" s="10">
@@ -12667,10 +12722,10 @@
       <c r="S68" s="10">
         <v>4</v>
       </c>
-      <c r="T68" s="46">
+      <c r="T68" s="44">
         <v>29528</v>
       </c>
-      <c r="U68" s="46">
+      <c r="U68" s="44">
         <v>30050</v>
       </c>
       <c r="V68" s="12">
@@ -12703,10 +12758,10 @@
       <c r="AS68" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT68" s="46">
+      <c r="AT68" s="19">
         <v>20863</v>
       </c>
-      <c r="AU68" s="34" t="s">
+      <c r="AU68" s="33" t="s">
         <v>394</v>
       </c>
       <c r="AV68" s="19" t="s">
@@ -12740,10 +12795,10 @@
       <c r="BG68" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="BH68" s="46">
+      <c r="BH68" s="44">
         <v>31382</v>
       </c>
-      <c r="BI68" s="46">
+      <c r="BI68" s="44">
         <v>32131</v>
       </c>
       <c r="BJ68" s="12" t="s">
@@ -12760,10 +12815,10 @@
       <c r="N69" s="10">
         <v>4</v>
       </c>
-      <c r="O69" s="46">
+      <c r="O69" s="44">
         <v>30051</v>
       </c>
-      <c r="P69" s="46">
+      <c r="P69" s="44">
         <v>30433</v>
       </c>
       <c r="R69" s="10">
@@ -12772,10 +12827,10 @@
       <c r="S69" s="10">
         <v>4</v>
       </c>
-      <c r="T69" s="46">
+      <c r="T69" s="44">
         <v>30051</v>
       </c>
-      <c r="U69" s="46">
+      <c r="U69" s="44">
         <v>30433</v>
       </c>
       <c r="V69" s="12">
@@ -12808,10 +12863,10 @@
       <c r="AS69" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AT69" s="46">
+      <c r="AT69" s="19">
         <v>21285</v>
       </c>
-      <c r="AU69" s="34" t="s">
+      <c r="AU69" s="33" t="s">
         <v>395</v>
       </c>
       <c r="AV69" s="19" t="s">
@@ -12824,7 +12879,7 @@
         <v>55</v>
       </c>
       <c r="AY69" s="10" t="str">
-        <f t="shared" ref="AY69:AY85" si="1">IF(AX69&gt;=90,"A+",IF(AND(AX69&gt;=80,AX69&lt;=89),"A",IF( AND(AX69&gt;=76, AX69&lt;=79),"B+",IF(AND(AX69&gt;=70,AX69&lt;=75),"B", IF(AND(AX69&gt;=65, AX69&lt;=69),"C",IF(AND(AX69&gt;=55, AX69&lt;=64),"D","F"))))))</f>
+        <f t="shared" ref="AY69:AY96" si="1">IF(AX69&gt;=90,"A+",IF(AND(AX69&gt;=80,AX69&lt;=89),"A",IF( AND(AX69&gt;=76, AX69&lt;=79),"B+",IF(AND(AX69&gt;=70,AX69&lt;=75),"B", IF(AND(AX69&gt;=65, AX69&lt;=69),"C",IF(AND(AX69&gt;=55, AX69&lt;=64),"D","F"))))))</f>
         <v>D</v>
       </c>
       <c r="BA69" s="10">
@@ -12845,10 +12900,10 @@
       <c r="BG69" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="BH69" s="46">
+      <c r="BH69" s="44">
         <v>32132</v>
       </c>
-      <c r="BI69" s="46">
+      <c r="BI69" s="44">
         <v>33842</v>
       </c>
       <c r="BJ69" s="12" t="s">
@@ -12865,10 +12920,10 @@
       <c r="N70" s="10">
         <v>4</v>
       </c>
-      <c r="O70" s="46">
+      <c r="O70" s="44">
         <v>30434</v>
       </c>
-      <c r="P70" s="46">
+      <c r="P70" s="44">
         <v>31046</v>
       </c>
       <c r="R70" s="10">
@@ -12877,10 +12932,10 @@
       <c r="S70" s="10">
         <v>4</v>
       </c>
-      <c r="T70" s="46">
+      <c r="T70" s="44">
         <v>30434</v>
       </c>
-      <c r="U70" s="46">
+      <c r="U70" s="44">
         <v>31046</v>
       </c>
       <c r="V70" s="12">
@@ -12911,12 +12966,12 @@
         <v>10</v>
       </c>
       <c r="AS70" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="AT70" s="46">
+        <v>494</v>
+      </c>
+      <c r="AT70" s="19">
         <v>20130</v>
       </c>
-      <c r="AU70" s="34" t="s">
+      <c r="AU70" s="33" t="s">
         <v>394</v>
       </c>
       <c r="AV70" s="19" t="s">
@@ -12950,10 +13005,10 @@
       <c r="BG70" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="BH70" s="46">
+      <c r="BH70" s="44">
         <v>33843</v>
       </c>
-      <c r="BI70" s="46">
+      <c r="BI70" s="44">
         <v>37697</v>
       </c>
       <c r="BJ70" s="12" t="s">
@@ -12970,10 +13025,10 @@
       <c r="N71" s="10">
         <v>5</v>
       </c>
-      <c r="O71" s="46">
+      <c r="O71" s="44">
         <v>23754</v>
       </c>
-      <c r="P71" s="46">
+      <c r="P71" s="44">
         <v>25215</v>
       </c>
       <c r="R71" s="10">
@@ -12982,10 +13037,10 @@
       <c r="S71" s="10">
         <v>5</v>
       </c>
-      <c r="T71" s="46">
+      <c r="T71" s="44">
         <v>23754</v>
       </c>
-      <c r="U71" s="46">
+      <c r="U71" s="44">
         <v>25215</v>
       </c>
       <c r="V71" s="12">
@@ -13016,12 +13071,12 @@
         <v>12</v>
       </c>
       <c r="AS71" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT71" s="46">
+        <v>494</v>
+      </c>
+      <c r="AT71" s="19">
         <v>20924</v>
       </c>
-      <c r="AU71" s="34" t="s">
+      <c r="AU71" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AV71" s="19" t="s">
@@ -13055,10 +13110,10 @@
       <c r="BG71" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="BH71" s="46">
+      <c r="BH71" s="44">
         <v>37698</v>
       </c>
-      <c r="BI71" s="46">
+      <c r="BI71" s="44">
         <v>38382</v>
       </c>
       <c r="BJ71" s="12" t="s">
@@ -13075,10 +13130,10 @@
       <c r="N72" s="10">
         <v>5</v>
       </c>
-      <c r="O72" s="46">
+      <c r="O72" s="44">
         <v>25216</v>
       </c>
-      <c r="P72" s="46">
+      <c r="P72" s="44">
         <v>26547</v>
       </c>
       <c r="R72" s="10">
@@ -13087,10 +13142,10 @@
       <c r="S72" s="10">
         <v>5</v>
       </c>
-      <c r="T72" s="46">
+      <c r="T72" s="44">
         <v>25216</v>
       </c>
-      <c r="U72" s="46">
+      <c r="U72" s="44">
         <v>26547</v>
       </c>
       <c r="V72" s="12">
@@ -13123,10 +13178,10 @@
       <c r="AS72" t="s">
         <v>484</v>
       </c>
-      <c r="AT72" s="46">
+      <c r="AT72" s="19">
         <v>21396</v>
       </c>
-      <c r="AU72" s="34" t="s">
+      <c r="AU72" s="33" t="s">
         <v>396</v>
       </c>
       <c r="AV72" s="19" t="s">
@@ -13160,10 +13215,10 @@
       <c r="BG72" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="BH72" s="46">
+      <c r="BH72" s="44">
         <v>31761</v>
       </c>
-      <c r="BI72" s="46">
+      <c r="BI72" s="44">
         <v>32562</v>
       </c>
       <c r="BJ72" s="12" t="s">
@@ -13180,10 +13235,10 @@
       <c r="N73" s="10">
         <v>5</v>
       </c>
-      <c r="O73" s="46">
+      <c r="O73" s="44">
         <v>26548</v>
       </c>
-      <c r="P73" s="46">
+      <c r="P73" s="44">
         <v>28442</v>
       </c>
       <c r="R73" s="10">
@@ -13192,10 +13247,10 @@
       <c r="S73" s="10">
         <v>5</v>
       </c>
-      <c r="T73" s="46">
+      <c r="T73" s="44">
         <v>26548</v>
       </c>
-      <c r="U73" s="46">
+      <c r="U73" s="44">
         <v>28442</v>
       </c>
       <c r="V73" s="12">
@@ -13228,10 +13283,10 @@
       <c r="AS73" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT73" s="46">
+      <c r="AT73" s="19">
         <v>20102</v>
       </c>
-      <c r="AU73" s="34" t="s">
+      <c r="AU73" s="33" t="s">
         <v>395</v>
       </c>
       <c r="AV73" s="19" t="s">
@@ -13265,10 +13320,10 @@
       <c r="BG73" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="BH73" s="46">
+      <c r="BH73" s="44">
         <v>32563</v>
       </c>
-      <c r="BI73" s="46">
+      <c r="BI73" s="44">
         <v>36264</v>
       </c>
       <c r="BJ73" s="12" t="s">
@@ -13285,10 +13340,10 @@
       <c r="N74" s="10">
         <v>5</v>
       </c>
-      <c r="O74" s="46">
+      <c r="O74" s="44">
         <v>28443</v>
       </c>
-      <c r="P74" s="46">
+      <c r="P74" s="44">
         <v>29951</v>
       </c>
       <c r="R74" s="10">
@@ -13297,10 +13352,10 @@
       <c r="S74" s="10">
         <v>5</v>
       </c>
-      <c r="T74" s="46">
+      <c r="T74" s="44">
         <v>28443</v>
       </c>
-      <c r="U74" s="46">
+      <c r="U74" s="44">
         <v>29951</v>
       </c>
       <c r="V74" s="12">
@@ -13333,10 +13388,10 @@
       <c r="AS74" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT74" s="46">
+      <c r="AT74" s="19">
         <v>20957</v>
       </c>
-      <c r="AU74" s="34" t="s">
+      <c r="AU74" s="33" t="s">
         <v>397</v>
       </c>
       <c r="AV74" s="19" t="s">
@@ -13370,10 +13425,10 @@
       <c r="BG74" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="BH74" s="46">
+      <c r="BH74" s="44">
         <v>36265</v>
       </c>
-      <c r="BI74" s="46">
+      <c r="BI74" s="44">
         <v>38062</v>
       </c>
       <c r="BJ74" s="12" t="s">
@@ -13390,10 +13445,10 @@
       <c r="N75" s="10">
         <v>5</v>
       </c>
-      <c r="O75" s="46">
+      <c r="O75" s="44">
         <v>29952</v>
       </c>
-      <c r="P75" s="46">
+      <c r="P75" s="44">
         <v>30398</v>
       </c>
       <c r="R75" s="10">
@@ -13402,10 +13457,10 @@
       <c r="S75" s="10">
         <v>5</v>
       </c>
-      <c r="T75" s="46">
+      <c r="T75" s="44">
         <v>29952</v>
       </c>
-      <c r="U75" s="46">
+      <c r="U75" s="44">
         <v>30398</v>
       </c>
       <c r="V75" s="12">
@@ -13438,10 +13493,10 @@
       <c r="AS75" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="AT75" s="46">
+      <c r="AT75" s="19">
         <v>21396</v>
       </c>
-      <c r="AU75" s="34" t="s">
+      <c r="AU75" s="33" t="s">
         <v>398</v>
       </c>
       <c r="AV75" s="19" t="s">
@@ -13475,10 +13530,10 @@
       <c r="BG75" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="BH75" s="46">
+      <c r="BH75" s="44">
         <v>38063</v>
       </c>
-      <c r="BI75" s="46">
+      <c r="BI75" s="44">
         <v>38761</v>
       </c>
       <c r="BJ75" s="12" t="s">
@@ -13495,10 +13550,10 @@
       <c r="N76" s="10">
         <v>5</v>
       </c>
-      <c r="O76" s="46">
+      <c r="O76" s="44">
         <v>30399</v>
       </c>
-      <c r="P76" s="46">
+      <c r="P76" s="44">
         <v>31077</v>
       </c>
       <c r="R76" s="10">
@@ -13507,10 +13562,10 @@
       <c r="S76" s="10">
         <v>5</v>
       </c>
-      <c r="T76" s="46">
+      <c r="T76" s="44">
         <v>30399</v>
       </c>
-      <c r="U76" s="46">
+      <c r="U76" s="44">
         <v>31077</v>
       </c>
       <c r="V76" s="12">
@@ -13543,10 +13598,10 @@
       <c r="AS76" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT76" s="46">
+      <c r="AT76" s="19">
         <v>27840</v>
       </c>
-      <c r="AU76" s="34" t="s">
+      <c r="AU76" s="33" t="s">
         <v>399</v>
       </c>
       <c r="AV76" s="19" t="s">
@@ -13580,10 +13635,10 @@
       <c r="BG76" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="BH76" s="46">
+      <c r="BH76" s="44">
         <v>32141</v>
       </c>
-      <c r="BI76" s="46">
+      <c r="BI76" s="44">
         <v>34511</v>
       </c>
       <c r="BJ76" s="12" t="s">
@@ -13600,10 +13655,10 @@
       <c r="N77" s="10">
         <v>6</v>
       </c>
-      <c r="O77" s="46">
+      <c r="O77" s="44">
         <v>24077</v>
       </c>
-      <c r="P77" s="46">
+      <c r="P77" s="44">
         <v>26722</v>
       </c>
       <c r="R77" s="10">
@@ -13612,10 +13667,10 @@
       <c r="S77" s="10">
         <v>6</v>
       </c>
-      <c r="T77" s="46">
+      <c r="T77" s="44">
         <v>24077</v>
       </c>
-      <c r="U77" s="46">
+      <c r="U77" s="44">
         <v>26722</v>
       </c>
       <c r="V77" s="12">
@@ -13648,10 +13703,10 @@
       <c r="AS77" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AT77" s="46">
+      <c r="AT77" s="19">
         <v>28575</v>
       </c>
-      <c r="AU77" s="34" t="s">
+      <c r="AU77" s="33" t="s">
         <v>416</v>
       </c>
       <c r="AV77" s="19" t="s">
@@ -13685,10 +13740,10 @@
       <c r="BG77" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BH77" s="46">
+      <c r="BH77" s="44">
         <v>34512</v>
       </c>
-      <c r="BI77" s="46">
+      <c r="BI77" s="44">
         <v>37069</v>
       </c>
       <c r="BJ77" s="12" t="s">
@@ -13705,10 +13760,10 @@
       <c r="N78" s="10">
         <v>6</v>
       </c>
-      <c r="O78" s="46">
+      <c r="O78" s="44">
         <v>26723</v>
       </c>
-      <c r="P78" s="46">
+      <c r="P78" s="44">
         <v>27894</v>
       </c>
       <c r="R78" s="10">
@@ -13717,10 +13772,10 @@
       <c r="S78" s="10">
         <v>6</v>
       </c>
-      <c r="T78" s="46">
+      <c r="T78" s="44">
         <v>26723</v>
       </c>
-      <c r="U78" s="46">
+      <c r="U78" s="44">
         <v>27894</v>
       </c>
       <c r="V78" s="12">
@@ -13753,10 +13808,10 @@
       <c r="AS78" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="AT78" s="46">
+      <c r="AT78" s="19">
         <v>29154</v>
       </c>
-      <c r="AU78" s="34" t="s">
+      <c r="AU78" s="33" t="s">
         <v>405</v>
       </c>
       <c r="AV78" s="19" t="s">
@@ -13790,10 +13845,10 @@
       <c r="BG78" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="BH78" s="46">
+      <c r="BH78" s="44">
         <v>37070</v>
       </c>
-      <c r="BI78" s="46">
+      <c r="BI78" s="44">
         <v>38095</v>
       </c>
       <c r="BJ78" s="12" t="s">
@@ -13810,10 +13865,10 @@
       <c r="N79" s="10">
         <v>6</v>
       </c>
-      <c r="O79" s="46">
+      <c r="O79" s="44">
         <v>27895</v>
       </c>
-      <c r="P79" s="46">
+      <c r="P79" s="44">
         <v>28626</v>
       </c>
       <c r="R79" s="10">
@@ -13822,10 +13877,10 @@
       <c r="S79" s="10">
         <v>6</v>
       </c>
-      <c r="T79" s="46">
+      <c r="T79" s="44">
         <v>27895</v>
       </c>
-      <c r="U79" s="46">
+      <c r="U79" s="44">
         <v>28626</v>
       </c>
       <c r="V79" s="12">
@@ -13858,10 +13913,10 @@
       <c r="AS79" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT79" s="46">
+      <c r="AT79" s="19">
         <v>27834</v>
       </c>
-      <c r="AU79" s="34" t="s">
+      <c r="AU79" s="33" t="s">
         <v>393</v>
       </c>
       <c r="AV79" s="19" t="s">
@@ -13895,10 +13950,10 @@
       <c r="BG79" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BH79" s="46">
+      <c r="BH79" s="44">
         <v>38096</v>
       </c>
-      <c r="BI79" s="46">
+      <c r="BI79" s="44">
         <v>39141</v>
       </c>
       <c r="BJ79" s="12" t="s">
@@ -13915,10 +13970,10 @@
       <c r="N80" s="10">
         <v>6</v>
       </c>
-      <c r="O80" s="46">
+      <c r="O80" s="44">
         <v>28597</v>
       </c>
-      <c r="P80" s="46">
+      <c r="P80" s="44">
         <v>29978</v>
       </c>
       <c r="R80" s="10">
@@ -13927,10 +13982,10 @@
       <c r="S80" s="10">
         <v>6</v>
       </c>
-      <c r="T80" s="46">
+      <c r="T80" s="44">
         <v>28597</v>
       </c>
-      <c r="U80" s="46">
+      <c r="U80" s="44">
         <v>29978</v>
       </c>
       <c r="V80" s="12">
@@ -13963,10 +14018,10 @@
       <c r="AS80" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT80" s="46">
+      <c r="AT80" s="19">
         <v>28565</v>
       </c>
-      <c r="AU80" s="34" t="s">
+      <c r="AU80" s="33" t="s">
         <v>394</v>
       </c>
       <c r="AV80" s="19" t="s">
@@ -13997,13 +14052,13 @@
       <c r="BF80" s="10">
         <v>19</v>
       </c>
-      <c r="BG80" s="36" t="s">
+      <c r="BG80" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH80" s="46">
+      <c r="BH80" s="44">
         <v>23328</v>
       </c>
-      <c r="BI80" s="46">
+      <c r="BI80" s="44">
         <v>24605</v>
       </c>
       <c r="BJ80" s="12" t="s">
@@ -14020,10 +14075,10 @@
       <c r="N81" s="10">
         <v>6</v>
       </c>
-      <c r="O81" s="46">
+      <c r="O81" s="44">
         <v>30010</v>
       </c>
-      <c r="P81" s="46">
+      <c r="P81" s="44">
         <v>31077</v>
       </c>
       <c r="R81" s="10">
@@ -14032,10 +14087,10 @@
       <c r="S81" s="10">
         <v>6</v>
       </c>
-      <c r="T81" s="46">
+      <c r="T81" s="44">
         <v>30010</v>
       </c>
-      <c r="U81" s="46">
+      <c r="U81" s="44">
         <v>31077</v>
       </c>
       <c r="V81" s="12">
@@ -14063,10 +14118,10 @@
       <c r="AS81" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="AT81" s="46">
+      <c r="AT81" s="19">
         <v>29154</v>
       </c>
-      <c r="AU81" s="34" t="s">
+      <c r="AU81" s="33" t="s">
         <v>395</v>
       </c>
       <c r="AV81" s="19" t="s">
@@ -14097,13 +14152,13 @@
       <c r="BF81" s="10">
         <v>19</v>
       </c>
-      <c r="BG81" s="36" t="s">
+      <c r="BG81" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH81" s="46">
+      <c r="BH81" s="44">
         <v>24606</v>
       </c>
-      <c r="BI81" s="46">
+      <c r="BI81" s="44">
         <v>26047</v>
       </c>
       <c r="BJ81" s="12" t="s">
@@ -14120,10 +14175,10 @@
       <c r="N82" s="10">
         <v>11</v>
       </c>
-      <c r="O82" s="46">
+      <c r="O82" s="44">
         <v>30985</v>
       </c>
-      <c r="P82" s="46">
+      <c r="P82" s="44">
         <v>32110</v>
       </c>
       <c r="R82" s="10">
@@ -14132,10 +14187,10 @@
       <c r="S82" s="10">
         <v>11</v>
       </c>
-      <c r="T82" s="46">
+      <c r="T82" s="44">
         <v>30985</v>
       </c>
-      <c r="U82" s="46">
+      <c r="U82" s="44">
         <v>32110</v>
       </c>
       <c r="V82" s="12">
@@ -14163,10 +14218,10 @@
       <c r="AS82" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AT82" s="46">
+      <c r="AT82" s="19">
         <v>20109</v>
       </c>
-      <c r="AU82" s="34" t="s">
+      <c r="AU82" s="33" t="s">
         <v>394</v>
       </c>
       <c r="AV82" s="19" t="s">
@@ -14197,13 +14252,13 @@
       <c r="BF82" s="10">
         <v>19</v>
       </c>
-      <c r="BG82" s="36" t="s">
+      <c r="BG82" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH82" s="46">
+      <c r="BH82" s="44">
         <v>26048</v>
       </c>
-      <c r="BI82" s="46">
+      <c r="BI82" s="44">
         <v>29051</v>
       </c>
       <c r="BJ82" s="12" t="s">
@@ -14220,10 +14275,10 @@
       <c r="N83" s="10">
         <v>11</v>
       </c>
-      <c r="O83" s="46">
+      <c r="O83" s="44">
         <v>32111</v>
       </c>
-      <c r="P83" s="46">
+      <c r="P83" s="44">
         <v>33238</v>
       </c>
       <c r="R83" s="10">
@@ -14232,10 +14287,10 @@
       <c r="S83" s="10">
         <v>11</v>
       </c>
-      <c r="T83" s="46">
+      <c r="T83" s="44">
         <v>32111</v>
       </c>
-      <c r="U83" s="46">
+      <c r="U83" s="44">
         <v>33238</v>
       </c>
       <c r="V83" s="12">
@@ -14263,10 +14318,10 @@
       <c r="AS83" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AT83" s="46">
+      <c r="AT83" s="19">
         <v>20890</v>
       </c>
-      <c r="AU83" s="34" t="s">
+      <c r="AU83" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AV83" s="19" t="s">
@@ -14291,13 +14346,13 @@
       <c r="BF83" s="10">
         <v>19</v>
       </c>
-      <c r="BG83" s="36" t="s">
+      <c r="BG83" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH83" s="46">
+      <c r="BH83" s="44">
         <v>29052</v>
       </c>
-      <c r="BI83" s="46">
+      <c r="BI83" s="44">
         <v>29480</v>
       </c>
       <c r="BJ83" s="12" t="s">
@@ -14314,10 +14369,10 @@
       <c r="N84" s="10">
         <v>11</v>
       </c>
-      <c r="O84" s="46">
+      <c r="O84" s="44">
         <v>33239</v>
       </c>
-      <c r="P84" s="46">
+      <c r="P84" s="44">
         <v>35942</v>
       </c>
       <c r="R84" s="10">
@@ -14326,10 +14381,10 @@
       <c r="S84" s="10">
         <v>11</v>
       </c>
-      <c r="T84" s="46">
+      <c r="T84" s="44">
         <v>33239</v>
       </c>
-      <c r="U84" s="46">
+      <c r="U84" s="44">
         <v>35942</v>
       </c>
       <c r="V84" s="12">
@@ -14358,10 +14413,10 @@
       <c r="AS84" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="AT84" s="46">
+      <c r="AT84" s="19">
         <v>21396</v>
       </c>
-      <c r="AU84" s="34" t="s">
+      <c r="AU84" s="33" t="s">
         <v>396</v>
       </c>
       <c r="AV84" s="19" t="s">
@@ -14389,10 +14444,10 @@
       <c r="BG84" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="BH84" s="46">
+      <c r="BH84" s="44">
         <v>29481</v>
       </c>
-      <c r="BI84" s="46">
+      <c r="BI84" s="44">
         <v>30328</v>
       </c>
       <c r="BJ84" s="12" t="s">
@@ -14409,10 +14464,10 @@
       <c r="N85" s="10">
         <v>11</v>
       </c>
-      <c r="O85" s="46">
+      <c r="O85" s="44">
         <v>35943</v>
       </c>
-      <c r="P85" s="46">
+      <c r="P85" s="44">
         <v>37039</v>
       </c>
       <c r="R85" s="10">
@@ -14421,10 +14476,10 @@
       <c r="S85" s="10">
         <v>11</v>
       </c>
-      <c r="T85" s="46">
+      <c r="T85" s="44">
         <v>35943</v>
       </c>
-      <c r="U85" s="46">
+      <c r="U85" s="44">
         <v>37039</v>
       </c>
       <c r="V85" s="12">
@@ -14453,10 +14508,10 @@
       <c r="AS85" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="AT85" s="46">
+      <c r="AT85" s="19">
         <v>30595</v>
       </c>
-      <c r="AU85" s="34" t="s">
+      <c r="AU85" s="33" t="s">
         <v>411</v>
       </c>
       <c r="AV85" s="19" t="s">
@@ -14484,10 +14539,10 @@
       <c r="BG85" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH85" s="46">
+      <c r="BH85" s="44">
         <v>22746</v>
       </c>
-      <c r="BI85" s="46">
+      <c r="BI85" s="44">
         <v>23233</v>
       </c>
       <c r="BJ85" s="12" t="s">
@@ -14504,10 +14559,10 @@
       <c r="N86" s="10">
         <v>11</v>
       </c>
-      <c r="O86" s="46">
+      <c r="O86" s="44">
         <v>37040</v>
       </c>
-      <c r="P86" s="46">
+      <c r="P86" s="44">
         <v>37346</v>
       </c>
       <c r="R86" s="10">
@@ -14516,10 +14571,10 @@
       <c r="S86" s="10">
         <v>11</v>
       </c>
-      <c r="T86" s="46">
+      <c r="T86" s="44">
         <v>37040</v>
       </c>
-      <c r="U86" s="46">
+      <c r="U86" s="44">
         <v>37346</v>
       </c>
       <c r="V86" s="12">
@@ -14532,19 +14587,19 @@
       <c r="AQ86" s="30">
         <v>22</v>
       </c>
-      <c r="AR86" s="39" t="s">
+      <c r="AR86" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="AS86" s="39" t="s">
+      <c r="AS86" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="AT86" s="48">
+      <c r="AT86" s="40">
         <v>22746</v>
       </c>
-      <c r="AU86" s="42" t="s">
+      <c r="AU86" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="AV86" s="41" t="s">
+      <c r="AV86" s="40" t="s">
         <v>423</v>
       </c>
       <c r="AW86" s="30">
@@ -14554,7 +14609,7 @@
         <v>67</v>
       </c>
       <c r="AY86" s="30" t="str">
-        <f t="shared" ref="AY86:AY88" si="2">IF(AX86&gt;=90,"A+",IF(AND(AX86&gt;=80,AX86&lt;=89),"A",IF( AND(AX86&gt;=76, AX86&lt;=79),"B+",IF(AND(AX86&gt;=70,AX86&lt;=75),"B", IF(AND(AX86&gt;=65, AX86&lt;=69),"C",IF(AND(AX86&gt;=55, AX86&lt;=64),"D","F"))))))</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="BA86" s="20"/>
@@ -14569,10 +14624,10 @@
       <c r="BG86" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="BH86" s="46">
+      <c r="BH86" s="44">
         <v>23234</v>
       </c>
-      <c r="BI86" s="46">
+      <c r="BI86" s="44">
         <v>24487</v>
       </c>
       <c r="BJ86" s="12" t="s">
@@ -14589,10 +14644,10 @@
       <c r="N87" s="10">
         <v>11</v>
       </c>
-      <c r="O87" s="46">
+      <c r="O87" s="44">
         <v>37347</v>
       </c>
-      <c r="P87" s="46">
+      <c r="P87" s="44">
         <v>37985</v>
       </c>
       <c r="R87" s="10">
@@ -14601,10 +14656,10 @@
       <c r="S87" s="10">
         <v>11</v>
       </c>
-      <c r="T87" s="46">
+      <c r="T87" s="44">
         <v>37347</v>
       </c>
-      <c r="U87" s="46">
+      <c r="U87" s="44">
         <v>37985</v>
       </c>
       <c r="V87" s="12">
@@ -14616,19 +14671,19 @@
       <c r="AQ87" s="30">
         <v>17</v>
       </c>
-      <c r="AR87" s="39" t="s">
+      <c r="AR87" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="AS87" s="39" t="s">
+      <c r="AS87" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="AT87" s="48">
+      <c r="AT87" s="40">
         <v>29885</v>
       </c>
-      <c r="AU87" s="42" t="s">
+      <c r="AU87" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="AV87" s="41" t="s">
+      <c r="AV87" s="40" t="s">
         <v>425</v>
       </c>
       <c r="AW87" s="30">
@@ -14638,7 +14693,7 @@
         <v>78</v>
       </c>
       <c r="AY87" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>B+</v>
       </c>
       <c r="BA87" s="20"/>
@@ -14653,10 +14708,10 @@
       <c r="BG87" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH87" s="46">
+      <c r="BH87" s="44">
         <v>24488</v>
       </c>
-      <c r="BI87" s="46">
+      <c r="BI87" s="44">
         <v>26355</v>
       </c>
       <c r="BJ87" s="12" t="s">
@@ -14673,10 +14728,10 @@
       <c r="N88" s="10">
         <v>13</v>
       </c>
-      <c r="O88" s="46">
+      <c r="O88" s="44">
         <v>31382</v>
       </c>
-      <c r="P88" s="46">
+      <c r="P88" s="44">
         <v>32131</v>
       </c>
       <c r="R88" s="10">
@@ -14685,10 +14740,10 @@
       <c r="S88" s="10">
         <v>13</v>
       </c>
-      <c r="T88" s="46">
+      <c r="T88" s="44">
         <v>31382</v>
       </c>
-      <c r="U88" s="46">
+      <c r="U88" s="44">
         <v>32131</v>
       </c>
       <c r="V88" s="12">
@@ -14700,19 +14755,19 @@
       <c r="AQ88" s="30">
         <v>12</v>
       </c>
-      <c r="AR88" s="39" t="s">
+      <c r="AR88" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="AS88" s="39" t="s">
+      <c r="AS88" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="AT88" s="48">
+      <c r="AT88" s="40">
         <v>31136</v>
       </c>
-      <c r="AU88" s="42" t="s">
+      <c r="AU88" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="AV88" s="41" t="s">
+      <c r="AV88" s="40" t="s">
         <v>420</v>
       </c>
       <c r="AW88" s="30">
@@ -14722,7 +14777,7 @@
         <v>81</v>
       </c>
       <c r="AY88" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="BA88" s="20"/>
@@ -14737,10 +14792,10 @@
       <c r="BG88" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH88" s="46">
+      <c r="BH88" s="44">
         <v>26356</v>
       </c>
-      <c r="BI88" s="46">
+      <c r="BI88" s="44">
         <v>27325</v>
       </c>
       <c r="BJ88" s="12" t="s">
@@ -14757,10 +14812,10 @@
       <c r="N89" s="10">
         <v>13</v>
       </c>
-      <c r="O89" s="46">
+      <c r="O89" s="44">
         <v>32132</v>
       </c>
-      <c r="P89" s="46">
+      <c r="P89" s="44">
         <v>33842</v>
       </c>
       <c r="R89" s="10">
@@ -14769,14 +14824,45 @@
       <c r="S89" s="10">
         <v>13</v>
       </c>
-      <c r="T89" s="46">
+      <c r="T89" s="44">
         <v>32132</v>
       </c>
-      <c r="U89" s="46">
+      <c r="U89" s="44">
         <v>33842</v>
       </c>
       <c r="V89" s="12">
         <v>2600</v>
+      </c>
+      <c r="AP89" s="30">
+        <v>86</v>
+      </c>
+      <c r="AQ89" s="10">
+        <v>28</v>
+      </c>
+      <c r="AR89" s="11">
+        <v>10</v>
+      </c>
+      <c r="AS89" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AT89" s="19">
+        <v>27840</v>
+      </c>
+      <c r="AU89" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV89" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="AW89" s="10">
+        <v>1977</v>
+      </c>
+      <c r="AX89" s="10">
+        <v>84</v>
+      </c>
+      <c r="AY89" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="BA89" s="7"/>
       <c r="BE89" s="10">
@@ -14788,10 +14874,10 @@
       <c r="BG89" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH89" s="46">
+      <c r="BH89" s="44">
         <v>27326</v>
       </c>
-      <c r="BI89" s="46">
+      <c r="BI89" s="44">
         <v>28958</v>
       </c>
       <c r="BJ89" s="12" t="s">
@@ -14808,10 +14894,10 @@
       <c r="N90" s="10">
         <v>13</v>
       </c>
-      <c r="O90" s="46">
+      <c r="O90" s="44">
         <v>33843</v>
       </c>
-      <c r="P90" s="46">
+      <c r="P90" s="44">
         <v>37697</v>
       </c>
       <c r="R90" s="10">
@@ -14820,14 +14906,45 @@
       <c r="S90" s="10">
         <v>13</v>
       </c>
-      <c r="T90" s="46">
+      <c r="T90" s="44">
         <v>33843</v>
       </c>
-      <c r="U90" s="46">
+      <c r="U90" s="44">
         <v>37697</v>
       </c>
       <c r="V90" s="12">
         <v>3200</v>
+      </c>
+      <c r="AP90" s="30">
+        <v>87</v>
+      </c>
+      <c r="AQ90" s="10">
+        <v>29</v>
+      </c>
+      <c r="AR90" s="11">
+        <v>10</v>
+      </c>
+      <c r="AS90" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AT90" s="19">
+        <v>28575</v>
+      </c>
+      <c r="AU90" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV90" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW90" s="10">
+        <v>1979</v>
+      </c>
+      <c r="AX90" s="10">
+        <v>82</v>
+      </c>
+      <c r="AY90" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="BA90" s="7"/>
       <c r="BE90" s="10">
@@ -14839,10 +14956,10 @@
       <c r="BG90" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH90" s="46">
+      <c r="BH90" s="44">
         <v>28989</v>
       </c>
-      <c r="BI90" s="46">
+      <c r="BI90" s="44">
         <v>29746</v>
       </c>
       <c r="BJ90" s="12" t="s">
@@ -14859,10 +14976,10 @@
       <c r="N91" s="10">
         <v>13</v>
       </c>
-      <c r="O91" s="46">
+      <c r="O91" s="44">
         <v>37698</v>
       </c>
-      <c r="P91" s="46">
+      <c r="P91" s="44">
         <v>38382</v>
       </c>
       <c r="R91" s="10">
@@ -14871,14 +14988,45 @@
       <c r="S91" s="10">
         <v>13</v>
       </c>
-      <c r="T91" s="46">
+      <c r="T91" s="44">
         <v>37698</v>
       </c>
-      <c r="U91" s="46">
+      <c r="U91" s="44">
         <v>38382</v>
       </c>
       <c r="V91" s="12">
         <v>3400</v>
+      </c>
+      <c r="AP91" s="30">
+        <v>88</v>
+      </c>
+      <c r="AQ91" s="10">
+        <v>29</v>
+      </c>
+      <c r="AR91" s="11">
+        <v>12</v>
+      </c>
+      <c r="AS91" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AT91" s="19">
+        <v>29154</v>
+      </c>
+      <c r="AU91" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV91" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="AW91" s="10">
+        <v>1983</v>
+      </c>
+      <c r="AX91" s="10">
+        <v>80</v>
+      </c>
+      <c r="AY91" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="BA91" s="7"/>
       <c r="BE91" s="10">
@@ -14890,10 +15038,10 @@
       <c r="BG91" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH91" s="46">
+      <c r="BH91" s="44">
         <v>22857</v>
       </c>
-      <c r="BI91" s="46">
+      <c r="BI91" s="44">
         <v>23606</v>
       </c>
       <c r="BJ91" s="12" t="s">
@@ -14910,10 +15058,10 @@
       <c r="N92" s="10">
         <v>14</v>
       </c>
-      <c r="O92" s="46">
+      <c r="O92" s="44">
         <v>31761</v>
       </c>
-      <c r="P92" s="46">
+      <c r="P92" s="44">
         <v>32562</v>
       </c>
       <c r="R92" s="10">
@@ -14922,14 +15070,45 @@
       <c r="S92" s="10">
         <v>14</v>
       </c>
-      <c r="T92" s="46">
+      <c r="T92" s="44">
         <v>31761</v>
       </c>
-      <c r="U92" s="46">
+      <c r="U92" s="44">
         <v>32562</v>
       </c>
       <c r="V92" s="12">
         <v>1435</v>
+      </c>
+      <c r="AP92" s="30">
+        <v>89</v>
+      </c>
+      <c r="AQ92" s="10">
+        <v>30</v>
+      </c>
+      <c r="AR92" s="11">
+        <v>10</v>
+      </c>
+      <c r="AS92" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AT92" s="19">
+        <v>27834</v>
+      </c>
+      <c r="AU92" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV92" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="AW92" s="10">
+        <v>1977</v>
+      </c>
+      <c r="AX92" s="10">
+        <v>87</v>
+      </c>
+      <c r="AY92" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="BA92" s="7"/>
       <c r="BE92" s="10">
@@ -14941,10 +15120,10 @@
       <c r="BG92" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH92" s="46">
+      <c r="BH92" s="44">
         <v>23607</v>
       </c>
-      <c r="BI92" s="46">
+      <c r="BI92" s="44">
         <v>24534</v>
       </c>
       <c r="BJ92" s="12" t="s">
@@ -14961,10 +15140,10 @@
       <c r="N93" s="10">
         <v>14</v>
       </c>
-      <c r="O93" s="46">
+      <c r="O93" s="44">
         <v>32563</v>
       </c>
-      <c r="P93" s="46">
+      <c r="P93" s="44">
         <v>36264</v>
       </c>
       <c r="R93" s="10">
@@ -14973,14 +15152,45 @@
       <c r="S93" s="10">
         <v>14</v>
       </c>
-      <c r="T93" s="46">
+      <c r="T93" s="44">
         <v>32563</v>
       </c>
-      <c r="U93" s="46">
+      <c r="U93" s="44">
         <v>36264</v>
       </c>
       <c r="V93" s="12">
         <v>1760</v>
+      </c>
+      <c r="AP93" s="30">
+        <v>90</v>
+      </c>
+      <c r="AQ93" s="30">
+        <v>30</v>
+      </c>
+      <c r="AR93" s="11">
+        <v>12</v>
+      </c>
+      <c r="AS93" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="AT93" s="19">
+        <v>28930</v>
+      </c>
+      <c r="AU93" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV93" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="AW93" s="10">
+        <v>1980</v>
+      </c>
+      <c r="AX93" s="10">
+        <v>77</v>
+      </c>
+      <c r="AY93" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
       </c>
       <c r="BA93" s="7"/>
       <c r="BE93" s="10">
@@ -14992,10 +15202,10 @@
       <c r="BG93" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH93" s="46">
+      <c r="BH93" s="44">
         <v>24535</v>
       </c>
-      <c r="BI93" s="46">
+      <c r="BI93" s="44">
         <v>27337</v>
       </c>
       <c r="BJ93" s="12" t="s">
@@ -15012,10 +15222,10 @@
       <c r="N94" s="10">
         <v>14</v>
       </c>
-      <c r="O94" s="46">
+      <c r="O94" s="44">
         <v>36265</v>
       </c>
-      <c r="P94" s="46">
+      <c r="P94" s="44">
         <v>38062</v>
       </c>
       <c r="R94" s="10">
@@ -15024,14 +15234,45 @@
       <c r="S94" s="10">
         <v>14</v>
       </c>
-      <c r="T94" s="46">
+      <c r="T94" s="44">
         <v>36265</v>
       </c>
-      <c r="U94" s="46">
+      <c r="U94" s="44">
         <v>38062</v>
       </c>
       <c r="V94" s="12">
-        <v>2320</v>
+        <v>5000</v>
+      </c>
+      <c r="AP94" s="30">
+        <v>91</v>
+      </c>
+      <c r="AQ94" s="30">
+        <v>30</v>
+      </c>
+      <c r="AR94" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS94" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT94" s="19">
+        <v>29520</v>
+      </c>
+      <c r="AU94" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV94" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW94" s="10">
+        <v>1984</v>
+      </c>
+      <c r="AX94" s="10">
+        <v>79</v>
+      </c>
+      <c r="AY94" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
       </c>
       <c r="BA94" s="7"/>
       <c r="BE94" s="10">
@@ -15043,10 +15284,10 @@
       <c r="BG94" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH94" s="46">
+      <c r="BH94" s="44">
         <v>27338</v>
       </c>
-      <c r="BI94" s="46">
+      <c r="BI94" s="44">
         <v>29579</v>
       </c>
       <c r="BJ94" s="12" t="s">
@@ -15063,10 +15304,10 @@
       <c r="N95" s="10">
         <v>14</v>
       </c>
-      <c r="O95" s="46">
+      <c r="O95" s="44">
         <v>38063</v>
       </c>
-      <c r="P95" s="46">
+      <c r="P95" s="44">
         <v>38761</v>
       </c>
       <c r="R95" s="10">
@@ -15075,14 +15316,45 @@
       <c r="S95" s="10">
         <v>14</v>
       </c>
-      <c r="T95" s="46">
+      <c r="T95" s="44">
         <v>38063</v>
       </c>
-      <c r="U95" s="46">
+      <c r="U95" s="44">
         <v>38761</v>
       </c>
       <c r="V95" s="12">
         <v>3100</v>
+      </c>
+      <c r="AP95" s="30">
+        <v>92</v>
+      </c>
+      <c r="AQ95" s="30">
+        <v>30</v>
+      </c>
+      <c r="AR95" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AS95" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT95" s="19">
+        <v>31067</v>
+      </c>
+      <c r="AU95" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV95" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="AW95" s="10">
+        <v>1988</v>
+      </c>
+      <c r="AX95" s="10">
+        <v>82</v>
+      </c>
+      <c r="AY95" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="BA95" s="7"/>
       <c r="BE95" s="10">
@@ -15094,10 +15366,10 @@
       <c r="BG95" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH95" s="46">
+      <c r="BH95" s="44">
         <v>29580</v>
       </c>
-      <c r="BI95" s="46">
+      <c r="BI95" s="44">
         <v>29857</v>
       </c>
       <c r="BJ95" s="12" t="s">
@@ -15114,10 +15386,10 @@
       <c r="N96" s="10">
         <v>23</v>
       </c>
-      <c r="O96" s="46">
+      <c r="O96" s="44">
         <v>22746</v>
       </c>
-      <c r="P96" s="46">
+      <c r="P96" s="44">
         <v>23233</v>
       </c>
       <c r="R96" s="10">
@@ -15126,14 +15398,45 @@
       <c r="S96" s="10">
         <v>23</v>
       </c>
-      <c r="T96" s="46">
+      <c r="T96" s="44">
         <v>22746</v>
       </c>
-      <c r="U96" s="46">
+      <c r="U96" s="44">
         <v>23233</v>
       </c>
-      <c r="V96" s="24">
+      <c r="V96" s="32">
         <v>1500</v>
+      </c>
+      <c r="AP96" s="30">
+        <v>93</v>
+      </c>
+      <c r="AQ96" s="30">
+        <v>30</v>
+      </c>
+      <c r="AR96" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="AS96" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AT96" s="19">
+        <v>29520</v>
+      </c>
+      <c r="AU96" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV96" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW96" s="10">
+        <v>1983</v>
+      </c>
+      <c r="AX96" s="10">
+        <v>85</v>
+      </c>
+      <c r="AY96" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="BA96" s="7"/>
       <c r="BE96" s="10">
@@ -15142,13 +15445,13 @@
       <c r="BF96" s="10">
         <v>23</v>
       </c>
-      <c r="BG96" s="36" t="s">
+      <c r="BG96" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH96" s="46">
+      <c r="BH96" s="44">
         <v>22746</v>
       </c>
-      <c r="BI96" s="46">
+      <c r="BI96" s="44">
         <v>23233</v>
       </c>
       <c r="BJ96" s="12" t="s">
@@ -15165,10 +15468,10 @@
       <c r="N97" s="10">
         <v>23</v>
       </c>
-      <c r="O97" s="46">
+      <c r="O97" s="44">
         <v>23234</v>
       </c>
-      <c r="P97" s="46">
+      <c r="P97" s="44">
         <v>24487</v>
       </c>
       <c r="R97" s="10">
@@ -15177,13 +15480,13 @@
       <c r="S97" s="10">
         <v>23</v>
       </c>
-      <c r="T97" s="46">
+      <c r="T97" s="44">
         <v>23234</v>
       </c>
-      <c r="U97" s="46">
+      <c r="U97" s="44">
         <v>24487</v>
       </c>
-      <c r="V97" s="24">
+      <c r="V97" s="32">
         <v>1700</v>
       </c>
       <c r="BA97" s="7"/>
@@ -15193,13 +15496,13 @@
       <c r="BF97" s="10">
         <v>23</v>
       </c>
-      <c r="BG97" s="36" t="s">
+      <c r="BG97" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="BH97" s="46">
+      <c r="BH97" s="44">
         <v>23234</v>
       </c>
-      <c r="BI97" s="46">
+      <c r="BI97" s="44">
         <v>24487</v>
       </c>
       <c r="BJ97" s="12" t="s">
@@ -15216,10 +15519,10 @@
       <c r="N98" s="10">
         <v>23</v>
       </c>
-      <c r="O98" s="46">
+      <c r="O98" s="44">
         <v>24488</v>
       </c>
-      <c r="P98" s="46">
+      <c r="P98" s="44">
         <v>26355</v>
       </c>
       <c r="R98" s="10">
@@ -15228,13 +15531,13 @@
       <c r="S98" s="10">
         <v>23</v>
       </c>
-      <c r="T98" s="46">
+      <c r="T98" s="44">
         <v>24488</v>
       </c>
-      <c r="U98" s="46">
+      <c r="U98" s="44">
         <v>26355</v>
       </c>
-      <c r="V98" s="24">
+      <c r="V98" s="32">
         <v>2000</v>
       </c>
       <c r="BA98" s="7"/>
@@ -15244,13 +15547,13 @@
       <c r="BF98" s="10">
         <v>23</v>
       </c>
-      <c r="BG98" s="36" t="s">
+      <c r="BG98" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH98" s="46">
+      <c r="BH98" s="44">
         <v>24488</v>
       </c>
-      <c r="BI98" s="46">
+      <c r="BI98" s="44">
         <v>26355</v>
       </c>
       <c r="BJ98" s="12" t="s">
@@ -15267,10 +15570,10 @@
       <c r="N99" s="10">
         <v>23</v>
       </c>
-      <c r="O99" s="46">
+      <c r="O99" s="44">
         <v>26356</v>
       </c>
-      <c r="P99" s="46">
+      <c r="P99" s="44">
         <v>27325</v>
       </c>
       <c r="R99" s="10">
@@ -15279,13 +15582,13 @@
       <c r="S99" s="10">
         <v>23</v>
       </c>
-      <c r="T99" s="46">
+      <c r="T99" s="44">
         <v>26356</v>
       </c>
-      <c r="U99" s="46">
+      <c r="U99" s="44">
         <v>27325</v>
       </c>
-      <c r="V99" s="24">
+      <c r="V99" s="32">
         <v>2500</v>
       </c>
       <c r="BA99" s="7"/>
@@ -15295,13 +15598,13 @@
       <c r="BF99" s="10">
         <v>23</v>
       </c>
-      <c r="BG99" s="36" t="s">
+      <c r="BG99" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="BH99" s="46">
+      <c r="BH99" s="44">
         <v>26356</v>
       </c>
-      <c r="BI99" s="46">
+      <c r="BI99" s="44">
         <v>27325</v>
       </c>
       <c r="BJ99" s="12" t="s">
@@ -15318,10 +15621,10 @@
       <c r="N100" s="10">
         <v>23</v>
       </c>
-      <c r="O100" s="46">
+      <c r="O100" s="44">
         <v>27326</v>
       </c>
-      <c r="P100" s="46">
+      <c r="P100" s="44">
         <v>28958</v>
       </c>
       <c r="R100" s="10">
@@ -15330,13 +15633,13 @@
       <c r="S100" s="10">
         <v>23</v>
       </c>
-      <c r="T100" s="46">
+      <c r="T100" s="44">
         <v>27326</v>
       </c>
-      <c r="U100" s="46">
+      <c r="U100" s="44">
         <v>28958</v>
       </c>
-      <c r="V100" s="24">
+      <c r="V100" s="32">
         <v>3000</v>
       </c>
       <c r="BA100" s="7"/>
@@ -15349,10 +15652,10 @@
       <c r="BG100" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="BH100" s="46">
+      <c r="BH100" s="44">
         <v>27326</v>
       </c>
-      <c r="BI100" s="46">
+      <c r="BI100" s="44">
         <v>28958</v>
       </c>
       <c r="BJ100" s="12" t="s">
@@ -15369,10 +15672,10 @@
       <c r="N101" s="10">
         <v>23</v>
       </c>
-      <c r="O101" s="46">
+      <c r="O101" s="44">
         <v>28989</v>
       </c>
-      <c r="P101" s="46">
+      <c r="P101" s="44">
         <v>29746</v>
       </c>
       <c r="R101" s="10">
@@ -15381,13 +15684,13 @@
       <c r="S101" s="10">
         <v>23</v>
       </c>
-      <c r="T101" s="46">
+      <c r="T101" s="44">
         <v>28989</v>
       </c>
-      <c r="U101" s="46">
+      <c r="U101" s="44">
         <v>29746</v>
       </c>
-      <c r="V101" s="24">
+      <c r="V101" s="32">
         <v>3200</v>
       </c>
       <c r="BA101" s="7"/>
@@ -15400,10 +15703,10 @@
       <c r="BG101" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH101" s="46">
+      <c r="BH101" s="44">
         <v>28989</v>
       </c>
-      <c r="BI101" s="46">
+      <c r="BI101" s="44">
         <v>29746</v>
       </c>
       <c r="BJ101" s="12" t="s">
@@ -15420,10 +15723,10 @@
       <c r="N102" s="10">
         <v>24</v>
       </c>
-      <c r="O102" s="46">
+      <c r="O102" s="44">
         <v>22746</v>
       </c>
-      <c r="P102" s="46">
+      <c r="P102" s="44">
         <v>23233</v>
       </c>
       <c r="R102" s="10">
@@ -15432,13 +15735,13 @@
       <c r="S102" s="10">
         <v>24</v>
       </c>
-      <c r="T102" s="46">
+      <c r="T102" s="44">
         <v>22746</v>
       </c>
-      <c r="U102" s="46">
+      <c r="U102" s="44">
         <v>23233</v>
       </c>
-      <c r="V102" s="24">
+      <c r="V102" s="32">
         <v>1500</v>
       </c>
       <c r="BA102" s="7"/>
@@ -15451,10 +15754,10 @@
       <c r="BG102" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="BH102" s="46">
+      <c r="BH102" s="44">
         <v>22746</v>
       </c>
-      <c r="BI102" s="46">
+      <c r="BI102" s="44">
         <v>23233</v>
       </c>
       <c r="BJ102" s="12" t="s">
@@ -15471,10 +15774,10 @@
       <c r="N103" s="10">
         <v>24</v>
       </c>
-      <c r="O103" s="46">
+      <c r="O103" s="44">
         <v>23234</v>
       </c>
-      <c r="P103" s="46">
+      <c r="P103" s="44">
         <v>24487</v>
       </c>
       <c r="R103" s="10">
@@ -15483,13 +15786,13 @@
       <c r="S103" s="10">
         <v>24</v>
       </c>
-      <c r="T103" s="46">
+      <c r="T103" s="44">
         <v>23234</v>
       </c>
-      <c r="U103" s="46">
+      <c r="U103" s="44">
         <v>24487</v>
       </c>
-      <c r="V103" s="24">
+      <c r="V103" s="32">
         <v>1700</v>
       </c>
       <c r="BA103" s="7"/>
@@ -15502,10 +15805,10 @@
       <c r="BG103" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH103" s="46">
+      <c r="BH103" s="44">
         <v>23234</v>
       </c>
-      <c r="BI103" s="46">
+      <c r="BI103" s="44">
         <v>24487</v>
       </c>
       <c r="BJ103" s="12" t="s">
@@ -15522,10 +15825,10 @@
       <c r="N104" s="10">
         <v>24</v>
       </c>
-      <c r="O104" s="46">
+      <c r="O104" s="44">
         <v>24488</v>
       </c>
-      <c r="P104" s="46">
+      <c r="P104" s="44">
         <v>26355</v>
       </c>
       <c r="R104" s="10">
@@ -15534,13 +15837,13 @@
       <c r="S104" s="10">
         <v>24</v>
       </c>
-      <c r="T104" s="46">
+      <c r="T104" s="44">
         <v>24488</v>
       </c>
-      <c r="U104" s="46">
+      <c r="U104" s="44">
         <v>26355</v>
       </c>
-      <c r="V104" s="24">
+      <c r="V104" s="32">
         <v>2000</v>
       </c>
       <c r="BE104" s="10">
@@ -15552,10 +15855,10 @@
       <c r="BG104" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH104" s="46">
+      <c r="BH104" s="44">
         <v>24488</v>
       </c>
-      <c r="BI104" s="46">
+      <c r="BI104" s="44">
         <v>26355</v>
       </c>
       <c r="BJ104" s="12" t="s">
@@ -15572,10 +15875,10 @@
       <c r="N105" s="10">
         <v>24</v>
       </c>
-      <c r="O105" s="46">
+      <c r="O105" s="44">
         <v>26356</v>
       </c>
-      <c r="P105" s="46">
+      <c r="P105" s="44">
         <v>27325</v>
       </c>
       <c r="R105" s="10">
@@ -15584,13 +15887,13 @@
       <c r="S105" s="10">
         <v>24</v>
       </c>
-      <c r="T105" s="46">
+      <c r="T105" s="44">
         <v>26356</v>
       </c>
-      <c r="U105" s="46">
+      <c r="U105" s="44">
         <v>27325</v>
       </c>
-      <c r="V105" s="24">
+      <c r="V105" s="32">
         <v>2500</v>
       </c>
       <c r="BE105" s="10">
@@ -15602,10 +15905,10 @@
       <c r="BG105" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BH105" s="46">
+      <c r="BH105" s="44">
         <v>26356</v>
       </c>
-      <c r="BI105" s="46">
+      <c r="BI105" s="44">
         <v>27325</v>
       </c>
       <c r="BJ105" s="12" t="s">
@@ -15622,10 +15925,10 @@
       <c r="N106" s="10">
         <v>24</v>
       </c>
-      <c r="O106" s="46">
+      <c r="O106" s="44">
         <v>27326</v>
       </c>
-      <c r="P106" s="46">
+      <c r="P106" s="44">
         <v>28958</v>
       </c>
       <c r="R106" s="10">
@@ -15634,13 +15937,13 @@
       <c r="S106" s="10">
         <v>24</v>
       </c>
-      <c r="T106" s="46">
+      <c r="T106" s="44">
         <v>27326</v>
       </c>
-      <c r="U106" s="46">
+      <c r="U106" s="44">
         <v>28958</v>
       </c>
-      <c r="V106" s="24">
+      <c r="V106" s="32">
         <v>3000</v>
       </c>
       <c r="BE106" s="10">
@@ -15652,10 +15955,10 @@
       <c r="BG106" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BH106" s="46">
+      <c r="BH106" s="44">
         <v>27326</v>
       </c>
-      <c r="BI106" s="46">
+      <c r="BI106" s="44">
         <v>28958</v>
       </c>
       <c r="BJ106" s="12" t="s">
@@ -15672,10 +15975,10 @@
       <c r="N107" s="10">
         <v>24</v>
       </c>
-      <c r="O107" s="46">
+      <c r="O107" s="44">
         <v>28989</v>
       </c>
-      <c r="P107" s="46">
+      <c r="P107" s="44">
         <v>29746</v>
       </c>
       <c r="R107" s="10">
@@ -15684,13 +15987,13 @@
       <c r="S107" s="10">
         <v>24</v>
       </c>
-      <c r="T107" s="46">
+      <c r="T107" s="44">
         <v>28989</v>
       </c>
-      <c r="U107" s="46">
+      <c r="U107" s="44">
         <v>29746</v>
       </c>
-      <c r="V107" s="24">
+      <c r="V107" s="32">
         <v>3200</v>
       </c>
       <c r="BE107" s="10">
@@ -15702,10 +16005,10 @@
       <c r="BG107" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BH107" s="46">
+      <c r="BH107" s="44">
         <v>28989</v>
       </c>
-      <c r="BI107" s="46">
+      <c r="BI107" s="44">
         <v>29746</v>
       </c>
       <c r="BJ107" s="12" t="s">
@@ -15722,10 +16025,10 @@
       <c r="N108" s="10">
         <v>20</v>
       </c>
-      <c r="O108" s="46">
+      <c r="O108" s="44">
         <v>22857</v>
       </c>
-      <c r="P108" s="46">
+      <c r="P108" s="44">
         <v>23606</v>
       </c>
       <c r="R108" s="10">
@@ -15734,13 +16037,13 @@
       <c r="S108" s="10">
         <v>20</v>
       </c>
-      <c r="T108" s="46">
+      <c r="T108" s="44">
         <v>22857</v>
       </c>
-      <c r="U108" s="46">
+      <c r="U108" s="44">
         <v>23606</v>
       </c>
-      <c r="V108" s="24">
+      <c r="V108" s="32">
         <v>1300</v>
       </c>
       <c r="BE108" s="10">
@@ -15752,10 +16055,10 @@
       <c r="BG108" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH108" s="46">
+      <c r="BH108" s="44">
         <v>22857</v>
       </c>
-      <c r="BI108" s="46">
+      <c r="BI108" s="44">
         <v>23606</v>
       </c>
       <c r="BJ108" s="12" t="s">
@@ -15772,10 +16075,10 @@
       <c r="N109" s="10">
         <v>20</v>
       </c>
-      <c r="O109" s="46">
+      <c r="O109" s="44">
         <v>23607</v>
       </c>
-      <c r="P109" s="46">
+      <c r="P109" s="44">
         <v>24534</v>
       </c>
       <c r="R109" s="10">
@@ -15784,13 +16087,13 @@
       <c r="S109" s="10">
         <v>20</v>
       </c>
-      <c r="T109" s="46">
+      <c r="T109" s="44">
         <v>23607</v>
       </c>
-      <c r="U109" s="46">
+      <c r="U109" s="44">
         <v>24534</v>
       </c>
-      <c r="V109" s="24">
+      <c r="V109" s="32">
         <v>2400</v>
       </c>
       <c r="BE109" s="10">
@@ -15802,10 +16105,10 @@
       <c r="BG109" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BH109" s="46">
+      <c r="BH109" s="44">
         <v>23607</v>
       </c>
-      <c r="BI109" s="46">
+      <c r="BI109" s="44">
         <v>24534</v>
       </c>
       <c r="BJ109" s="12" t="s">
@@ -15822,25 +16125,25 @@
       <c r="N110" s="10">
         <v>20</v>
       </c>
-      <c r="O110" s="46">
+      <c r="O110" s="44">
         <v>24535</v>
       </c>
-      <c r="P110" s="46">
+      <c r="P110" s="44">
         <v>27337</v>
       </c>
       <c r="R110" s="10">
         <v>107</v>
       </c>
-      <c r="S110" s="32">
+      <c r="S110" s="10">
         <v>20</v>
       </c>
-      <c r="T110" s="47">
+      <c r="T110" s="44">
         <v>24535</v>
       </c>
-      <c r="U110" s="47">
+      <c r="U110" s="44">
         <v>27337</v>
       </c>
-      <c r="V110" s="24">
+      <c r="V110" s="32">
         <v>2650</v>
       </c>
       <c r="BE110" s="10">
@@ -15852,10 +16155,10 @@
       <c r="BG110" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH110" s="46">
+      <c r="BH110" s="44">
         <v>24535</v>
       </c>
-      <c r="BI110" s="46">
+      <c r="BI110" s="44">
         <v>27337</v>
       </c>
       <c r="BJ110" s="12" t="s">
@@ -15872,10 +16175,10 @@
       <c r="N111" s="10">
         <v>20</v>
       </c>
-      <c r="O111" s="46">
+      <c r="O111" s="44">
         <v>27338</v>
       </c>
-      <c r="P111" s="46">
+      <c r="P111" s="44">
         <v>29579</v>
       </c>
       <c r="R111" s="10">
@@ -15884,13 +16187,13 @@
       <c r="S111" s="10">
         <v>20</v>
       </c>
-      <c r="T111" s="46">
+      <c r="T111" s="44">
         <v>27338</v>
       </c>
-      <c r="U111" s="46">
+      <c r="U111" s="44">
         <v>29579</v>
       </c>
-      <c r="V111" s="33">
+      <c r="V111" s="32">
         <v>3200</v>
       </c>
       <c r="BE111" s="10">
@@ -15902,10 +16205,10 @@
       <c r="BG111" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BH111" s="46">
+      <c r="BH111" s="44">
         <v>27338</v>
       </c>
-      <c r="BI111" s="46">
+      <c r="BI111" s="44">
         <v>29579</v>
       </c>
       <c r="BJ111" s="12" t="s">
@@ -15922,10 +16225,10 @@
       <c r="N112" s="10">
         <v>20</v>
       </c>
-      <c r="O112" s="46">
+      <c r="O112" s="44">
         <v>29580</v>
       </c>
-      <c r="P112" s="46">
+      <c r="P112" s="44">
         <v>29857</v>
       </c>
       <c r="R112" s="10">
@@ -15934,13 +16237,13 @@
       <c r="S112" s="10">
         <v>20</v>
       </c>
-      <c r="T112" s="46">
+      <c r="T112" s="44">
         <v>29580</v>
       </c>
-      <c r="U112" s="46">
+      <c r="U112" s="44">
         <v>29857</v>
       </c>
-      <c r="V112" s="33">
+      <c r="V112" s="32">
         <v>3600</v>
       </c>
       <c r="BE112" s="10">
@@ -15952,10 +16255,10 @@
       <c r="BG112" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="BH112" s="46">
+      <c r="BH112" s="44">
         <v>29580</v>
       </c>
-      <c r="BI112" s="46">
+      <c r="BI112" s="44">
         <v>29857</v>
       </c>
       <c r="BJ112" s="12" t="s">
@@ -15972,10 +16275,10 @@
       <c r="N113" s="30">
         <v>17</v>
       </c>
-      <c r="O113" s="46">
+      <c r="O113" s="44">
         <v>30250</v>
       </c>
-      <c r="P113" s="46">
+      <c r="P113" s="44">
         <v>32465</v>
       </c>
       <c r="R113" s="10">
@@ -15984,10 +16287,10 @@
       <c r="S113" s="30">
         <v>17</v>
       </c>
-      <c r="T113" s="46">
+      <c r="T113" s="44">
         <v>30250</v>
       </c>
-      <c r="U113" s="46">
+      <c r="U113" s="44">
         <v>32465</v>
       </c>
       <c r="V113" s="12">
@@ -16002,10 +16305,10 @@
       <c r="BG113" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="BH113" s="46">
+      <c r="BH113" s="44">
         <v>30250</v>
       </c>
-      <c r="BI113" s="46">
+      <c r="BI113" s="44">
         <v>32465</v>
       </c>
       <c r="BJ113" s="12" t="s">
@@ -16022,10 +16325,10 @@
       <c r="N114" s="30">
         <v>17</v>
       </c>
-      <c r="O114" s="46">
+      <c r="O114" s="44">
         <v>32466</v>
       </c>
-      <c r="P114" s="46">
+      <c r="P114" s="44">
         <v>33620</v>
       </c>
       <c r="R114" s="10">
@@ -16034,10 +16337,10 @@
       <c r="S114" s="30">
         <v>17</v>
       </c>
-      <c r="T114" s="46">
+      <c r="T114" s="44">
         <v>32466</v>
       </c>
-      <c r="U114" s="46">
+      <c r="U114" s="44">
         <v>33620</v>
       </c>
       <c r="V114" s="12">
@@ -16049,13 +16352,13 @@
       <c r="BF114" s="30">
         <v>17</v>
       </c>
-      <c r="BG114" s="36" t="s">
+      <c r="BG114" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="BH114" s="46">
+      <c r="BH114" s="44">
         <v>32466</v>
       </c>
-      <c r="BI114" s="46">
+      <c r="BI114" s="44">
         <v>33620</v>
       </c>
       <c r="BJ114" s="12" t="s">
@@ -16072,10 +16375,10 @@
       <c r="N115" s="30">
         <v>17</v>
       </c>
-      <c r="O115" s="46">
+      <c r="O115" s="44">
         <v>33621</v>
       </c>
-      <c r="P115" s="46">
+      <c r="P115" s="44">
         <v>36270</v>
       </c>
       <c r="R115" s="10">
@@ -16084,10 +16387,10 @@
       <c r="S115" s="30">
         <v>17</v>
       </c>
-      <c r="T115" s="46">
+      <c r="T115" s="44">
         <v>33621</v>
       </c>
-      <c r="U115" s="46">
+      <c r="U115" s="44">
         <v>36270</v>
       </c>
       <c r="V115" s="12">
@@ -16099,13 +16402,13 @@
       <c r="BF115" s="30">
         <v>17</v>
       </c>
-      <c r="BG115" s="36" t="s">
+      <c r="BG115" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="BH115" s="46">
+      <c r="BH115" s="44">
         <v>33621</v>
       </c>
-      <c r="BI115" s="46">
+      <c r="BI115" s="44">
         <v>36270</v>
       </c>
       <c r="BJ115" s="12" t="s">
@@ -16122,10 +16425,10 @@
       <c r="N116" s="30">
         <v>17</v>
       </c>
-      <c r="O116" s="46">
+      <c r="O116" s="44">
         <v>36271</v>
       </c>
-      <c r="P116" s="46">
+      <c r="P116" s="44">
         <v>36749</v>
       </c>
       <c r="R116" s="10">
@@ -16134,10 +16437,10 @@
       <c r="S116" s="30">
         <v>17</v>
       </c>
-      <c r="T116" s="46">
+      <c r="T116" s="44">
         <v>36271</v>
       </c>
-      <c r="U116" s="46">
+      <c r="U116" s="44">
         <v>36749</v>
       </c>
       <c r="V116" s="12">
@@ -16149,13 +16452,13 @@
       <c r="BF116" s="30">
         <v>17</v>
       </c>
-      <c r="BG116" s="36" t="s">
+      <c r="BG116" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="BH116" s="46">
+      <c r="BH116" s="44">
         <v>36271</v>
       </c>
-      <c r="BI116" s="46">
+      <c r="BI116" s="44">
         <v>36749</v>
       </c>
       <c r="BJ116" s="12" t="s">
@@ -16172,10 +16475,10 @@
       <c r="N117" s="30">
         <v>17</v>
       </c>
-      <c r="O117" s="46">
+      <c r="O117" s="44">
         <v>36750</v>
       </c>
-      <c r="P117" s="46">
+      <c r="P117" s="44">
         <v>37250</v>
       </c>
       <c r="R117" s="10">
@@ -16184,13 +16487,13 @@
       <c r="S117" s="30">
         <v>17</v>
       </c>
-      <c r="T117" s="46">
+      <c r="T117" s="44">
         <v>36750</v>
       </c>
-      <c r="U117" s="46">
-        <v>37250</v>
-      </c>
-      <c r="V117" s="12">
+      <c r="U117" s="44">
+        <v>37251</v>
+      </c>
+      <c r="V117" s="37">
         <v>2350</v>
       </c>
       <c r="BE117" s="10">
@@ -16202,10 +16505,10 @@
       <c r="BG117" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="BH117" s="46">
+      <c r="BH117" s="44">
         <v>36750</v>
       </c>
-      <c r="BI117" s="46">
+      <c r="BI117" s="44">
         <v>37250</v>
       </c>
       <c r="BJ117" s="12" t="s">
@@ -16222,10 +16525,10 @@
       <c r="N118" s="30">
         <v>16</v>
       </c>
-      <c r="O118" s="46">
+      <c r="O118" s="44">
         <v>24077</v>
       </c>
-      <c r="P118" s="46">
+      <c r="P118" s="44">
         <v>26722</v>
       </c>
       <c r="R118" s="10">
@@ -16234,10 +16537,10 @@
       <c r="S118" s="30">
         <v>16</v>
       </c>
-      <c r="T118" s="46">
+      <c r="T118" s="44">
         <v>24077</v>
       </c>
-      <c r="U118" s="46">
+      <c r="U118" s="44">
         <v>26722</v>
       </c>
       <c r="V118" s="12">
@@ -16252,10 +16555,10 @@
       <c r="BG118" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="BH118" s="46">
+      <c r="BH118" s="44">
         <v>24077</v>
       </c>
-      <c r="BI118" s="46">
+      <c r="BI118" s="44">
         <v>26722</v>
       </c>
       <c r="BJ118" s="12" t="s">
@@ -16272,10 +16575,10 @@
       <c r="N119" s="30">
         <v>16</v>
       </c>
-      <c r="O119" s="46">
+      <c r="O119" s="44">
         <v>26723</v>
       </c>
-      <c r="P119" s="46">
+      <c r="P119" s="44">
         <v>27894</v>
       </c>
       <c r="R119" s="10">
@@ -16284,10 +16587,10 @@
       <c r="S119" s="30">
         <v>16</v>
       </c>
-      <c r="T119" s="46">
+      <c r="T119" s="44">
         <v>26723</v>
       </c>
-      <c r="U119" s="46">
+      <c r="U119" s="44">
         <v>27894</v>
       </c>
       <c r="V119" s="12">
@@ -16299,13 +16602,13 @@
       <c r="BF119" s="30">
         <v>16</v>
       </c>
-      <c r="BG119" s="36" t="s">
+      <c r="BG119" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="BH119" s="46">
+      <c r="BH119" s="44">
         <v>26723</v>
       </c>
-      <c r="BI119" s="46">
+      <c r="BI119" s="44">
         <v>27894</v>
       </c>
       <c r="BJ119" s="12" t="s">
@@ -16322,10 +16625,10 @@
       <c r="N120" s="30">
         <v>16</v>
       </c>
-      <c r="O120" s="46">
+      <c r="O120" s="44">
         <v>27895</v>
       </c>
-      <c r="P120" s="46">
+      <c r="P120" s="44">
         <v>28626</v>
       </c>
       <c r="R120" s="10">
@@ -16334,10 +16637,10 @@
       <c r="S120" s="30">
         <v>16</v>
       </c>
-      <c r="T120" s="46">
+      <c r="T120" s="44">
         <v>27895</v>
       </c>
-      <c r="U120" s="46">
+      <c r="U120" s="44">
         <v>28626</v>
       </c>
       <c r="V120" s="12">
@@ -16349,13 +16652,13 @@
       <c r="BF120" s="30">
         <v>16</v>
       </c>
-      <c r="BG120" s="36" t="s">
+      <c r="BG120" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="BH120" s="46">
+      <c r="BH120" s="44">
         <v>27895</v>
       </c>
-      <c r="BI120" s="46">
+      <c r="BI120" s="44">
         <v>28626</v>
       </c>
       <c r="BJ120" s="12" t="s">
@@ -16372,10 +16675,10 @@
       <c r="N121" s="30">
         <v>16</v>
       </c>
-      <c r="O121" s="46">
+      <c r="O121" s="44">
         <v>28597</v>
       </c>
-      <c r="P121" s="46">
+      <c r="P121" s="44">
         <v>29978</v>
       </c>
       <c r="R121" s="10">
@@ -16384,10 +16687,10 @@
       <c r="S121" s="30">
         <v>16</v>
       </c>
-      <c r="T121" s="46">
+      <c r="T121" s="44">
         <v>28597</v>
       </c>
-      <c r="U121" s="46">
+      <c r="U121" s="44">
         <v>29978</v>
       </c>
       <c r="V121" s="12">
@@ -16399,13 +16702,13 @@
       <c r="BF121" s="30">
         <v>16</v>
       </c>
-      <c r="BG121" s="36" t="s">
+      <c r="BG121" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="BH121" s="46">
+      <c r="BH121" s="44">
         <v>28597</v>
       </c>
-      <c r="BI121" s="46">
+      <c r="BI121" s="44">
         <v>29978</v>
       </c>
       <c r="BJ121" s="12" t="s">
@@ -16422,10 +16725,10 @@
       <c r="N122" s="30">
         <v>16</v>
       </c>
-      <c r="O122" s="46">
+      <c r="O122" s="44">
         <v>30010</v>
       </c>
-      <c r="P122" s="46">
+      <c r="P122" s="44">
         <v>31077</v>
       </c>
       <c r="R122" s="10">
@@ -16434,14 +16737,14 @@
       <c r="S122" s="30">
         <v>16</v>
       </c>
-      <c r="T122" s="46">
+      <c r="T122" s="44">
         <v>30010</v>
       </c>
-      <c r="U122" s="46">
+      <c r="U122" s="44">
         <v>31077</v>
       </c>
       <c r="V122" s="12">
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="BE122" s="10">
         <v>119</v>
@@ -16452,10 +16755,10 @@
       <c r="BG122" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="BH122" s="46">
+      <c r="BH122" s="44">
         <v>30010</v>
       </c>
-      <c r="BI122" s="46">
+      <c r="BI122" s="44">
         <v>31077</v>
       </c>
       <c r="BJ122" s="12" t="s">
@@ -16472,10 +16775,10 @@
       <c r="N123" s="30">
         <v>18</v>
       </c>
-      <c r="O123" s="46">
+      <c r="O123" s="44">
         <v>23540</v>
       </c>
-      <c r="P123" s="46">
+      <c r="P123" s="44">
         <v>24300</v>
       </c>
       <c r="R123" s="10">
@@ -16484,10 +16787,10 @@
       <c r="S123" s="30">
         <v>18</v>
       </c>
-      <c r="T123" s="46">
+      <c r="T123" s="44">
         <v>23540</v>
       </c>
-      <c r="U123" s="46">
+      <c r="U123" s="44">
         <v>24300</v>
       </c>
       <c r="V123" s="12">
@@ -16499,13 +16802,13 @@
       <c r="BF123" s="30">
         <v>18</v>
       </c>
-      <c r="BG123" s="36" t="s">
+      <c r="BG123" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="BH123" s="46">
+      <c r="BH123" s="44">
         <v>23540</v>
       </c>
-      <c r="BI123" s="46">
+      <c r="BI123" s="44">
         <v>24300</v>
       </c>
       <c r="BJ123" s="12" t="s">
@@ -16522,10 +16825,10 @@
       <c r="N124" s="30">
         <v>18</v>
       </c>
-      <c r="O124" s="46">
+      <c r="O124" s="44">
         <v>24301</v>
       </c>
-      <c r="P124" s="46">
+      <c r="P124" s="44">
         <v>25762</v>
       </c>
       <c r="R124" s="10">
@@ -16534,10 +16837,10 @@
       <c r="S124" s="30">
         <v>18</v>
       </c>
-      <c r="T124" s="46">
+      <c r="T124" s="44">
         <v>24301</v>
       </c>
-      <c r="U124" s="46">
+      <c r="U124" s="44">
         <v>25762</v>
       </c>
       <c r="V124" s="12">
@@ -16552,10 +16855,10 @@
       <c r="BG124" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="BH124" s="46">
+      <c r="BH124" s="44">
         <v>24301</v>
       </c>
-      <c r="BI124" s="46">
+      <c r="BI124" s="44">
         <v>25762</v>
       </c>
       <c r="BJ124" s="12" t="s">
@@ -16572,10 +16875,10 @@
       <c r="N125" s="30">
         <v>18</v>
       </c>
-      <c r="O125" s="46">
+      <c r="O125" s="44">
         <v>25763</v>
       </c>
-      <c r="P125" s="46">
+      <c r="P125" s="44">
         <v>27589</v>
       </c>
       <c r="R125" s="10">
@@ -16584,10 +16887,10 @@
       <c r="S125" s="30">
         <v>18</v>
       </c>
-      <c r="T125" s="46">
+      <c r="T125" s="44">
         <v>25763</v>
       </c>
-      <c r="U125" s="46">
+      <c r="U125" s="44">
         <v>27589</v>
       </c>
       <c r="V125" s="12">
@@ -16602,10 +16905,10 @@
       <c r="BG125" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="BH125" s="46">
+      <c r="BH125" s="44">
         <v>25763</v>
       </c>
-      <c r="BI125" s="46">
+      <c r="BI125" s="44">
         <v>27589</v>
       </c>
       <c r="BJ125" s="12" t="s">
@@ -16622,10 +16925,10 @@
       <c r="N126" s="30">
         <v>18</v>
       </c>
-      <c r="O126" s="46">
+      <c r="O126" s="44">
         <v>27590</v>
       </c>
-      <c r="P126" s="46">
+      <c r="P126" s="44">
         <v>29079</v>
       </c>
       <c r="R126" s="10">
@@ -16634,10 +16937,10 @@
       <c r="S126" s="30">
         <v>18</v>
       </c>
-      <c r="T126" s="46">
+      <c r="T126" s="44">
         <v>27590</v>
       </c>
-      <c r="U126" s="46">
+      <c r="U126" s="44">
         <v>29079</v>
       </c>
       <c r="V126" s="12">
@@ -16652,10 +16955,10 @@
       <c r="BG126" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="BH126" s="46">
+      <c r="BH126" s="44">
         <v>27590</v>
       </c>
-      <c r="BI126" s="46">
+      <c r="BI126" s="44">
         <v>29079</v>
       </c>
       <c r="BJ126" s="12" t="s">
@@ -16672,10 +16975,10 @@
       <c r="N127" s="30">
         <v>18</v>
       </c>
-      <c r="O127" s="46">
+      <c r="O127" s="44">
         <v>29080</v>
       </c>
-      <c r="P127" s="46">
+      <c r="P127" s="44">
         <v>30540</v>
       </c>
       <c r="R127" s="10">
@@ -16684,10 +16987,10 @@
       <c r="S127" s="30">
         <v>18</v>
       </c>
-      <c r="T127" s="46">
+      <c r="T127" s="44">
         <v>29080</v>
       </c>
-      <c r="U127" s="46">
+      <c r="U127" s="44">
         <v>30540</v>
       </c>
       <c r="V127" s="12">
@@ -16702,10 +17005,10 @@
       <c r="BG127" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BH127" s="46">
+      <c r="BH127" s="44">
         <v>29080</v>
       </c>
-      <c r="BI127" s="46">
+      <c r="BI127" s="44">
         <v>30540</v>
       </c>
       <c r="BJ127" s="12" t="s">
@@ -16722,10 +17025,10 @@
       <c r="N128" s="30">
         <v>25</v>
       </c>
-      <c r="O128" s="46">
+      <c r="O128" s="44">
         <v>30615</v>
       </c>
-      <c r="P128" s="46">
+      <c r="P128" s="44">
         <v>32208</v>
       </c>
       <c r="R128" s="10">
@@ -16734,10 +17037,10 @@
       <c r="S128" s="30">
         <v>25</v>
       </c>
-      <c r="T128" s="46">
+      <c r="T128" s="44">
         <v>30615</v>
       </c>
-      <c r="U128" s="46">
+      <c r="U128" s="44">
         <v>32208</v>
       </c>
       <c r="V128" s="12">
@@ -16752,10 +17055,10 @@
       <c r="BG128" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BH128" s="46">
+      <c r="BH128" s="44">
         <v>30615</v>
       </c>
-      <c r="BI128" s="46">
+      <c r="BI128" s="44">
         <v>32208</v>
       </c>
       <c r="BJ128" s="12" t="s">
@@ -16772,10 +17075,10 @@
       <c r="N129" s="30">
         <v>25</v>
       </c>
-      <c r="O129" s="46">
+      <c r="O129" s="44">
         <v>32209</v>
       </c>
-      <c r="P129" s="46">
+      <c r="P129" s="44">
         <v>33123</v>
       </c>
       <c r="R129" s="10">
@@ -16784,10 +17087,10 @@
       <c r="S129" s="30">
         <v>25</v>
       </c>
-      <c r="T129" s="46">
+      <c r="T129" s="44">
         <v>32209</v>
       </c>
-      <c r="U129" s="46">
+      <c r="U129" s="44">
         <v>33123</v>
       </c>
       <c r="V129" s="12">
@@ -16802,10 +17105,10 @@
       <c r="BG129" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BH129" s="46">
+      <c r="BH129" s="44">
         <v>32209</v>
       </c>
-      <c r="BI129" s="46">
+      <c r="BI129" s="44">
         <v>33123</v>
       </c>
       <c r="BJ129" s="12" t="s">
@@ -16822,10 +17125,10 @@
       <c r="N130" s="30">
         <v>25</v>
       </c>
-      <c r="O130" s="46">
+      <c r="O130" s="44">
         <v>33124</v>
       </c>
-      <c r="P130" s="46">
+      <c r="P130" s="44">
         <v>33393</v>
       </c>
       <c r="R130" s="10">
@@ -16834,10 +17137,10 @@
       <c r="S130" s="30">
         <v>25</v>
       </c>
-      <c r="T130" s="46">
+      <c r="T130" s="44">
         <v>33124</v>
       </c>
-      <c r="U130" s="46">
+      <c r="U130" s="44">
         <v>33393</v>
       </c>
       <c r="V130" s="12">
@@ -16849,13 +17152,13 @@
       <c r="BF130" s="30">
         <v>25</v>
       </c>
-      <c r="BG130" s="36" t="s">
+      <c r="BG130" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="BH130" s="46">
+      <c r="BH130" s="44">
         <v>33124</v>
       </c>
-      <c r="BI130" s="46">
+      <c r="BI130" s="44">
         <v>33393</v>
       </c>
       <c r="BJ130" s="12" t="s">
@@ -16872,10 +17175,10 @@
       <c r="N131" s="30">
         <v>25</v>
       </c>
-      <c r="O131" s="46">
+      <c r="O131" s="44">
         <v>33394</v>
       </c>
-      <c r="P131" s="46">
+      <c r="P131" s="44">
         <v>36682</v>
       </c>
       <c r="R131" s="10">
@@ -16884,10 +17187,10 @@
       <c r="S131" s="30">
         <v>25</v>
       </c>
-      <c r="T131" s="46">
+      <c r="T131" s="44">
         <v>33394</v>
       </c>
-      <c r="U131" s="46">
+      <c r="U131" s="44">
         <v>36682</v>
       </c>
       <c r="V131" s="12">
@@ -16902,10 +17205,10 @@
       <c r="BG131" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="BH131" s="46">
+      <c r="BH131" s="44">
         <v>33394</v>
       </c>
-      <c r="BI131" s="46">
+      <c r="BI131" s="44">
         <v>36682</v>
       </c>
       <c r="BJ131" s="12" t="s">
@@ -16922,10 +17225,10 @@
       <c r="N132" s="30">
         <v>25</v>
       </c>
-      <c r="O132" s="46">
+      <c r="O132" s="44">
         <v>36683</v>
       </c>
-      <c r="P132" s="46">
+      <c r="P132" s="44">
         <v>37476</v>
       </c>
       <c r="R132" s="10">
@@ -16934,13 +17237,13 @@
       <c r="S132" s="30">
         <v>25</v>
       </c>
-      <c r="T132" s="46">
+      <c r="T132" s="44">
         <v>36683</v>
       </c>
-      <c r="U132" s="46">
+      <c r="U132" s="44">
         <v>37476</v>
       </c>
-      <c r="V132" s="12">
+      <c r="V132" s="51">
         <v>2350</v>
       </c>
       <c r="BE132" s="10">
@@ -16952,10 +17255,10 @@
       <c r="BG132" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="BH132" s="46">
+      <c r="BH132" s="44">
         <v>36683</v>
       </c>
-      <c r="BI132" s="46">
+      <c r="BI132" s="44">
         <v>37476</v>
       </c>
       <c r="BJ132" s="12" t="s">
@@ -16972,10 +17275,10 @@
       <c r="N133" s="30">
         <v>25</v>
       </c>
-      <c r="O133" s="46">
+      <c r="O133" s="44">
         <v>37477</v>
       </c>
-      <c r="P133" s="46">
+      <c r="P133" s="44">
         <v>37980</v>
       </c>
       <c r="R133" s="10">
@@ -16984,10 +17287,10 @@
       <c r="S133" s="30">
         <v>25</v>
       </c>
-      <c r="T133" s="46">
+      <c r="T133" s="44">
         <v>37477</v>
       </c>
-      <c r="U133" s="46">
+      <c r="U133" s="44">
         <v>37980</v>
       </c>
       <c r="V133" s="12">
@@ -17002,10 +17305,10 @@
       <c r="BG133" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="BH133" s="46">
+      <c r="BH133" s="44">
         <v>37477</v>
       </c>
-      <c r="BI133" s="46">
+      <c r="BI133" s="44">
         <v>37980</v>
       </c>
       <c r="BJ133" s="12" t="s">
@@ -17022,10 +17325,10 @@
       <c r="N134" s="30">
         <v>21</v>
       </c>
-      <c r="O134" s="46">
+      <c r="O134" s="44">
         <v>31016</v>
       </c>
-      <c r="P134" s="46">
+      <c r="P134" s="44">
         <v>33112</v>
       </c>
       <c r="R134" s="10">
@@ -17034,10 +17337,10 @@
       <c r="S134" s="30">
         <v>21</v>
       </c>
-      <c r="T134" s="46">
+      <c r="T134" s="44">
         <v>31016</v>
       </c>
-      <c r="U134" s="46">
+      <c r="U134" s="44">
         <v>33112</v>
       </c>
       <c r="V134" s="12">
@@ -17052,10 +17355,10 @@
       <c r="BG134" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BH134" s="46">
+      <c r="BH134" s="44">
         <v>31016</v>
       </c>
-      <c r="BI134" s="46">
+      <c r="BI134" s="44">
         <v>33112</v>
       </c>
       <c r="BJ134" s="12" t="s">
@@ -17072,10 +17375,10 @@
       <c r="N135" s="30">
         <v>21</v>
       </c>
-      <c r="O135" s="46">
+      <c r="O135" s="44">
         <v>33113</v>
       </c>
-      <c r="P135" s="46">
+      <c r="P135" s="44">
         <v>34409</v>
       </c>
       <c r="R135" s="10">
@@ -17084,10 +17387,10 @@
       <c r="S135" s="30">
         <v>21</v>
       </c>
-      <c r="T135" s="46">
+      <c r="T135" s="44">
         <v>33113</v>
       </c>
-      <c r="U135" s="46">
+      <c r="U135" s="44">
         <v>34409</v>
       </c>
       <c r="V135" s="12">
@@ -17102,10 +17405,10 @@
       <c r="BG135" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BH135" s="46">
+      <c r="BH135" s="44">
         <v>33113</v>
       </c>
-      <c r="BI135" s="46">
+      <c r="BI135" s="44">
         <v>34409</v>
       </c>
       <c r="BJ135" s="12" t="s">
@@ -17122,10 +17425,10 @@
       <c r="N136" s="30">
         <v>21</v>
       </c>
-      <c r="O136" s="46">
+      <c r="O136" s="44">
         <v>34410</v>
       </c>
-      <c r="P136" s="46">
+      <c r="P136" s="44">
         <v>36967</v>
       </c>
       <c r="R136" s="10">
@@ -17134,10 +17437,10 @@
       <c r="S136" s="30">
         <v>21</v>
       </c>
-      <c r="T136" s="46">
+      <c r="T136" s="44">
         <v>34410</v>
       </c>
-      <c r="U136" s="46">
+      <c r="U136" s="44">
         <v>36967</v>
       </c>
       <c r="V136" s="12">
@@ -17152,10 +17455,10 @@
       <c r="BG136" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BH136" s="46">
+      <c r="BH136" s="44">
         <v>34410</v>
       </c>
-      <c r="BI136" s="46">
+      <c r="BI136" s="44">
         <v>36967</v>
       </c>
       <c r="BJ136" s="12" t="s">
@@ -17172,10 +17475,10 @@
       <c r="N137" s="30">
         <v>21</v>
       </c>
-      <c r="O137" s="46">
+      <c r="O137" s="44">
         <v>36968</v>
       </c>
-      <c r="P137" s="46">
+      <c r="P137" s="44">
         <v>37445</v>
       </c>
       <c r="R137" s="10">
@@ -17184,10 +17487,10 @@
       <c r="S137" s="30">
         <v>21</v>
       </c>
-      <c r="T137" s="46">
+      <c r="T137" s="44">
         <v>36968</v>
       </c>
-      <c r="U137" s="46">
+      <c r="U137" s="44">
         <v>37445</v>
       </c>
       <c r="V137" s="12">
@@ -17199,13 +17502,13 @@
       <c r="BF137" s="30">
         <v>21</v>
       </c>
-      <c r="BG137" s="36" t="s">
+      <c r="BG137" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="BH137" s="46">
+      <c r="BH137" s="44">
         <v>36968</v>
       </c>
-      <c r="BI137" s="46">
+      <c r="BI137" s="44">
         <v>37445</v>
       </c>
       <c r="BJ137" s="12" t="s">
@@ -17222,10 +17525,10 @@
       <c r="N138" s="30">
         <v>21</v>
       </c>
-      <c r="O138" s="46">
+      <c r="O138" s="44">
         <v>37446</v>
       </c>
-      <c r="P138" s="46">
+      <c r="P138" s="44">
         <v>38016</v>
       </c>
       <c r="R138" s="10">
@@ -17234,10 +17537,10 @@
       <c r="S138" s="30">
         <v>21</v>
       </c>
-      <c r="T138" s="46">
+      <c r="T138" s="44">
         <v>37446</v>
       </c>
-      <c r="U138" s="46">
+      <c r="U138" s="44">
         <v>38016</v>
       </c>
       <c r="V138" s="12">
@@ -17249,13 +17552,13 @@
       <c r="BF138" s="30">
         <v>21</v>
       </c>
-      <c r="BG138" s="36" t="s">
+      <c r="BG138" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="BH138" s="46">
+      <c r="BH138" s="44">
         <v>37446</v>
       </c>
-      <c r="BI138" s="46">
+      <c r="BI138" s="44">
         <v>38016</v>
       </c>
       <c r="BJ138" s="12" t="s">
@@ -17263,25 +17566,35 @@
       </c>
     </row>
     <row r="139" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="21"/>
-      <c r="P139" s="21"/>
+      <c r="L139" s="10">
+        <v>136</v>
+      </c>
+      <c r="M139" s="10">
+        <v>90</v>
+      </c>
+      <c r="N139" s="10">
+        <v>26</v>
+      </c>
+      <c r="O139" s="44">
+        <v>22857</v>
+      </c>
+      <c r="P139" s="44">
+        <v>23606</v>
+      </c>
       <c r="R139" s="10">
         <v>136</v>
       </c>
-      <c r="S139" s="30">
-        <v>27</v>
-      </c>
-      <c r="T139" s="46">
-        <v>33124</v>
-      </c>
-      <c r="U139" s="46">
-        <v>33393</v>
-      </c>
-      <c r="V139" s="12">
-        <v>1500</v>
+      <c r="S139" s="10">
+        <v>26</v>
+      </c>
+      <c r="T139" s="44">
+        <v>22857</v>
+      </c>
+      <c r="U139" s="44">
+        <v>23606</v>
+      </c>
+      <c r="V139" s="24">
+        <v>1300</v>
       </c>
       <c r="BE139" s="10">
         <v>136</v>
@@ -17289,13 +17602,13 @@
       <c r="BF139" s="30">
         <v>27</v>
       </c>
-      <c r="BG139" s="36" t="s">
+      <c r="BG139" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="BH139" s="46">
+      <c r="BH139" s="44">
         <v>33124</v>
       </c>
-      <c r="BI139" s="46">
+      <c r="BI139" s="44">
         <v>33393</v>
       </c>
       <c r="BJ139" s="12" t="s">
@@ -17303,25 +17616,35 @@
       </c>
     </row>
     <row r="140" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="21"/>
-      <c r="P140" s="21"/>
+      <c r="L140" s="10">
+        <v>137</v>
+      </c>
+      <c r="M140" s="10">
+        <v>90</v>
+      </c>
+      <c r="N140" s="10">
+        <v>26</v>
+      </c>
+      <c r="O140" s="44">
+        <v>23607</v>
+      </c>
+      <c r="P140" s="44">
+        <v>24534</v>
+      </c>
       <c r="R140" s="10">
         <v>137</v>
       </c>
-      <c r="S140" s="30">
-        <v>27</v>
-      </c>
-      <c r="T140" s="46">
-        <v>33394</v>
-      </c>
-      <c r="U140" s="46">
-        <v>36682</v>
-      </c>
-      <c r="V140" s="12">
-        <v>2100</v>
+      <c r="S140" s="10">
+        <v>26</v>
+      </c>
+      <c r="T140" s="44">
+        <v>23607</v>
+      </c>
+      <c r="U140" s="44">
+        <v>24534</v>
+      </c>
+      <c r="V140" s="24">
+        <v>2400</v>
       </c>
       <c r="BE140" s="10">
         <v>137</v>
@@ -17332,10 +17655,10 @@
       <c r="BG140" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="BH140" s="46">
+      <c r="BH140" s="44">
         <v>33394</v>
       </c>
-      <c r="BI140" s="46">
+      <c r="BI140" s="44">
         <v>36682</v>
       </c>
       <c r="BJ140" s="12" t="s">
@@ -17343,25 +17666,35 @@
       </c>
     </row>
     <row r="141" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="21"/>
-      <c r="P141" s="21"/>
+      <c r="L141" s="10">
+        <v>138</v>
+      </c>
+      <c r="M141" s="10">
+        <v>30</v>
+      </c>
+      <c r="N141" s="10">
+        <v>26</v>
+      </c>
+      <c r="O141" s="44">
+        <v>24535</v>
+      </c>
+      <c r="P141" s="44">
+        <v>27337</v>
+      </c>
       <c r="R141" s="10">
         <v>138</v>
       </c>
-      <c r="S141" s="30">
-        <v>27</v>
-      </c>
-      <c r="T141" s="46">
-        <v>36683</v>
-      </c>
-      <c r="U141" s="46">
-        <v>37476</v>
-      </c>
-      <c r="V141" s="12">
-        <v>2350</v>
+      <c r="S141" s="10">
+        <v>26</v>
+      </c>
+      <c r="T141" s="44">
+        <v>24535</v>
+      </c>
+      <c r="U141" s="44">
+        <v>27337</v>
+      </c>
+      <c r="V141" s="24">
+        <v>2650</v>
       </c>
       <c r="BE141" s="10">
         <v>138</v>
@@ -17369,13 +17702,13 @@
       <c r="BF141" s="30">
         <v>27</v>
       </c>
-      <c r="BG141" s="36" t="s">
+      <c r="BG141" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="BH141" s="46">
+      <c r="BH141" s="44">
         <v>36683</v>
       </c>
-      <c r="BI141" s="46">
+      <c r="BI141" s="44">
         <v>37476</v>
       </c>
       <c r="BJ141" s="12" t="s">
@@ -17383,25 +17716,35 @@
       </c>
     </row>
     <row r="142" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="21"/>
-      <c r="P142" s="21"/>
+      <c r="L142" s="10">
+        <v>139</v>
+      </c>
+      <c r="M142" s="10">
+        <v>30</v>
+      </c>
+      <c r="N142" s="10">
+        <v>26</v>
+      </c>
+      <c r="O142" s="44">
+        <v>27338</v>
+      </c>
+      <c r="P142" s="44">
+        <v>29579</v>
+      </c>
       <c r="R142" s="10">
         <v>139</v>
       </c>
-      <c r="S142" s="30">
-        <v>27</v>
-      </c>
-      <c r="T142" s="46">
-        <v>37477</v>
-      </c>
-      <c r="U142" s="46">
-        <v>37980</v>
-      </c>
-      <c r="V142" s="12">
-        <v>2600</v>
+      <c r="S142" s="10">
+        <v>26</v>
+      </c>
+      <c r="T142" s="44">
+        <v>27338</v>
+      </c>
+      <c r="U142" s="44">
+        <v>29579</v>
+      </c>
+      <c r="V142" s="32">
+        <v>5000</v>
       </c>
       <c r="BE142" s="10">
         <v>139</v>
@@ -17412,10 +17755,10 @@
       <c r="BG142" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="BH142" s="46">
+      <c r="BH142" s="44">
         <v>37477</v>
       </c>
-      <c r="BI142" s="46">
+      <c r="BI142" s="44">
         <v>37980</v>
       </c>
       <c r="BJ142" s="12" t="s">
@@ -17423,11 +17766,36 @@
       </c>
     </row>
     <row r="143" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="R143" s="20"/>
-      <c r="S143" s="22"/>
-      <c r="T143" s="22"/>
-      <c r="U143" s="22"/>
-      <c r="V143" s="22"/>
+      <c r="L143" s="10">
+        <v>140</v>
+      </c>
+      <c r="M143" s="10">
+        <v>80</v>
+      </c>
+      <c r="N143" s="10">
+        <v>26</v>
+      </c>
+      <c r="O143" s="44">
+        <v>29580</v>
+      </c>
+      <c r="P143" s="44">
+        <v>29857</v>
+      </c>
+      <c r="R143" s="10">
+        <v>140</v>
+      </c>
+      <c r="S143" s="10">
+        <v>26</v>
+      </c>
+      <c r="T143" s="44">
+        <v>29580</v>
+      </c>
+      <c r="U143" s="44">
+        <v>29857</v>
+      </c>
+      <c r="V143" s="32">
+        <v>5000</v>
+      </c>
     </row>
     <row r="144" spans="12:62" x14ac:dyDescent="0.25">
       <c r="R144" s="20"/>
@@ -17813,10 +18181,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
